--- a/results/results_with_ussc.xlsx
+++ b/results/results_with_ussc.xlsx
@@ -522,7 +522,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "User Management Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email", "password"], "outputs": ["registration result"], "description": "takes user email and password as inputs and outputs the registration result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}, {"name": "/logout", "method": "POST", "inputs": [], "outputs": ["logout result"], "description": "logs out the user from the profile"}, {"name": "/profile", "method": "GET", "inputs": [], "outputs": ["user profile"], "description": "retrieves the user profile"}], "user_stories": ["1", "2", "3", "8", "13", "14", "19"], "parameters": ["email", "password"], "description": "Handles user registration, login, logout, and profile management for both Customers and Merchants."}, {"name": "Product Catalog Service", "endpoints": [{"name": "/products", "method": "GET", "inputs": [], "outputs": ["product list"], "description": "retrieves the list of products"}, {"name": "/product/{id}", "method": "GET", "inputs": ["id"], "outputs": ["product details"], "description": "retrieves the details of a specific product"}, {"name": "/search", "method": "GET", "inputs": ["keyword"], "outputs": ["search results"], "description": "searches for products based on a keyword"}, {"name": "/sort", "method": "GET", "inputs": ["criteria"], "outputs": ["sorted products"], "description": "sorts products based on a criteria"}], "user_stories": ["5", "6", "11", "12", "15", "16", "17", "18", "21", "22"], "parameters": ["id", "keyword", "criteria"], "description": "Manages product listings, details, search, sorting, and product modifications by Merchants."}, {"name": "Shopping Cart Service", "endpoints": [{"name": "/cart", "method": "GET", "inputs": [], "outputs": ["shopping cart items"], "description": "retrieves the items in the shopping cart"}, {"name": "/add", "method": "POST", "inputs": ["product_id"], "outputs": ["add result"], "description": "adds a product to the shopping cart"}, {"name": "/remove", "method": "POST", "inputs": ["product_id"], "outputs": ["remove result"], "description": "removes a product from the shopping cart"}], "user_stories": ["4", "24", "25"], "parameters": ["product_id"], "description": "Manages the shopping cart operations including viewing, adding, and removing products."}, {"name": "Order Management Service", "endpoints": [{"name": "/place_order", "method": "POST", "inputs": ["cart_items"], "outputs": ["order result"], "description": "places an order based on the items in the shopping cart"}, {"name": "/order_status", "method": "GET", "inputs": ["order_id"], "outputs": ["order status"], "description": "retrieves the status of a specific order"}], "user_stories": ["9"], "parameters": ["cart_items", "order_id"], "description": "Handles order placement and order status tracking for Customers."}, {"name": "Payment Service", "endpoints": [{"name": "/process_payment", "method": "POST", "inputs": ["cart_total"], "outputs": ["payment result"], "description": "processes payment for the current shopping cart"}], "user_stories": ["7"], "parameters": ["cart_total"], "description": "Processes payments for the current shopping cart."}, {"name": "Information Service", "endpoints": [{"name": "/about_us", "method": "GET", "inputs": [], "outputs": ["about us content"], "description": "provides information about the shop"}, {"name": "/contact", "method": "POST", "inputs": ["message"], "outputs": ["contact result"], "description": "allows customers to contact the shop"}], "user_stories": ["10", "20", "23"], "parameters": ["message"], "description": "Provides static information pages such as About Us and contact support."}], "patterns": [{"group_name": "Data Management Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["User Management Service", "Product Catalog Service", "Order Management Service"], "explaination": "Each microservice should have its own private database to ensure loose coupling and independent data management."}, {"group_name": "Data Management Patterns", "implementation_pattern": "Saga Pattern", "involved_microservices": ["Order Management Service", "Shopping Cart Service", "Payment Service"], "explaination": "For distributed transactions that span multiple services, use the Saga pattern to maintain data consistency through a sequence of local transactions."}, {"group_name": "Data Management Patterns", "implementation_pattern": "API Composition", "involved_microservices": ["Product Catalog Service"], "explaination": "For queries that require data from multiple services, use API Composition to aggregate data via service APIs."}], "datastore": [{"datastore_name": "User Management Database", "associated_microservices": ["User Management Service"], "description": "Database for storing user registration, login, and profile information."}, {"datastore_name": "Product Catalog Database", "associated_microservices": ["Product Catalog Service"], "description": "Database for managing product listings, details, and modifications."}, {"datastore_name": "Order Management Database", "associated_microservices": ["Order Management Service"], "description": "Database for handling order placement and status tracking."}, {"datastore_name": "Shopping Cart Database", "associated_microservices": ["Shopping Cart Service"], "description": "Database for managing shopping cart operations."}, {"datastore_name": "Payment Database", "associated_microservices": ["Payment Service"], "description": "Database for processing payments for shopping carts."}]}</t>
+          <t>{'microservices': [{'name': 'User Service', 'endpoints': [{'name': '/register', 'method': 'POST', 'inputs': ['email', 'password', 'user_type'], 'outputs': ['user_id', 'registration_status'], 'description': 'Registers a new customer or merchant account'}, {'name': '/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['auth_token', 'user_id', 'user_type'], 'description': 'Authenticates a user and returns an authentication token'}, {'name': '/logout', 'method': 'POST', 'inputs': ['auth_token'], 'outputs': ['logout_status'], 'description': 'Logs out the user and invalidates the authentication token'}, {'name': '/profile/{user_id}', 'method': 'GET', 'inputs': ['auth_token', 'user_id'], 'outputs': ['user_profile'], 'description': 'Retrieves the profile information for a customer or merchant'}, {'name': '/profile/{user_id}', 'method': 'PUT', 'inputs': ['auth_token', 'user_id', 'profile_data'], 'outputs': ['update_status'], 'description': 'Updates the profile information for a user'}], 'user_stories': ['1', '2', '3', '8', '13', '14', '19'], 'parameters': ['user_id', 'email', 'password', 'user_type', 'auth_token', 'profile_data'], 'description': 'Handles user authentication, registration, and profile management for both customers and merchants'}, {'name': 'Product Service', 'endpoints': [{'name': '/products', 'method': 'GET', 'inputs': ['sort_order', 'filter_params'], 'outputs': ['product_list'], 'description': 'Retrieves the list of products with optional sorting and filtering'}, {'name': '/products/search', 'method': 'GET', 'inputs': ['search_query'], 'outputs': ['search_results'], 'description': 'Searches for products by name'}, {'name': '/products/{product_id}', 'method': 'GET', 'inputs': ['product_id'], 'outputs': ['product_details'], 'description': 'Retrieves detailed information about a specific product'}, {'name': '/products', 'method': 'POST', 'inputs': ['auth_token', 'product_data'], 'outputs': ['product_id', 'creation_status'], 'description': 'Adds a new product to the catalog (merchant only)'}, {'name': '/products/{product_id}', 'method': 'PUT', 'inputs': ['auth_token', 'product_id', 'product_data'], 'outputs': ['update_status'], 'description': 'Updates product information including price (merchant only)'}, {'name': '/products/{product_id}', 'method': 'DELETE', 'inputs': ['auth_token', 'product_id'], 'outputs': ['deletion_status'], 'description': 'Removes a product from the catalog (merchant only)'}], 'user_stories': ['5', '6', '11', '12', '15', '16', '17', '18', '21', '22'], 'parameters': ['product_id', 'product_name', 'price', 'description', 'inventory_quantity', 'sort_order', 'filter_params', 'search_query'], 'description': 'Manages product catalog including CRUD operations, search, filtering, and sorting capabilities'}, {'name': 'Cart Service', 'endpoints': [{'name': '/cart/{user_id}', 'method': 'GET', 'inputs': ['auth_token', 'user_id'], 'outputs': ['cart_items', 'total_price'], 'description': 'Retrieves the current shopping cart for a customer'}, {'name': '/cart/{user_id}/items', 'method': 'POST', 'inputs': ['auth_token', 'user_id', 'product_id', 'quantity'], 'outputs': ['cart_status'], 'description': 'Adds a product to the shopping cart'}, {'name': '/cart/{user_id}/items/{product_id}', 'method': 'DELETE', 'inputs': ['auth_token', 'user_id', 'product_id'], 'outputs': ['cart_status'], 'description': 'Removes a specific product from the shopping cart'}, {'name': '/cart/{user_id}/clear', 'method': 'DELETE', 'inputs': ['auth_token', 'user_id'], 'outputs': ['cart_status'], 'description': 'Removes all items from the shopping cart'}], 'user_stories': ['4', '24', '25'], 'parameters': ['user_id', 'cart_id', 'product_id', 'quantity', 'cart_items', 'total_price'], 'description': 'Manages shopping cart operations including adding, removing items and viewing cart contents'}, {'name': 'Payment Service', 'endpoints': [{'name': '/payment/process', 'method': 'POST', 'inputs': ['auth_token', 'user_id', 'cart_id', 'payment_details'], 'outputs': ['payment_id', 'payment_status', 'transaction_id'], 'description': 'Processes payment for the current shopping cart'}, {'name': '/payment/{payment_id}', 'method': 'GET', 'inputs': ['auth_token', 'payment_id'], 'outputs': ['payment_details', 'payment_status'], 'description': 'Retrieves payment information and status'}, {'name': '/payment/{payment_id}/refund', 'method': 'POST', 'inputs': ['auth_token', 'payment_id'], 'outputs': ['refund_status'], 'description': 'Processes a refund for a payment (compensation for failed orders)'}], 'user_stories': ['7'], 'parameters': ['payment_id', 'user_id', 'cart_id', 'payment_details', 'payment_status', 'transaction_id', 'amount'], 'description': 'Handles payment processing for customer orders'}, {'name': 'Order Service', 'endpoints': [{'name': '/orders', 'method': 'POST', 'inputs': ['auth_token', 'user_id', 'payment_id', 'cart_items'], 'outputs': ['order_id', 'order_status'], 'description': 'Creates a new order after successful payment'}, {'name': '/orders/{order_id}', 'method': 'GET', 'inputs': ['auth_token', 'order_id'], 'outputs': ['order_details', 'shipment_info', 'tracking_number'], 'description': 'Retrieves order details including shipment and tracking information'}, {'name': '/orders/user/{user_id}', 'method': 'GET', 'inputs': ['auth_token', 'user_id'], 'outputs': ['order_list'], 'description': 'Retrieves all orders for a specific user'}, {'name': '/orders/{order_id}/shipment', 'method': 'PUT', 'inputs': ['order_id', 'shipment_status', 'tracking_number'], 'outputs': ['update_status'], 'description': 'Updates shipment information for an order'}], 'user_stories': ['9'], 'parameters': ['order_id', 'user_id', 'payment_id', 'cart_items', 'order_status', 'shipment_status', 'tracking_number', 'delivery_address'], 'description': 'Manages order creation, tracking, and shipment information'}, {'name': 'Content Service', 'endpoints': [{'name': '/about', 'method': 'GET', 'inputs': [], 'outputs': ['about_page_content'], 'description': 'Retrieves the About Us page content'}, {'name': '/contact', 'method': 'POST', 'inputs': ['name', 'email', 'message'], 'outputs': ['submission_status'], 'description': 'Submits a contact inquiry from a customer'}, {'name': '/contact/inquiries', 'method': 'GET', 'inputs': ['auth_token'], 'outputs': ['inquiry_list'], 'description': 'Retrieves all customer inquiries (admin/merchant access)'}], 'user_stories': ['10', '20', '23'], 'parameters': ['page_content', 'inquiry_id', 'name', 'email', 'message'], 'description': 'Serves static content pages and handles customer inquiries/contact requests'}], 'patterns': [{'group_name': 'Service Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['User Service', 'Product Service', 'Cart Service', 'Payment Service', 'Order Service', 'Content Service'], 'explaination': 'I chose the database per service pattern because the context explicitly recommends it for ensuring loose coupling and independent deployment. Each service manages its own domain data independently: User Service handles authentication data, Product Service maintains the product catalog, Cart Service manages shopping cart state, Payment Service stores transaction records, Order Service maintains order history, and Content Service stores static content and inquiries. This allows each service to scale and evolve independently without affecting others.'}, {'group_name': 'Order Processing Transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['Payment Service', 'Order Service', 'Cart Service', 'Product Service'], 'explaination': 'I chose the Saga pattern because the context indicates it is essential for managing distributed transactions during the order creation flow. When a customer pays for their cart (user story 7), the saga coordinates: 1) Payment Service processes payment, 2) Order Service creates the order (user story 9), 3) Cart Service clears the cart, and 4) Product Service updates inventory. If any step fails (e.g., payment succeeds but order creation fails), the saga handles compensation by refunding the payment, ensuring data consistency across services without distributed locks.'}, {'group_name': 'Product Management Transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['Product Service', 'Cart Service'], 'explaination': 'I chose the Saga pattern for product management because the context recommends it for coordinating changes when merchants update product prices or inventory (user stories 15, 16). When a merchant modifies or removes a product, the saga ensures that Cart Service is notified to validate and potentially update cart contents, maintaining consistency between the product catalog and active shopping carts.'}, {'group_name': 'Cart Product Details Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Cart Service', 'Product Service'], 'explaination': 'I chose API Composition because the context recommends it for combining cart items from Cart Service with full product information from Product Service (user story 4). When a customer views their cart, the Cart Service queries Product Service for current product details (name, price, availability) to display complete information. This avoids duplicating product data in the cart database while providing a unified view.'}, {'group_name': 'Order Tracking Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Order Service', 'Payment Service'], 'explaination': 'I chose API Composition because the context recommends aggregating order and delivery information when customers check their orders (user story 9). The Order Service composes data from its own database (order details, shipment status) with payment information from Payment Service to provide a complete order view including payment status and transaction details.'}, {'group_name': 'User Profile Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['User Service', 'Order Service'], 'explaination': 'I chose API Composition because the context recommends it for composing data from User Service and Order Service when displaying user profiles with order history (user stories 3, 19). When customers or merchants access their profile, the User Service retrieves profile data and composes it with order history from Order Service to provide a comprehensive profile view.'}, {'group_name': 'Product Change Notifications', 'implementation_pattern': 'domain event', 'involved_microservices': ['Product Service', 'Cart Service'], 'explaination': 'I chose Domain Event pattern because the context recommends it for asynchronous communication when products are added, removed, or updated by merchants (user stories 15, 16). Product Service publishes domain events that Cart Service consumes to validate cart contents, ensuring customers are notified if products in their cart are no longer available or have changed in price.'}, {'group_name': 'User Lifecycle Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['User Service', 'Cart Service', 'Order Service'], 'explaination': 'I chose Domain Event pattern because the context recommends it for user registration and profile updates (user stories 1, 3, 19). When users register or update profiles, User Service publishes events that other services can consume. For example, Cart Service can initialize a cart for new users, and Order Service can update customer information for order tracking.'}, {'group_name': 'Product Search Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Product Service'], 'explaination': 'I chose CQRS because the context recommends it for optimizing product search, sorting, and filtering operations (user stories 5, 6, 11, 17, 18, 21, 22). Product Service maintains a write model for product updates by merchants and a separate read-optimized model for customer searches and browsing. The read model is optimized for queries with pre-computed indexes for name searches, price sorting, and category filtering, improving performance for the most common operations in an e-commerce system.'}], 'datastore': [{'datastore_name': 'User Database', 'associated_microservices': ['User Service'], 'description': 'Stores user authentication credentials, profile information, and user types (customer/merchant). Supports user stories 1, 2, 3, 8, 13, 14, 19 for registration, login, logout, and profile management. Uses database per service pattern for service independence.'}, {'datastore_name': 'Product Write Database', 'associated_microservices': ['Product Service'], 'description': 'Stores the authoritative product catalog including product details, prices, descriptions, and inventory levels. Supports merchant operations (user stories 15, 16) for adding, updating, and removing products. Part of CQRS write model and database per service pattern.'}, {'datastore_name': 'Product Read Database', 'associated_microservices': ['Product Service'], 'description': 'Read-optimized materialized view of products for fast searching, filtering, and sorting. Supports user stories 5, 6, 11, 12, 17, 18, 21, 22 for product browsing and search operations. Part of CQRS read model with indexes optimized for search queries and price sorting.'}, {'datastore_name': 'Cart Database', 'associated_microservices': ['Cart Service'], 'description': 'Stores shopping cart state including cart items, quantities, and associations to users. Supports user stories 4, 24, 25 for viewing cart, adding products, and removing items. Uses database per service pattern and participates in saga patterns for order processing and product validation.'}, {'datastore_name': 'Payment Database', 'associated_microservices': ['Payment Service'], 'description': 'Stores payment transaction records, payment status, and transaction IDs. Supports user story 7 for payment processing. Uses database per service pattern and participates in saga pattern for order processing, including compensation logic for refunds when orders fail.'}, {'datastore_name': 'Order Database', 'associated_microservices': ['Order Service'], 'description': 'Stores order records, order status, shipment information, and tracking numbers. Supports user story 9 for order tracking and checking package information. Uses database per service pattern and participates in saga pattern for order creation flow.'}, {'datastore_name': 'Content Database', 'associated_microservices': ['Content Service'], 'description': 'Stores static content pages (About Us) and customer inquiry submissions. Supports user stories 10, 20, 23 for accessing About Us page and submitting contact inquiries. Uses database per service pattern for independent content management.'}]}</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -595,7 +595,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "User Management Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email", "password"], "outputs": ["registration result"], "description": "takes user email and password as inputs and outputs the registration result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}, {"name": "/logout", "method": "POST", "inputs": [], "outputs": ["logout result"], "description": "logs out the user"}, {"name": "/profile", "method": "GET", "inputs": [], "outputs": ["user profile"], "description": "retrieves user profile details"}, {"name": "/change-username", "method": "PUT", "inputs": ["new_username"], "outputs": ["username change result"], "description": "changes the user's username"}, {"name": "/change-password", "method": "PUT", "inputs": ["new_password"], "outputs": ["password change result"], "description": "changes the user's password"}], "user_stories": ["2", "3", "4", "5", "7", "8", "9"], "parameters": ["email", "password", "new_username", "new_password"], "description": "Handles user registration, login, logout, profile management, and credential storage."}, {"name": "Game Management Service", "endpoints": [{"name": "/create-game", "method": "POST", "inputs": ["board_settings", "timing_settings"], "outputs": ["game_id"], "description": "creates a new game with specified settings"}, {"name": "/update-game-state", "method": "PUT", "inputs": ["game_id", "new_state"], "outputs": ["update result"], "description": "updates the state of a game"}], "user_stories": ["1", "19", "20", "21", "22", "25", "26"], "parameters": ["board_settings", "timing_settings", "game_id", "new_state"], "description": "Manages game creation, game logic, board settings, timing settings, and game state updates."}, {"name": "Challenge Service", "endpoints": [{"name": "/active-challenges", "method": "GET", "inputs": [], "outputs": ["list of active challenges"], "description": "retrieves a list of active challenges"}, {"name": "/create-challenge", "method": "POST", "inputs": ["challenge_details"], "outputs": ["challenge_id"], "description": "creates a new challenge with specified details"}, {"name": "/join-challenge", "method": "POST", "inputs": ["challenge_id"], "outputs": ["join result"], "description": "allows a user to join a challenge"}], "user_stories": ["16", "17", "18", "19", "20"], "parameters": ["challenge_details", "challenge_id"], "description": "Manages active challenges, challenge creation, joining challenges, and challenge metadata."}, {"name": "Statistics and History Service", "endpoints": [{"name": "/user-statistics", "method": "GET", "inputs": [], "outputs": ["user statistics"], "description": "retrieves user statistics"}, {"name": "/game-winners", "method": "GET", "inputs": [], "outputs": ["list of game winners"], "description": "retrieves a list of game winners"}, {"name": "/match-settings", "method": "GET", "inputs": ["game_id"], "outputs": ["settings for a specific match"], "description": "retrieves settings for a specific match"}], "user_stories": ["10", "11", "13", "15", "34"], "parameters": ["game_id"], "description": "Tracks and provides access to user statistics, game winners, match settings, and game history."}, {"name": "Replay Service", "endpoints": [{"name": "/replay", "method": "GET", "inputs": ["game_id"], "outputs": ["game replay"], "description": "retrieves the replay of a specific game"}, {"name": "/move-by-move", "method": "GET", "inputs": ["game_id", "move_number"], "outputs": ["specific move in the replay"], "description": "retrieves a specific move in the replay of a game"}], "user_stories": ["12", "14", "30", "33", "35", "36"], "parameters": ["game_id", "move_number"], "description": "Handles storage, retrieval, and navigation of game replays including move-by-move playback and replay metadata."}, {"name": "Game Interaction Service", "endpoints": [{"name": "/chat", "method": "POST", "inputs": ["message"], "outputs": ["chat message"], "description": "allows users to chat with each other during a game"}, {"name": "/turn-management", "method": "GET", "inputs": ["game_id"], "outputs": ["current turn"], "description": "retrieves information about whose turn it is in a game"}], "user_stories": ["23", "24", "27", "28", "29"], "parameters": ["message", "game_id"], "description": "Manages in-game interactions such as chat, draw offers, conceding, and turn management."}, {"name": "Navigation Service", "endpoints": [{"name": "/exit-game", "method": "POST", "inputs": ["game_id"], "outputs": ["exit result"], "description": "allows a user to exit a game"}], "user_stories": ["6", "32", "31", "37"], "parameters": ["game_id"], "description": "Provides navigation elements and user interface helpers across the platform."}], "patterns": [{"group_name": "Data Consistency", "implementation_pattern": "Saga", "involved_microservices": ["Challenge Service", "Game Management Service"], "explaination": "I chose this pattern to maintain data consistency across services during distributed transactions like challenge creation and game management."}, {"group_name": "Queries", "implementation_pattern": "API Composition", "involved_microservices": ["Statistics and History Service"], "explaination": "API Composition is used to aggregate data for user statistics and game history queries."}, {"group_name": "Queries", "implementation_pattern": "CQRS", "involved_microservices": ["Statistics and History Service"], "explaination": "CQRS is used to maintain materialized views for complex read scenarios like statistics and replay data."}, {"group_name": "Data Consistency", "implementation_pattern": "Transactional Outbox", "involved_microservices": ["Game Management Service"], "explaination": "Transactional Outbox is used to reliably send messages as part of database transactions for game state changes."}], "datastore": [{"datastore_name": "User Management Database", "associated_microservices": ["User Management Service"], "description": "Database for storing user credentials, profiles, and related information."}, {"datastore_name": "Game Management Database", "associated_microservices": ["Game Management Service"], "description": "Database for managing game state, logic, board settings, and timing settings."}, {"datastore_name": "Challenge Database", "associated_microservices": ["Challenge Service"], "description": "Database for storing active challenges, challenge metadata, and related information."}, {"datastore_name": "Statistics and History Database", "associated_microservices": ["Statistics and History Service"], "description": "Database for tracking user statistics, game winners, match settings, and game history."}, {"datastore_name": "Replay Database", "associated_microservices": ["Replay Service"], "description": "Database for storing game replays, move-by-move data, and replay metadata."}]}</t>
+          <t>{'microservices': [{'name': 'Authentication Service', 'endpoints': [{'name': '/register', 'method': 'POST', 'inputs': ['email', 'password', 'username'], 'outputs': ['registration_result', 'user_id'], 'description': 'Registers a new user with credentials and username'}, {'name': '/login', 'method': 'POST', 'inputs': ['email', 'password', 'remember_me'], 'outputs': ['login_result', 'session_token', 'user_id'], 'description': 'Authenticates user and creates session with optional remember-me functionality'}, {'name': '/logout', 'method': 'POST', 'inputs': ['session_token'], 'outputs': ['logout_result'], 'description': 'Terminates user session and clears remember-me tokens'}, {'name': '/validate-session', 'method': 'GET', 'inputs': ['session_token'], 'outputs': ['is_valid', 'user_id'], 'description': 'Validates current session token'}, {'name': '/refresh-token', 'method': 'POST', 'inputs': ['remember_me_token'], 'outputs': ['new_session_token'], 'description': 'Refreshes session using remember-me token'}], 'user_stories': ['2', '3', '4', '5'], 'parameters': ['email', 'password', 'session_token', 'remember_me_token', 'user_id'], 'description': 'Handles user registration, login, logout, session management, and credential persistence (remember me functionality)'}, {'name': 'User Profile Service', 'endpoints': [{'name': '/profile/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['username', 'email', 'created_at', 'profile_details'], 'description': 'Retrieves user profile information'}, {'name': '/profile/{user_id}/username', 'method': 'PUT', 'inputs': ['user_id', 'new_username'], 'outputs': ['update_result'], 'description': "Updates user's username and publishes UsernameChanged event"}, {'name': '/profile/{user_id}/password', 'method': 'PUT', 'inputs': ['user_id', 'old_password', 'new_password'], 'outputs': ['update_result'], 'description': "Updates user's password"}, {'name': '/profile/bulk', 'method': 'POST', 'inputs': ['user_ids'], 'outputs': ['profiles'], 'description': 'Retrieves multiple user profiles for composition queries'}], 'user_stories': ['7', '8', '9'], 'parameters': ['user_id', 'username', 'email', 'password_hash', 'created_at'], 'description': 'Manages user profiles, including viewing profile details, updating username and password'}, {'name': 'Statistics Service', 'endpoints': [{'name': '/statistics/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['wins', 'losses', 'draws', 'total_games', 'performance_metrics'], 'description': 'Retrieves aggregate statistics for a player'}, {'name': '/statistics/{user_id}/game-history', 'method': 'GET', 'inputs': ['user_id', 'page', 'limit'], 'outputs': ['game_history', 'total_count'], 'description': 'Retrieves paginated game history with winners and settings'}, {'name': '/statistics/{user_id}/games/{game_id}', 'method': 'GET', 'inputs': ['user_id', 'game_id'], 'outputs': ['winner', 'loser', 'outcome', 'board_size', 'timing_settings', 'creator'], 'description': 'Retrieves specific game details including winner and settings'}, {'name': '/statistics/game-result', 'method': 'POST', 'inputs': ['game_id', 'winner_id', 'loser_id', 'outcome', 'board_size', 'timing_settings'], 'outputs': ['update_result'], 'description': 'Internal endpoint to record game results from saga orchestration'}], 'user_stories': ['10', '11', '13', '15'], 'parameters': ['user_id', 'game_id', 'wins', 'losses', 'draws', 'total_games', 'performance_metrics', 'game_history'], 'description': 'Tracks and provides aggregate player statistics, game history, winners, and performance metrics'}, {'name': 'Challenge Management Service', 'endpoints': [{'name': '/challenges', 'method': 'GET', 'inputs': ['page', 'limit', 'filter'], 'outputs': ['challenges', 'total_count'], 'description': 'Lists active challenges with pagination'}, {'name': '/challenges', 'method': 'POST', 'inputs': ['creator_id', 'board_size', 'timing_settings'], 'outputs': ['challenge_id', 'creation_result'], 'description': 'Creates a new challenge with board size and timing configuration'}, {'name': '/challenges/{challenge_id}', 'method': 'GET', 'inputs': ['challenge_id'], 'outputs': ['challenge_details', 'creator_id', 'board_size', 'timing_settings', 'status'], 'description': 'Retrieves specific challenge details'}, {'name': '/challenges/{challenge_id}/accept', 'method': 'POST', 'inputs': ['challenge_id', 'acceptor_id'], 'outputs': ['game_id', 'acceptance_result'], 'description': 'Accepts a challenge and initiates saga to create game'}, {'name': '/challenges/{challenge_id}/cancel', 'method': 'DELETE', 'inputs': ['challenge_id', 'user_id'], 'outputs': ['cancellation_result'], 'description': 'Cancels an active challenge'}], 'user_stories': ['16', '17', '18', '19', '20'], 'parameters': ['challenge_id', 'creator_id', 'board_size', 'timing_settings', 'status', 'created_at'], 'description': 'Handles creation, listing, and configuration of game challenges including board sizes and timing settings'}, {'name': 'Game Engine Service', 'endpoints': [{'name': '/games', 'method': 'POST', 'inputs': ['challenge_id', 'player1_id', 'player2_id', 'board_size', 'timing_settings'], 'outputs': ['game_id', 'game_state'], 'description': 'Creates a new game from accepted challenge'}, {'name': '/games/{game_id}', 'method': 'GET', 'inputs': ['game_id'], 'outputs': ['game_state', 'board', 'current_turn', 'timers', 'status'], 'description': 'Retrieves current game state'}, {'name': '/games/{game_id}/move', 'method': 'POST', 'inputs': ['game_id', 'player_id', 'column'], 'outputs': ['move_result', 'updated_board', 'game_status'], 'description': 'Places a piece in specified column with validation'}, {'name': '/games/{game_id}/concede', 'method': 'POST', 'inputs': ['game_id', 'player_id'], 'outputs': ['concede_result', 'winner_id'], 'description': 'Allows player to concede the game'}, {'name': '/games/{game_id}/draw-offer', 'method': 'POST', 'inputs': ['game_id', 'offering_player_id'], 'outputs': ['offer_result'], 'description': 'Offers a draw to opponent'}, {'name': '/games/{game_id}/draw-response', 'method': 'POST', 'inputs': ['game_id', 'responding_player_id', 'accept'], 'outputs': ['response_result', 'game_status'], 'description': 'Accepts or denies a draw offer'}, {'name': '/games/{game_id}/draw-retire', 'method': 'POST', 'inputs': ['game_id', 'offering_player_id'], 'outputs': ['retire_result'], 'description': 'Retires a pending draw offer'}, {'name': '/games/{game_id}/timer', 'method': 'GET', 'inputs': ['game_id'], 'outputs': ['player1_time', 'player2_time'], 'description': 'Retrieves remaining time for both players'}], 'user_stories': ['1', '21', '22', '24', '25', '26', '27', '28', '29', '31'], 'parameters': ['game_id', 'player1_id', 'player2_id', 'board_state', 'current_turn', 'move_history', 'player1_timer', 'player2_timer', 'status', 'winner_id', 'outcome', 'board_size', 'timing_settings'], 'description': 'Manages real-time gameplay including game logic, turn management, move validation, timer tracking, piece placement, and win/draw/concede conditions'}, {'name': 'Chat Service', 'endpoints': [{'name': '/chat/{game_id}/messages', 'method': 'GET', 'inputs': ['game_id', 'since_timestamp'], 'outputs': ['messages'], 'description': 'Retrieves chat messages for a game'}, {'name': '/chat/{game_id}/messages', 'method': 'POST', 'inputs': ['game_id', 'sender_id', 'message_text'], 'outputs': ['message_id', 'timestamp'], 'description': 'Sends a chat message during game'}, {'name': '/chat/{game_id}/subscribe', 'method': 'GET', 'inputs': ['game_id', 'user_id'], 'outputs': ['websocket_connection'], 'description': 'Establishes real-time chat connection'}], 'user_stories': ['23'], 'parameters': ['game_id', 'sender_id', 'message_text', 'timestamp'], 'description': 'Provides real-time messaging functionality between players during active games'}, {'name': 'Replay Service', 'endpoints': [{'name': '/replays/{game_id}', 'method': 'GET', 'inputs': ['game_id'], 'outputs': ['move_sequence', 'total_moves', 'winner_id', 'outcome', 'metadata'], 'description': 'Retrieves complete replay data for a finished game'}, {'name': '/replays/{game_id}/moves', 'method': 'GET', 'inputs': ['game_id', 'move_number'], 'outputs': ['board_state_at_move', 'move_details'], 'description': 'Retrieves board state at specific move number'}, {'name': '/replays', 'method': 'POST', 'inputs': ['game_id', 'move_sequence', 'winner_id', 'outcome', 'player1_id', 'player2_id', 'board_size', 'timing_settings'], 'outputs': ['replay_id', 'save_result'], 'description': 'Internal endpoint to save replay data from completed game'}, {'name': '/replays/user/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'page', 'limit'], 'outputs': ['replays', 'total_count'], 'description': 'Lists replays for a specific user'}, {'name': '/replays/all', 'method': 'GET', 'inputs': ['page', 'limit'], 'outputs': ['replays', 'total_count'], 'description': 'Lists all available replays'}], 'user_stories': ['12', '14', '30', '32', '33', '34', '35', '36', '37'], 'parameters': ['replay_id', 'game_id', 'move_sequence', 'total_moves', 'winner_id', 'loser_id', 'outcome', 'player1_id', 'player2_id', 'board_size', 'timing_settings', 'created_at'], 'description': 'Stores and retrieves game replays, allowing users to view move-by-move playback of completed matches with navigation controls'}, {'name': 'Frontend/UI Service', 'endpoints': [{'name': '/', 'method': 'GET', 'inputs': [], 'outputs': ['homepage_html'], 'description': 'Serves main homepage'}, {'name': '/login', 'method': 'GET', 'inputs': [], 'outputs': ['login_page_html'], 'description': 'Serves login page'}, {'name': '/profile', 'method': 'GET', 'inputs': [], 'outputs': ['profile_page_html'], 'description': 'Serves profile page'}, {'name': '/challenges', 'method': 'GET', 'inputs': [], 'outputs': ['challenges_page_html'], 'description': 'Serves challenges listing page'}, {'name': '/game/{game_id}', 'method': 'GET', 'inputs': ['game_id'], 'outputs': ['game_page_html'], 'description': 'Serves active game interface'}, {'name': '/replay/{game_id}', 'method': 'GET', 'inputs': ['game_id'], 'outputs': ['replay_page_html'], 'description': 'Serves replay viewer interface'}], 'user_stories': ['6'], 'parameters': [], 'description': 'Provides the web interface with navigation, routing, and user interface components across all pages'}], 'patterns': [{'group_name': 'Service Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['Authentication Service', 'User Profile Service', 'Statistics Service', 'Challenge Management Service', 'Game Engine Service', 'Chat Service', 'Replay Service'], 'explaination': 'I chose database per service pattern because the context explicitly recommends this as the primary pattern for all microservices. This ensures loose coupling, allows each service to scale independently, and maintains clear service boundaries. Each service owns its data and can evolve its schema without affecting other services.'}, {'group_name': 'Game Completion Orchestration', 'implementation_pattern': 'saga', 'involved_microservices': ['Game Engine Service', 'Statistics Service', 'Replay Service'], 'explaination': 'I chose saga pattern because when a game ends, we need to coordinate updates across multiple services to ensure consistency. The Game Engine Service publishes GameEnded event, which triggers updates in Statistics Service (to record win/loss) and Replay Service (to save game replay). This ensures all related data is consistently updated even if one service temporarily fails, as recommended in the context for game completion flow.'}, {'group_name': 'Challenge to Game Transition', 'implementation_pattern': 'saga', 'involved_microservices': ['Challenge Management Service', 'Game Engine Service'], 'explaination': 'I chose saga pattern because accepting a challenge requires coordinated transaction between Challenge Management Service and Game Engine Service. When a challenge is accepted, the Challenge service must update challenge status and the Game Engine must create a new active game with the challenge settings. The context specifically recommends saga for challenge acceptance coordination.'}, {'group_name': 'Profile Update Propagation', 'implementation_pattern': 'domain event', 'involved_microservices': ['User Profile Service', 'Statistics Service', 'Challenge Management Service'], 'explaination': 'I chose domain event pattern because when username changes in User Profile Service, this change needs to be propagated to Statistics Service and Challenge Management Service where username appears. The context recommends domain events with User Profile Service publishing UsernameChanged events to maintain eventual consistency across services.'}, {'group_name': 'Game State Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['Game Engine Service', 'Statistics Service', 'Replay Service', 'Chat Service'], 'explaination': 'I chose domain event pattern because Game Engine Service needs to publish events (GameStarted, GameEnded, MoveMade, GameConceded, DrawOffered) that other services consume. This decouples the Game Engine from downstream services and allows multiple services to react to game events independently, as recommended in the context.'}, {'group_name': 'Challenge Listing with Profiles', 'implementation_pattern': 'api composition', 'involved_microservices': ['Challenge Management Service', 'User Profile Service'], 'explaination': 'I chose API composition because listing challenges with creator profiles (user stories 16-18) is a simple query involving 2 services. The Challenge Management Service retrieves challenges and then calls User Profile Service for creator details, as explicitly recommended in the context for this use case.'}, {'group_name': 'Replay with Player Information', 'implementation_pattern': 'api composition', 'involved_microservices': ['Replay Service', 'User Profile Service'], 'explaination': 'I chose API composition because viewing game replays with player info (user story 14) involves the Replay Service getting replay data and then calling User Profile Service for player information. The context specifically recommends API composition for this scenario as it involves only 2 services.'}, {'group_name': 'Profile with Statistics View', 'implementation_pattern': 'api composition', 'involved_microservices': ['User Profile Service', 'Statistics Service'], 'explaination': 'I chose API composition because viewing profile with statistics (user stories 7, 10) requires User Profile Service to get profile data and then call Statistics Service for aggregate stats. This is a simple 2-service query that the context explicitly recommends for API composition.'}, {'group_name': 'Complete Game History Read Model', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Game Engine Service', 'Challenge Management Service', 'Statistics Service', 'User Profile Service'], 'explaination': 'I chose CQRS pattern because providing complete game history view (user stories 11, 13, 15) requires combining data from multiple services including game outcomes, challenge settings, statistics, and player information. The context recommends maintaining a read model for this complex query involving 4+ services for efficient querying.'}, {'group_name': 'Game Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Game Engine Service'], 'explaination': 'I chose aggregate pattern because the Game Engine Service manages complex game state including board state, moves, timers, and players as a single cohesive unit. The context recommends Game aggregate to encapsulate all game-related data and ensure consistency within the game boundary.'}, {'group_name': 'Challenge Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Challenge Management Service'], 'explaination': 'I chose aggregate pattern because challenges include settings, creator, status, and configuration that should be managed as a single unit. The context recommends Challenge aggregate to maintain consistency of challenge data within the service boundary.'}, {'group_name': 'Replay Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Replay Service'], 'explaination': 'I chose aggregate pattern because replay data includes complete move sequence, outcome, and metadata that form a cohesive unit. The context recommends Replay aggregate to ensure the integrity of replay data.'}, {'group_name': 'Statistics Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Statistics Service'], 'explaination': 'I chose aggregate pattern because player statistics including wins, losses, draws, and performance metrics should be managed as a single consistent unit. The context recommends PlayerStatistics aggregate to maintain statistical integrity within the service.'}], 'datastore': [{'datastore_name': 'Authentication Database', 'associated_microservices': ['Authentication Service'], 'description': 'Stores user credentials (email, password hashes), active sessions, and remember-me tokens. Supports user stories 2, 3, 4, 5 for registration, login, logout, and credential persistence. Uses database per service pattern for independent authentication data management.'}, {'datastore_name': 'User Profile Database', 'associated_microservices': ['User Profile Service'], 'description': 'Stores user profile information including username, email, and account metadata. Supports user stories 7, 8, 9 for viewing profiles and updating username/password. Uses database per service pattern and publishes domain events for profile changes.'}, {'datastore_name': 'Statistics Database', 'associated_microservices': ['Statistics Service'], 'description': 'Stores aggregate player statistics (wins, losses, draws), game history, performance metrics, and game settings. Supports user stories 10, 11, 13, 15 for tracking performance and historical data. Receives updates via saga pattern from completed games and uses aggregate pattern for PlayerStatistics.'}, {'datastore_name': 'Challenge Database', 'associated_microservices': ['Challenge Management Service'], 'description': 'Stores active challenges with configuration including board sizes, timing settings, creator information, and challenge status. Supports user stories 16, 17, 18, 19, 20 for creating and listing challenges. Uses aggregate pattern for Challenge data and participates in saga for challenge acceptance.'}, {'datastore_name': 'Game Engine Database', 'associated_microservices': ['Game Engine Service'], 'description': 'Stores active game states including board configurations, move history, player timers, current turn, and game outcomes. Supports user stories 1, 21, 22, 24, 25, 26, 27, 28, 29, 31 for real-time gameplay management. Uses aggregate pattern for Game data and publishes domain events for game state changes.'}, {'datastore_name': 'Chat Database', 'associated_microservices': ['Chat Service'], 'description': 'Stores chat messages and conversation history for active games. Supports user story 23 for player communication during games. Uses database per service pattern for independent chat data management.'}, {'datastore_name': 'Replay Database', 'associated_microservices': ['Replay Service'], 'description': 'Stores completed game replays including complete move sequences, game outcomes, player information, and board configurations. Supports user stories 12, 14, 30, 32, 33, 34, 35, 36, 37 for replay viewing and navigation. Receives data via saga pattern when games complete and uses aggregate pattern for Replay data.'}, {'datastore_name': 'Game History Read Model', 'associated_microservices': ['Statistics Service', 'Replay Service', 'Challenge Management Service', 'User Profile Service'], 'description': 'Materialized view combining data from multiple services for efficient complex queries. Supports user stories 11, 13, 15 for complete game history views with player profiles, settings, and outcomes. Implements CQRS pattern for optimized read operations across service boundaries.'}]}</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -608,10 +608,10 @@
         <v>37</v>
       </c>
       <c r="H3" t="n">
-        <v>5.571428571428571</v>
+        <v>4.625</v>
       </c>
       <c r="I3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -672,7 +672,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Authentication Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email", "password"], "outputs": ["registration result"], "description": "takes user email and password as inputs and outputs the registration result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}, {"name": "/logout", "method": "POST", "inputs": [], "outputs": ["logout result"], "description": "logs out the user"}], "user_stories": ["1", "2", "13", "14", "25", "26"], "parameters": ["email", "password"], "description": "Handles user registration, login, logout, and secure authentication and authorization for customers, workers, and admins."}, {"name": "User Profile Service", "endpoints": [{"name": "/profile", "method": "GET", "inputs": ["user_id"], "outputs": ["user profile data"], "description": "fetches user profile data based on user ID"}, {"name": "/update_profile", "method": "PUT", "inputs": ["user_id", "new_data"], "outputs": ["update result"], "description": "updates user profile data based on user ID"}], "user_stories": ["3", "27", "28", "32", "17", "20"], "parameters": ["user_id", "new_data"], "description": "Manages user profile data for customers and workers, including viewing and updating personal information."}, {"name": "Worker Catalogue Service", "endpoints": [{"name": "/search_workers", "method": "GET", "inputs": ["skill", "location"], "outputs": ["list of workers"], "description": "searches for workers based on skill and location"}, {"name": "/worker_page", "method": "GET", "inputs": ["worker_id"], "outputs": ["worker details"], "description": "fetches details of a specific worker based on worker ID"}], "user_stories": ["4", "5"], "parameters": ["skill", "location", "worker_id"], "description": "Provides search and browsing functionality for workers based on skills and location, and access to individual worker pages."}, {"name": "Request Management Service", "endpoints": [{"name": "/create_request", "method": "POST", "inputs": ["customer_id", "worker_id", "request_details"], "outputs": ["request_id"], "description": "creates a new request between a customer and a worker"}, {"name": "/list_requests", "method": "GET", "inputs": ["user_id"], "outputs": ["list of requests"], "description": "fetches a list of requests based on user ID"}, {"name": "/delete_request", "method": "DELETE", "inputs": ["request_id"], "outputs": ["deletion result"], "description": "deletes a request based on request ID"}], "user_stories": ["6", "7", "8", "21", "22", "23", "24"], "parameters": ["customer_id", "worker_id", "request_details", "user_id", "request_id"], "description": "Manages creation, listing, updating, acceptance/rejection, and deletion of service requests between customers and workers."}, {"name": "Review Service", "endpoints": [{"name": "/leave_review", "method": "POST", "inputs": ["customer_id", "worker_id", "review_details"], "outputs": ["review_id"], "description": "allows a customer to leave a review for a worker"}, {"name": "/update_review", "method": "PUT", "inputs": ["review_id", "new_details"], "outputs": ["update result"], "description": "updates a review based on review ID"}, {"name": "/delete_review", "method": "DELETE", "inputs": ["review_id"], "outputs": ["deletion result"], "description": "deletes a review based on review ID"}], "user_stories": ["11", "12", "31", "35"], "parameters": ["customer_id", "worker_id", "review_details", "review_id", "new_details"], "description": "Allows customers to leave, update, delete, and read reviews for workers, and enables admin moderation of reviews."}, {"name": "Q&amp;A Communication Service", "endpoints": [{"name": "/post_question", "method": "POST", "inputs": ["customer_id", "worker_id", "question"], "outputs": ["question_id"], "description": "allows a customer to post a question to a worker"}, {"name": "/answer_question", "method": "PUT", "inputs": ["question_id", "answer"], "outputs": ["answer result"], "description": "enables a worker to answer a question based on question ID"}, {"name": "/delete_question", "method": "DELETE", "inputs": ["question_id"], "outputs": ["deletion result"], "description": "deletes a question and its answers based on question ID"}], "user_stories": ["9", "10", "33", "34"], "parameters": ["customer_id", "worker_id", "question", "question_id", "answer"], "description": "Facilitates the question and answer communication between customers and workers, including posting questions, answering, and admin moderation."}, {"name": "Admin Management Service", "endpoints": [{"name": "/add_customer", "method": "POST", "inputs": ["customer_details"], "outputs": ["customer_id"], "description": "adds a new customer to the system"}, {"name": "/delete_customer", "method": "DELETE", "inputs": ["customer_id"], "outputs": ["deletion result"], "description": "deletes a customer based on customer ID"}, {"name": "/add_worker", "method": "POST", "inputs": ["worker_details"], "outputs": ["worker_id"], "description": "adds a new worker to the system"}, {"name": "/delete_worker", "method": "DELETE", "inputs": ["worker_id"], "outputs": ["deletion result"], "description": "deletes a worker based on worker ID"}], "user_stories": ["15", "16", "18", "19", "29", "30"], "parameters": ["customer_details", "customer_id", "worker_details", "worker_id"], "description": "Enables admins to manage customers, workers, requests, and moderate content through adding, viewing, and deleting entities."}], "patterns": [{"group_name": "Authentication and Authorization", "implementation_pattern": "Service per Team / Self-contained Service", "involved_microservices": ["Authentication Service"], "explaination": "I chose this pattern to ensure loose coupling and independence for authentication and authorization processes."}, {"group_name": "Profile Management", "implementation_pattern": "Database per Service", "involved_microservices": ["User Profile Service"], "explaination": "Each user profile service manages its own data store to ensure autonomy and loose coupling."}, {"group_name": "Request Handling", "implementation_pattern": "Saga Pattern", "involved_microservices": ["Request Management Service"], "explaination": "The Saga Pattern is used to manage distributed transactions for request creation, updates, and deletions."}, {"group_name": "Review Management", "implementation_pattern": "Database per Service", "involved_microservices": ["Review Service"], "explaination": "Each review service manages review data independently for better autonomy and data isolation."}, {"group_name": "Q&amp;A Communication", "implementation_pattern": "Database per Service", "involved_microservices": ["Q&amp;A Communication Service"], "explaination": "Separate data management for Q&amp;A communication ensures independence and data isolation."}, {"group_name": "Admin Operations", "implementation_pattern": "Service per Team", "involved_microservices": ["Admin Management Service"], "explaination": "Admin functions are distinct and require separate control for security and management purposes."}], "datastore": [{"datastore_name": "User Profile Datastore", "associated_microservices": ["User Profile Service"], "description": "Datastore to manage user profile information for customers and workers."}, {"datastore_name": "Request Datastore", "associated_microservices": ["Request Management Service"], "description": "Datastore to handle request creation, updates, and deletions."}, {"datastore_name": "Review Datastore", "associated_microservices": ["Review Service"], "description": "Datastore to manage review data for workers and customers."}, {"datastore_name": "Q&amp;A Datastore", "associated_microservices": ["Q&amp;A Communication Service"], "description": "Datastore to store questions, answers, and moderation data for Q&amp;A communication."}]}</t>
+          <t>{'microservices': [{'name': 'Authentication Service', 'endpoints': [{'name': '/register', 'method': 'POST', 'inputs': ['email', 'password', 'user_type'], 'outputs': ['registration_result', 'user_id'], 'description': 'Registers a new user (customer, worker, or admin) and creates authentication credentials'}, {'name': '/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['auth_token', 'user_id', 'user_type'], 'description': 'Authenticates user credentials and returns an authentication token'}, {'name': '/logout', 'method': 'POST', 'inputs': ['auth_token'], 'outputs': ['logout_result'], 'description': "Invalidates the user's authentication token and ends the session"}, {'name': '/validate-token', 'method': 'POST', 'inputs': ['auth_token'], 'outputs': ['validation_result', 'user_id', 'user_type'], 'description': 'Validates an authentication token and returns user information'}], 'user_stories': ['1', '2', '13', '14', '25', '26'], 'parameters': ['user_id', 'email', 'password_hash', 'auth_token', 'user_type', 'session_id', 'token_expiry'], 'description': 'Handles user registration, login, logout, and session management for all user types (customers, workers, admins). Provides secure authentication and authorization tokens.'}, {'name': 'User Management Service', 'endpoints': [{'name': '/users', 'method': 'POST', 'inputs': ['user_type', 'email', 'name', 'location', 'skills', 'bio'], 'outputs': ['user_profile', 'user_id'], 'description': 'Creates a new user profile after successful registration'}, {'name': '/users/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['user_profile'], 'description': "Retrieves a user's profile information"}, {'name': '/users/{user_id}', 'method': 'PUT', 'inputs': ['user_id', 'name', 'location', 'skills', 'bio'], 'outputs': ['update_result'], 'description': "Updates a user's profile information"}, {'name': '/users/{user_id}', 'method': 'DELETE', 'inputs': ['user_id'], 'outputs': ['deletion_result'], 'description': 'Deletes a user profile'}, {'name': '/customers', 'method': 'GET', 'inputs': ['page', 'limit'], 'outputs': ['customer_list'], 'description': 'Retrieves a list of all customers (admin functionality)'}, {'name': '/workers', 'method': 'GET', 'inputs': ['page', 'limit'], 'outputs': ['worker_list'], 'description': 'Retrieves a list of all workers (admin functionality)'}], 'user_stories': ['3', '15', '16', '17', '18', '19', '20', '27', '28', '29', '30', '32'], 'parameters': ['user_id', 'user_type', 'name', 'email', 'location', 'skills', 'bio', 'registration_date', 'profile_picture'], 'description': 'Manages user profiles and information for customers, workers, and admins. Handles profile creation, retrieval, updates, and deletion for all user types.'}, {'name': 'Worker Catalog Service', 'endpoints': [{'name': '/workers/catalog', 'method': 'GET', 'inputs': ['skills', 'location', 'page', 'limit'], 'outputs': ['worker_list'], 'description': 'Searches and retrieves workers based on skills and location filters'}, {'name': '/workers/{worker_id}/profile', 'method': 'GET', 'inputs': ['worker_id'], 'outputs': ['worker_profile', 'average_rating', 'total_reviews'], 'description': 'Retrieves detailed information about a specific worker including aggregated review data'}, {'name': '/workers/{worker_id}/sync', 'method': 'POST', 'inputs': ['worker_id', 'user_data'], 'outputs': ['sync_result'], 'description': 'Synchronizes worker catalog data with user management service updates'}], 'user_stories': ['4', '5'], 'parameters': ['worker_id', 'name', 'skills', 'location', 'bio', 'availability', 'average_rating', 'total_reviews', 'last_updated'], 'description': 'Provides search and browsing functionality for workers. Manages worker listings, filtering by skills and location, and displays worker information to customers.'}, {'name': 'Request Management Service', 'endpoints': [{'name': '/requests', 'method': 'POST', 'inputs': ['customer_id', 'worker_id', 'service_description', 'preferred_date'], 'outputs': ['request_id', 'request_status'], 'description': 'Creates a new service request from a customer to a worker'}, {'name': '/requests/{request_id}', 'method': 'GET', 'inputs': ['request_id'], 'outputs': ['request_details'], 'description': 'Retrieves details of a specific request'}, {'name': '/requests/{request_id}', 'method': 'PUT', 'inputs': ['request_id', 'status', 'updated_by'], 'outputs': ['update_result'], 'description': 'Updates request status (accept/reject by worker, or admin modifications)'}, {'name': '/requests/{request_id}', 'method': 'DELETE', 'inputs': ['request_id'], 'outputs': ['deletion_result'], 'description': 'Deletes a request'}, {'name': '/customers/{customer_id}/requests', 'method': 'GET', 'inputs': ['customer_id', 'page', 'limit'], 'outputs': ['request_list'], 'description': 'Retrieves all requests made by a specific customer'}, {'name': '/workers/{worker_id}/requests', 'method': 'GET', 'inputs': ['worker_id', 'status', 'page', 'limit'], 'outputs': ['request_list'], 'description': 'Retrieves all requests for a specific worker'}, {'name': '/requests', 'method': 'GET', 'inputs': ['page', 'limit', 'status'], 'outputs': ['request_list'], 'description': 'Retrieves all requests (admin functionality)'}], 'user_stories': ['6', '7', '8', '21', '22', '23', '24'], 'parameters': ['request_id', 'customer_id', 'worker_id', 'service_description', 'preferred_date', 'status', 'created_date', 'updated_date', 'updated_by'], 'description': 'Handles the creation, retrieval, updating, and deletion of service requests between customers and workers. Manages request status (pending, accepted, rejected) and request lifecycle.'}, {'name': 'Review Service', 'endpoints': [{'name': '/reviews', 'method': 'POST', 'inputs': ['customer_id', 'worker_id', 'request_id', 'rating', 'comment'], 'outputs': ['review_id'], 'description': 'Creates a new review for a worker by a customer'}, {'name': '/reviews/{review_id}', 'method': 'GET', 'inputs': ['review_id'], 'outputs': ['review_details'], 'description': 'Retrieves details of a specific review'}, {'name': '/reviews/{review_id}', 'method': 'PUT', 'inputs': ['review_id', 'rating', 'comment'], 'outputs': ['update_result'], 'description': 'Updates an existing review'}, {'name': '/reviews/{review_id}', 'method': 'DELETE', 'inputs': ['review_id'], 'outputs': ['deletion_result'], 'description': 'Deletes a review'}, {'name': '/workers/{worker_id}/reviews', 'method': 'GET', 'inputs': ['worker_id', 'page', 'limit'], 'outputs': ['review_list', 'average_rating'], 'description': 'Retrieves all reviews for a specific worker'}], 'user_stories': ['11', '12', '31', '35'], 'parameters': ['review_id', 'customer_id', 'worker_id', 'request_id', 'rating', 'comment', 'created_date', 'updated_date'], 'description': 'Manages customer reviews for workers. Handles creation, reading, updating, and deletion of reviews. Displays reviews on worker profiles.'}, {'name': 'Q&amp;A Service', 'endpoints': [{'name': '/questions', 'method': 'POST', 'inputs': ['customer_id', 'worker_id', 'question_text'], 'outputs': ['question_id'], 'description': 'Posts a new question to a worker'}, {'name': '/questions/{question_id}', 'method': 'GET', 'inputs': ['question_id'], 'outputs': ['question_details', 'answer'], 'description': 'Retrieves a specific question and its answer'}, {'name': '/questions/{question_id}', 'method': 'DELETE', 'inputs': ['question_id'], 'outputs': ['deletion_result'], 'description': 'Deletes a question and its associated answer'}, {'name': '/workers/{worker_id}/questions', 'method': 'GET', 'inputs': ['worker_id', 'page', 'limit'], 'outputs': ['question_list'], 'description': 'Retrieves all questions for a specific worker'}, {'name': '/questions/{question_id}/answer', 'method': 'POST', 'inputs': ['question_id', 'worker_id', 'answer_text'], 'outputs': ['answer_id'], 'description': 'Posts an answer to a question'}, {'name': '/questions/{question_id}/answer', 'method': 'PUT', 'inputs': ['question_id', 'answer_text'], 'outputs': ['update_result'], 'description': 'Updates an existing answer'}], 'user_stories': ['9', '10', '33', '34'], 'parameters': ['question_id', 'answer_id', 'customer_id', 'worker_id', 'question_text', 'answer_text', 'question_date', 'answer_date'], 'description': 'Manages the question and answer system between customers and workers. Handles posting questions, viewing questions/answers, posting answers by workers, and deletion of Q&amp;A threads.'}], 'patterns': [{'group_name': 'Service Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['Authentication Service', 'User Management Service', 'Worker Catalog Service', 'Request Management Service', 'Review Service', 'Q&amp;A Service'], 'explaination': 'I chose the database per service pattern because the context explicitly recommends it for ensuring loose coupling between services and allowing each service to scale independently. Each microservice manages its own data domain (authentication credentials, user profiles, worker catalog, requests, reviews, Q&amp;A) and should own its data completely to maintain service autonomy.'}, {'group_name': 'User Registration Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Authentication Service', 'User Management Service'], 'explaination': 'I chose the saga pattern for user registration because it requires coordination between the Authentication Service (creating credentials) and User Management Service (creating profile). The context explicitly mentions using saga for the user registration flow to maintain data consistency across these services. If authentication succeeds but profile creation fails, the saga can compensate by rolling back the authentication record.'}, {'group_name': 'Request Lifecycle Management', 'implementation_pattern': 'saga', 'involved_microservices': ['Request Management Service', 'User Management Service'], 'explaination': 'I chose the saga pattern for request management because the context recommends it for handling request acceptance/rejection flows. When a request status changes, multiple services need to be notified and updated consistently. This ensures that request state changes are properly coordinated across services.'}, {'group_name': 'Review Integration', 'implementation_pattern': 'domain event', 'involved_microservices': ['Review Service', 'Worker Catalog Service'], 'explaination': "I chose the domain event pattern because the context explicitly recommends publishing 'ReviewCreated' events. When a review is posted, the Review Service publishes an event that the Worker Catalog Service consumes to update the worker's aggregated rating. This maintains eventual consistency without tight coupling between services."}, {'group_name': 'Q&amp;A Event Handling', 'implementation_pattern': 'domain event', 'involved_microservices': ['Q&amp;A Service'], 'explaination': "I chose the domain event pattern as recommended in the context for publishing 'QuestionAsked' and 'AnswerProvided' events. This allows other services to react to Q&amp;A activities if needed and maintains loose coupling while enabling event-driven communication."}, {'group_name': 'Worker Profile Aggregation', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Worker Catalog Service', 'Review Service', 'Q&amp;A Service'], 'explaination': 'I chose the CQRS pattern because the context explicitly recommends it for the Worker Catalog with Reviews scenario. The Worker Catalog Service maintains a read-optimized view that combines worker information with aggregated review ratings and Q&amp;A data. This separates the complex read queries (with aggregated ratings and reviews) from write operations, providing high performance for the worker search and profile viewing functionality (user stories 4, 5, 35).'}, {'group_name': 'Admin Dashboard Views', 'implementation_pattern': 'cqrs', 'involved_microservices': ['User Management Service', 'Request Management Service'], 'explaination': 'I chose the CQRS pattern as recommended in the context for creating materialized views for admin lists. The admin needs to view customers, workers, and requests with relevant statistics (user stories 15, 19, 21). CQRS allows us to maintain optimized read models for these admin dashboards without impacting the write performance of core operations.'}, {'group_name': 'Worker Profile Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Worker Catalog Service', 'Review Service', 'Q&amp;A Service'], 'explaination': "I chose the API composition pattern as recommended in the context for the Worker Profile Page. When a customer views a worker's profile (user story 5), the system needs to combine data from multiple services: worker information from Worker Catalog Service, reviews from Review Service, and Q&amp;A threads from Q&amp;A Service. API composition is suitable here for simpler queries that aggregate data from multiple sources in real-time."}, {'group_name': 'User Aggregate Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['User Management Service'], 'explaination': 'I chose the aggregate pattern as recommended in the context to define transaction boundaries within the User Management Service. The User Aggregate ensures that all user profile operations (create, update, delete) maintain consistency within a single transaction boundary, implementing user stories 3, 16, 17, 18, 20, 27, 28, 29, 30, 32.'}, {'group_name': 'Request Aggregate Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Request Management Service'], 'explaination': 'I chose the aggregate pattern as recommended in the context to define transaction boundaries for requests. The Request Aggregate ensures that request creation, status changes, and deletions maintain consistency and enforce business rules (e.g., only workers can accept/reject requests), implementing user stories 6, 7, 8, 21, 22, 23, 24.'}, {'group_name': 'Review Aggregate Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Review Service'], 'explaination': 'I chose the aggregate pattern as recommended in the context to define transaction boundaries for reviews. The Review Aggregate ensures that review operations (create, update, delete) maintain consistency and enforce business rules (e.g., only the review author can update their review), implementing user stories 11, 12, 31, 35.'}, {'group_name': 'Q&amp;A Thread Aggregate Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Q&amp;A Service'], 'explaination': 'I chose the aggregate pattern as recommended in the context to define transaction boundaries for Q&amp;A threads. The Q&amp;A Thread Aggregate ensures that questions and their answers are treated as a cohesive unit, maintaining consistency when questions are asked, answered, or deleted, implementing user stories 9, 10, 33, 34.'}], 'datastore': [{'datastore_name': 'Authentication Database', 'associated_microservices': ['Authentication Service'], 'description': 'Stores user credentials, password hashes, authentication tokens, and session information. Influenced by user stories 1, 2, 13, 14, 25, 26 which require secure user registration, login, and logout functionality. Uses database per service pattern to maintain security isolation.'}, {'datastore_name': 'User Profile Database', 'associated_microservices': ['User Management Service'], 'description': 'Stores user profile information for customers, workers, and admins including names, locations, skills, and biographical information. Influenced by user stories 3, 15, 16, 17, 18, 19, 20, 27, 28, 29, 30, 32 which require profile management, viewing, and admin CRUD operations. Uses database per service pattern and supports aggregate pattern for user transaction boundaries.'}, {'datastore_name': 'Worker Catalog Read Database', 'associated_microservices': ['Worker Catalog Service'], 'description': 'Read-optimized database storing denormalized worker catalog data including skills, locations, and aggregated review ratings. Influenced by user stories 4, 5, 35 which require searching workers and viewing detailed worker profiles with reviews. Supports CQRS pattern for high-performance read queries and maintains materialized views synchronized via domain events from Review Service.'}, {'datastore_name': 'Request Database', 'associated_microservices': ['Request Management Service'], 'description': 'Stores service requests between customers and workers including request descriptions, status, dates, and lifecycle information. Influenced by user stories 6, 7, 8, 21, 22, 23, 24 which require creating, viewing, updating, and deleting requests. Uses database per service pattern and supports aggregate pattern for request transaction boundaries and saga pattern for coordinated status updates.'}, {'datastore_name': 'Review Database', 'associated_microservices': ['Review Service'], 'description': 'Stores customer reviews for workers including ratings, comments, and timestamps. Influenced by user stories 11, 12, 31, 35 which require creating, reading, updating, and deleting reviews. Uses database per service pattern, supports aggregate pattern for review transaction boundaries, and publishes domain events for Worker Catalog Service synchronization.'}, {'datastore_name': 'Q&amp;A Database', 'associated_microservices': ['Q&amp;A Service'], 'description': 'Stores questions from customers and answers from workers with their relationships and timestamps. Influenced by user stories 9, 10, 33, 34 which require posting questions, viewing Q&amp;A threads, posting answers, and deleting Q&amp;A content. Uses database per service pattern and supports aggregate pattern for Q&amp;A thread transaction boundaries.'}]}</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -685,10 +685,10 @@
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="I4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -733,7 +733,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "User Management Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email", "password"], "outputs": ["registration result"], "description": "takes user email and password as inputs and outputs the registration result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}], "user_stories": ["1", "3", "5"], "parameters": ["email", "password"], "description": "Handles user registration, authentication, profile management, and user-related data."}, {"name": "Central Node Management Service", "endpoints": [], "user_stories": ["2", "10", "13"], "parameters": [], "description": "Manages central nodes, including registration, linking to providers and users, and monitoring grid-level data."}, {"name": "Device Management Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["device_id", "user_id"], "outputs": ["registration result"], "description": "registers a device for a user"}], "user_stories": ["6"], "parameters": ["device_id", "user_id"], "description": "Allows users to register and manage their energy-consuming or producing devices."}, {"name": "Notification Service", "endpoints": [], "user_stories": ["7", "18"], "parameters": [], "description": "Manages notifications sent to users about system updates, bills, and other relevant events."}, {"name": "Energy Consumption and Production Service", "endpoints": [], "user_stories": ["8", "14"], "parameters": [], "description": "Tracks and provides dashboards for users to monitor their energy consumption and production."}, {"name": "Energy Saving Tips Service", "endpoints": [], "user_stories": ["9"], "parameters": [], "description": "Provides personalized energy-saving tips and sustainability recommendations to users."}, {"name": "Energy Trading Service", "endpoints": [], "user_stories": ["11", "20", "23"], "parameters": [], "description": "Handles buying and selling of surplus energy between users (producers) and the central node."}, {"name": "Billing Service", "endpoints": [], "user_stories": ["12", "17"], "parameters": [], "description": "Generates and manages energy bills based on consumption and provider rates, and provides billing history."}, {"name": "Provider Management Service", "endpoints": [], "user_stories": ["15", "16", "19"], "parameters": [], "description": "Allows users to compare energy providers, select energy sources, and manage provider contracts."}, {"name": "Payment Service", "endpoints": [], "user_stories": ["21", "22", "23"], "parameters": [], "description": "Manages payment methods, processes payments through integrated gateways, and confirms transactions."}, {"name": "Home Page Service", "endpoints": [], "user_stories": ["4"], "parameters": [], "description": "Provides the home page interface for users to quickly access all website functionalities."}], "patterns": [{"group_name": "Data Management", "implementation_pattern": "Database per Service", "involved_microservices": ["User Management Service", "Central Node Management Service", "Device Management Service", "Notification Service", "Energy Consumption and Production Service", "Energy Saving Tips Service", "Energy Trading Service", "Billing Service", "Provider Management Service", "Payment Service", "Home Page Service"], "explaination": "Each microservice should have its own database to ensure loose coupling and independent scalability."}, {"group_name": "Transaction Management", "implementation_pattern": "Saga", "involved_microservices": ["Energy Trading Service", "Billing Service", "Payment Service"], "explaination": "Use the Saga pattern to implement distributed transactions that span multiple services."}, {"group_name": "Data Querying", "implementation_pattern": "API Composition", "involved_microservices": ["Energy Consumption and Production Service"], "explaination": "For queries that aggregate data from multiple services, use API Composition to invoke multiple service APIs and aggregate results."}], "datastore": [{"datastore_name": "User Data", "associated_microservices": ["User Management Service"], "description": "Stores user registration, authentication, and profile data."}, {"datastore_name": "Device Data", "associated_microservices": ["Device Management Service"], "description": "Stores information about registered devices."}, {"datastore_name": "Energy Trading Data", "associated_microservices": ["Energy Trading Service"], "description": "Stores data related to energy trading transactions."}]}</t>
+          <t>{'microservices': [{'name': 'User Management Service', 'endpoints': [{'name': '/register', 'method': 'POST', 'inputs': ['username', 'password', 'email', 'personal_information'], 'outputs': ['registration_result', 'user_id'], 'description': 'Registers a new user with personal information'}, {'name': '/login', 'method': 'POST', 'inputs': ['username', 'password'], 'outputs': ['authentication_token', 'user_profile'], 'description': 'Authenticates user and provides access token'}, {'name': '/profile', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['user_profile'], 'description': 'Retrieves user profile information'}, {'name': '/profile/password', 'method': 'PUT', 'inputs': ['user_id', 'old_password', 'new_password'], 'outputs': ['update_result'], 'description': 'Updates user password'}], 'user_stories': ['1', '3', '5'], 'parameters': ['user_id', 'username', 'password', 'email', 'personal_information'], 'description': 'Handles user registration, authentication, profile management, and password changes'}, {'name': 'Device Management Service', 'endpoints': [{'name': '/devices', 'method': 'POST', 'inputs': ['user_id', 'device_name', 'device_type', 'device_specifications'], 'outputs': ['device_id', 'registration_result'], 'description': 'Registers a new device for a user'}, {'name': '/devices', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['devices_list'], 'description': 'Retrieves all devices for a user'}, {'name': '/devices/{device_id}', 'method': 'GET', 'inputs': ['device_id'], 'outputs': ['device_details'], 'description': 'Retrieves specific device details'}, {'name': '/devices/{device_id}', 'method': 'DELETE', 'inputs': ['device_id'], 'outputs': ['deletion_result'], 'description': 'Removes a device from monitoring'}], 'user_stories': ['6'], 'parameters': ['device_id', 'user_id', 'device_name', 'device_type', 'device_specifications'], 'description': 'Manages registration and tracking of user devices for consumption monitoring'}, {'name': 'Energy Monitoring Service', 'endpoints': [{'name': '/consumption', 'method': 'POST', 'inputs': ['user_id', 'device_id', 'consumption_data', 'timestamp'], 'outputs': ['recording_result'], 'description': 'Records energy consumption data'}, {'name': '/production', 'method': 'POST', 'inputs': ['user_id', 'production_data', 'timestamp'], 'outputs': ['recording_result'], 'description': 'Records energy production data'}, {'name': '/dashboard', 'method': 'GET', 'inputs': ['user_id', 'time_period'], 'outputs': ['consumption_data', 'production_data', 'analytics'], 'description': 'Retrieves user energy dashboard with consumption and production data'}, {'name': '/grid/consumption', 'method': 'GET', 'inputs': ['central_node_id', 'time_period'], 'outputs': ['aggregated_consumption_data'], 'description': 'Retrieves real-time energy usage for all users in a grid'}, {'name': '/historical', 'method': 'GET', 'inputs': ['user_id', 'start_date', 'end_date'], 'outputs': ['historical_consumption_data', 'historical_production_data'], 'description': 'Retrieves historical energy data for analysis'}], 'user_stories': ['8', '10'], 'parameters': ['user_id', 'device_id', 'consumption_data', 'production_data', 'timestamp', 'central_node_id'], 'description': 'Tracks and provides dashboards for user energy consumption and production data, including historical analysis'}, {'name': 'Central Node Management Service', 'endpoints': [{'name': '/central-nodes', 'method': 'POST', 'inputs': ['node_name', 'location', 'coverage_area', 'provider_ids', 'user_ids'], 'outputs': ['central_node_id', 'registration_result'], 'description': 'Registers a new central node and links providers and users'}, {'name': '/central-nodes/{node_id}', 'method': 'GET', 'inputs': ['central_node_id'], 'outputs': ['node_details', 'linked_providers', 'linked_users'], 'description': 'Retrieves central node details'}, {'name': '/central-nodes/{node_id}/users', 'method': 'PUT', 'inputs': ['central_node_id', 'user_ids'], 'outputs': ['update_result'], 'description': 'Updates users linked to a central node'}, {'name': '/central-nodes/{node_id}/providers', 'method': 'PUT', 'inputs': ['central_node_id', 'provider_ids'], 'outputs': ['update_result'], 'description': 'Updates providers linked to a central node'}, {'name': '/central-nodes/{node_id}/storage', 'method': 'GET', 'inputs': ['central_node_id'], 'outputs': ['storage_levels', 'grid_storage_data'], 'description': 'Retrieves energy storage levels within the grid'}], 'user_stories': ['2', '13'], 'parameters': ['central_node_id', 'node_name', 'location', 'coverage_area', 'provider_ids', 'user_ids'], 'description': 'Manages central node registration, configuration, links to providers and users, and energy storage monitoring within the grid'}, {'name': 'Energy Storage Service', 'endpoints': [{'name': '/storage/user', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['storage_level', 'capacity', 'storage_status'], 'description': 'Retrieves user energy storage information'}, {'name': '/storage/user', 'method': 'PUT', 'inputs': ['user_id', 'storage_level'], 'outputs': ['update_result'], 'description': 'Updates user energy storage level'}, {'name': '/storage/grid', 'method': 'GET', 'inputs': ['central_node_id'], 'outputs': ['total_storage_level', 'available_capacity', 'grid_storage_details'], 'description': 'Retrieves grid-level energy storage information'}, {'name': '/storage/grid', 'method': 'PUT', 'inputs': ['central_node_id', 'storage_level'], 'outputs': ['update_result'], 'description': 'Updates grid energy storage level'}], 'user_stories': ['14'], 'parameters': ['user_id', 'central_node_id', 'storage_level', 'capacity'], 'description': 'Manages user and grid energy storage levels and provides access to storage information'}, {'name': 'Energy Trading Service', 'endpoints': [{'name': '/trade/sell', 'method': 'POST', 'inputs': ['user_id', 'energy_amount', 'price_per_unit', 'central_node_id'], 'outputs': ['transaction_id', 'transaction_status', 'confirmation'], 'description': 'Initiates selling surplus energy to central node'}, {'name': '/trade/buy', 'method': 'POST', 'inputs': ['user_id', 'energy_amount', 'central_node_id'], 'outputs': ['transaction_id', 'transaction_status', 'total_cost', 'confirmation'], 'description': 'Initiates buying additional energy from central node'}, {'name': '/trade/{transaction_id}', 'method': 'GET', 'inputs': ['transaction_id'], 'outputs': ['transaction_details', 'status'], 'description': 'Retrieves transaction details and status'}, {'name': '/trade/history', 'method': 'GET', 'inputs': ['user_id', 'time_period'], 'outputs': ['transaction_history'], 'description': 'Retrieves user energy trading history'}], 'user_stories': ['11', '20', '23'], 'parameters': ['user_id', 'transaction_id', 'energy_amount', 'price_per_unit', 'central_node_id', 'transaction_status'], 'description': 'Handles energy buying and selling transactions between users, producers, and central nodes, including surplus energy sales and additional energy purchases'}, {'name': 'Provider Management Service', 'endpoints': [{'name': '/providers', 'method': 'GET', 'inputs': ['central_node_id'], 'outputs': ['providers_list', 'rates', 'energy_sources'], 'description': 'Retrieves all available providers for a central node'}, {'name': '/providers/compare', 'method': 'GET', 'inputs': ['central_node_id', 'user_preferences'], 'outputs': ['comparison_data', 'recommendations'], 'description': 'Compares different energy providers based on rates and sustainability'}, {'name': '/contracts', 'method': 'POST', 'inputs': ['user_id', 'provider_id', 'contract_details', 'energy_source_preference'], 'outputs': ['contract_id', 'contract_result'], 'description': 'Creates a new provider contract for a user'}, {'name': '/contracts/{contract_id}', 'method': 'PUT', 'inputs': ['contract_id', 'updated_contract_details', 'energy_source_preference'], 'outputs': ['update_result'], 'description': 'Updates existing provider contract'}, {'name': '/contracts/user', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['contract_details', 'provider_info'], 'description': "Retrieves user's current provider contract"}], 'user_stories': ['15', '16', '19'], 'parameters': ['provider_id', 'contract_id', 'user_id', 'central_node_id', 'contract_details', 'energy_source_preference'], 'description': 'Manages energy provider information, contracts, comparisons, and user provider selections including energy source preferences'}, {'name': 'Billing Service', 'endpoints': [{'name': '/bills/generate', 'method': 'POST', 'inputs': ['user_id', 'consumption_data', 'provider_rates', 'billing_period'], 'outputs': ['bill_id', 'bill_amount', 'bill_details'], 'description': 'Generates energy bill based on consumption and provider rates'}, {'name': '/bills/{bill_id}', 'method': 'GET', 'inputs': ['bill_id'], 'outputs': ['bill_details', 'amount', 'due_date', 'payment_status'], 'description': 'Retrieves specific bill details'}, {'name': '/bills/history', 'method': 'GET', 'inputs': ['user_id', 'time_period'], 'outputs': ['bills_history'], 'description': "Retrieves user's billing history"}, {'name': '/bills/{bill_id}/status', 'method': 'PUT', 'inputs': ['bill_id', 'payment_status'], 'outputs': ['update_result'], 'description': 'Updates bill payment status'}], 'user_stories': ['12', '17'], 'parameters': ['bill_id', 'user_id', 'bill_amount', 'billing_period', 'payment_status', 'provider_rates'], 'description': 'Generates energy bills based on consumption and provider rates, maintains billing history, and manages bill-related operations'}, {'name': 'Payment Service', 'endpoints': [{'name': '/payment/methods', 'method': 'POST', 'inputs': ['user_id', 'payment_method_details'], 'outputs': ['payment_method_id', 'registration_result'], 'description': 'Adds new payment method for user'}, {'name': '/payment/methods', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['payment_methods_list'], 'description': "Retrieves user's payment methods"}, {'name': '/payment/methods/{method_id}', 'method': 'PUT', 'inputs': ['payment_method_id', 'updated_details'], 'outputs': ['update_result'], 'description': 'Updates payment method details'}, {'name': '/payment/methods/{method_id}', 'method': 'DELETE', 'inputs': ['payment_method_id'], 'outputs': ['deletion_result'], 'description': 'Removes payment method'}, {'name': '/payment/process', 'method': 'POST', 'inputs': ['user_id', 'payment_method_id', 'amount', 'payment_type', 'reference_id'], 'outputs': ['payment_id', 'payment_status', 'transaction_receipt'], 'description': 'Processes payment through Stripe gateway for bills or energy purchases'}, {'name': '/payment/{payment_id}', 'method': 'GET', 'inputs': ['payment_id'], 'outputs': ['payment_details', 'status'], 'description': 'Retrieves payment transaction details'}], 'user_stories': ['21', '22'], 'parameters': ['payment_id', 'payment_method_id', 'user_id', 'amount', 'payment_status', 'payment_type'], 'description': 'Integrates with payment gateway (Stripe), manages payment methods, and processes bill and energy purchase payments'}, {'name': 'Notification Service', 'endpoints': [{'name': '/notifications', 'method': 'POST', 'inputs': ['user_id', 'notification_type', 'notification_content', 'priority'], 'outputs': ['notification_id', 'send_result'], 'description': 'Sends notification to user'}, {'name': '/notifications', 'method': 'GET', 'inputs': ['user_id', 'status'], 'outputs': ['notifications_list'], 'description': 'Retrieves all notifications for a user'}, {'name': '/notifications/{notification_id}', 'method': 'GET', 'inputs': ['notification_id'], 'outputs': ['notification_details'], 'description': 'Retrieves specific notification details'}, {'name': '/notifications/{notification_id}/read', 'method': 'PUT', 'inputs': ['notification_id'], 'outputs': ['update_result'], 'description': 'Marks notification as read'}, {'name': '/notifications/tips', 'method': 'POST', 'inputs': ['user_id', 'consumption_pattern'], 'outputs': ['personalized_tips'], 'description': 'Generates and sends personalized energy-saving tips'}], 'user_stories': ['7', '9', '18'], 'parameters': ['notification_id', 'user_id', 'notification_type', 'notification_content', 'status', 'priority'], 'description': 'Sends and manages notifications to users including bill notifications, energy-saving tips, and system alerts'}, {'name': 'Frontend Gateway Service', 'endpoints': [{'name': '/', 'method': 'GET', 'inputs': ['user_session'], 'outputs': ['home_page'], 'description': 'Serves the home page with quick access to all website areas'}, {'name': '/route', 'method': 'GET', 'inputs': ['destination', 'user_session'], 'outputs': ['routed_page'], 'description': 'Routes user requests to appropriate microservices'}], 'user_stories': ['4'], 'parameters': ['user_session', 'destination'], 'description': 'Provides the home page and routing to different areas of the website, acting as the main entry point for user interactions'}], 'patterns': [{'group_name': 'Service Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['User Management Service', 'Device Management Service', 'Energy Monitoring Service', 'Central Node Management Service', 'Energy Storage Service', 'Energy Trading Service', 'Provider Management Service', 'Billing Service', 'Payment Service', 'Notification Service'], 'explaination': "I chose Database per Service pattern because the context emphasizes loose coupling and service autonomy for the distributed energy management system. Each microservice needs to operate independently and manage its own data without direct dependencies on other services' databases. This is critical for services like Billing, Energy Trading, and Payment that require independent scaling and fault isolation."}, {'group_name': 'Energy Trading Transaction Management', 'implementation_pattern': 'saga', 'involved_microservices': ['Energy Trading Service', 'Billing Service', 'Payment Service', 'Energy Monitoring Service', 'Energy Storage Service'], 'explaination': 'I chose the Saga pattern because energy trading transactions (user stories 11, 20, 23) span multiple services and require eventual consistency without distributed 2PC transactions. When users buy/sell energy, the operation must coordinate Energy Trading Service (transaction), Energy Monitoring Service (consumption/production updates), Energy Storage Service (storage level updates), Billing Service (billing updates), and Payment Service (payment processing). The Saga ensures ACID-like properties across these distributed operations.'}, {'group_name': 'Provider Contract Management', 'implementation_pattern': 'saga', 'involved_microservices': ['Provider Management Service', 'Billing Service', 'User Management Service', 'Central Node Management Service'], 'explaination': 'I chose the Saga pattern because provider contract updates (user stories 15, 16, 19) require coordination between Provider Management Service (contract updates), Billing Service (rate updates), User Management Service (user preferences), and Central Node Management Service (provider-node links). This ensures consistency when users change providers or update energy source preferences.'}, {'group_name': 'Bill Generation and Payment Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Billing Service', 'Energy Monitoring Service', 'Payment Service', 'Notification Service'], 'explaination': 'I chose the Saga pattern because bill generation and payment (user stories 12, 17, 18, 21) involves orchestrating multiple services: Billing Service generates bills based on consumption data from Energy Monitoring Service, Payment Service processes payments, and Notification Service sends bill notifications. This workflow requires eventual consistency and compensation logic if any step fails.'}, {'group_name': 'Energy Dashboard Query Aggregation', 'implementation_pattern': 'api composition', 'involved_microservices': ['Energy Monitoring Service', 'Device Management Service', 'Energy Storage Service'], 'explaination': 'I chose API Composition for the energy dashboard (user story 8) because it requires aggregating data from multiple services in real-time: Energy Monitoring Service provides consumption/production data, Device Management Service provides device details, and Energy Storage Service provides storage levels. The Frontend Gateway Service can compose these responses into a unified dashboard view.'}, {'group_name': 'Provider Comparison Query', 'implementation_pattern': 'api composition', 'involved_microservices': ['Provider Management Service', 'Central Node Management Service'], 'explaination': 'I chose API Composition for provider comparison (user story 15) because it requires combining provider data from Provider Management Service with central node coverage information from Central Node Management Service to present users with available options in their grid area.'}, {'group_name': 'Real-time Grid Monitoring', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Energy Monitoring Service', 'Central Node Management Service'], 'explaination': 'I chose CQRS for real-time grid monitoring (user story 10) because central node managers need efficient access to aggregated consumption data across all users. The context emphasizes that this is a performance-critical query requiring optimized read models. Energy Monitoring Service maintains separate write models for recording consumption and read models optimized for grid-level aggregated queries.'}, {'group_name': 'Energy Storage Monitoring', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Energy Storage Service'], 'explaination': 'I chose CQRS for energy storage monitoring (user story 13, 14) because the context specifies maintaining optimized read models for grid-level energy availability queries. The write side handles storage level updates while the read side provides efficient access patterns for both individual users and central node managers monitoring grid stability.'}, {'group_name': 'Historical Consumption Analysis', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Energy Monitoring Service', 'Billing Service'], 'explaination': 'I chose CQRS for historical consumption analysis (user stories 8, 17) because the context recommends creating dedicated read models for analytical queries. Users need to analyze historical consumption patterns and billing history, which requires different data structures optimized for time-series queries versus operational data recording.'}, {'group_name': 'Event-Driven Notifications', 'implementation_pattern': 'domain event', 'involved_microservices': ['Billing Service', 'Notification Service', 'Energy Trading Service', 'Device Management Service'], 'explaination': 'I chose Domain Event pattern for reactive communication (user stories 7, 9, 18, 23) because the context emphasizes event-driven workflows. Billing Service publishes domain events when bills are generated, triggering Notification Service to send alerts. Energy Trading Service publishes transaction confirmations as events. Device Management Service publishes device registration events that trigger monitoring initialization in Energy Monitoring Service.'}, {'group_name': 'Energy Trading Event Sourcing', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Energy Trading Service'], 'explaination': 'I chose Event Sourcing for Energy Trading Service (user stories 11, 20, 23) because the context specifies the need for a complete audit trail of all energy transactions. Financial transactions require immutable historical records, and event sourcing ensures data accuracy and provides the ability to reconstruct transaction history at any point in time.'}, {'group_name': 'Billing Event Sourcing', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Billing Service'], 'explaination': 'I chose Event Sourcing for Billing Service (user stories 12, 17) because the context emphasizes maintaining a historical record of billing events and calculations. This provides audit trails for financial transactions, ensures billing accuracy, and enables historical bill analysis required by users.'}, {'group_name': 'Energy Monitoring Event Sourcing', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Energy Monitoring Service'], 'explaination': 'I chose Event Sourcing for Energy Monitoring Service (user stories 8, 10) because the context specifies time-series data tracking for consumption and production. Event sourcing naturally supports time-series data, provides complete historical analysis capabilities, and ensures data accuracy for consumption-based billing calculations.'}], 'datastore': [{'datastore_name': 'User Database', 'associated_microservices': ['User Management Service'], 'description': 'Stores user account information, credentials, and personal profiles. Supports user stories 1, 3, 5 for registration, authentication, and profile management. Uses relational database structure for user data integrity.'}, {'datastore_name': 'Device Registry Database', 'associated_microservices': ['Device Management Service'], 'description': 'Stores registered devices and their specifications for consumption monitoring. Supports user story 6 for device registration and tracking. Uses relational database to maintain device-user relationships.'}, {'datastore_name': 'Energy Monitoring Event Store', 'associated_microservices': ['Energy Monitoring Service'], 'description': 'Event-sourced database storing all consumption and production events as immutable time-series data. Supports user stories 8 and 10 for real-time monitoring and historical analysis. Uses event store database (e.g., EventStoreDB) with CQRS read models for dashboard queries and grid monitoring aggregations.'}, {'datastore_name': 'Central Node Database', 'associated_microservices': ['Central Node Management Service'], 'description': 'Stores central node configurations, coverage areas, and links to providers and users. Supports user stories 2 and 13 for node management and grid storage monitoring. Uses relational database with spatial data support for coverage areas.'}, {'datastore_name': 'Energy Storage Database', 'associated_microservices': ['Energy Storage Service'], 'description': 'Stores user and grid-level energy storage information with CQRS read models. Supports user story 14 for user storage access and user story 13 for grid storage monitoring. Uses database with optimized read models for real-time storage level queries.'}, {'datastore_name': 'Energy Trading Event Store', 'associated_microservices': ['Energy Trading Service'], 'description': 'Event-sourced database storing all energy trading transactions as immutable events. Supports user stories 11, 20, 23 for buying/selling energy with complete audit trails. Uses event store database for transaction history reconstruction and compliance.'}, {'datastore_name': 'Provider and Contract Database', 'associated_microservices': ['Provider Management Service'], 'description': 'Stores energy provider information, rates, contracts, and energy source preferences. Supports user stories 15, 16, 19 for provider comparison, contract management, and energy source selection. Uses relational database for provider-contract relationships.'}, {'datastore_name': 'Billing Event Store', 'associated_microservices': ['Billing Service'], 'description': 'Event-sourced database storing all billing events and calculations. Supports user stories 12 and 17 for bill generation and billing history with CQRS read models. Uses event store database with read models optimized for historical billing queries and analysis.'}, {'datastore_name': 'Payment Transaction Database', 'associated_microservices': ['Payment Service'], 'description': 'Stores payment methods and transaction records integrated with Stripe. Supports user stories 21 and 22 for payment processing and payment method management. Uses relational database with encryption for sensitive payment data.'}, {'datastore_name': 'Notification Database', 'associated_microservices': ['Notification Service'], 'description': 'Stores notification records, delivery status, and user notification preferences. Supports user stories 7, 9, 18 for notification management, energy-saving tips, and bill alerts. Uses document database for flexible notification content structure.'}, {'datastore_name': 'Gateway Session Store', 'associated_microservices': ['Frontend Gateway Service'], 'description': 'Stores user session data and routing information. Supports user story 4 for home page access and navigation. Uses in-memory cache database (e.g., Redis) for fast session lookups.'}]}</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -746,7 +746,7 @@
         <v>45</v>
       </c>
       <c r="H5" t="n">
-        <v>2.181818181818182</v>
+        <v>2.090909090909091</v>
       </c>
       <c r="I5" t="n">
         <v>11</v>
@@ -799,7 +799,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Authentication Service", "endpoints": [{"name": "/signup", "method": "POST", "inputs": ["email", "password"], "outputs": ["signup result"], "description": "Handles user sign up with email and password"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "Handles user login with email and password"}, {"name": "/verify-otp", "method": "POST", "inputs": ["email", "otp"], "outputs": ["verification result"], "description": "Verifies user account using OTP"}, {"name": "/reset-password", "method": "POST", "inputs": ["email", "new_password"], "outputs": ["password reset result"], "description": "Resets user password with email and new password"}], "user_stories": ["1", "2", "3", "4", "5"], "parameters": ["email", "password", "otp", "new_password"], "description": "Handles user sign up, login, OTP verification, password reset, and session management to secure user access."}, {"name": "Photo Upload Service", "endpoints": [{"name": "/upload", "method": "POST", "inputs": ["photo", "metadata"], "outputs": ["upload result"], "description": "Manages photo uploads with optional metadata"}], "user_stories": ["6"], "parameters": ["photo", "metadata"], "description": "Manages photo uploads along with optional metadata, storing images for further processing."}, {"name": "Face Detection Service", "endpoints": [], "user_stories": ["7"], "parameters": [], "description": "Performs automatic face detection on uploaded images to enable proper cropping and tagging."}, {"name": "Age Detection Service", "endpoints": [], "user_stories": ["8", "9", "10", "15"], "parameters": [], "description": "Runs asynchronous age detection on photos and provides age data retrieval for single or multiple images."}, {"name": "Photo Management Service", "endpoints": [], "user_stories": ["11", "12", "13", "14"], "parameters": [], "description": "Allows users to view, filter, retrieve, and delete photos and their associated metadata and detection results."}], "patterns": [{"group_name": "Authentication Patterns", "implementation_pattern": "API Gateway", "involved_microservices": ["Authentication Service"], "explaination": "Centralize authentication with an API Gateway for login, session management, and token issuance."}, {"group_name": "Photo Processing Patterns", "implementation_pattern": "Event-driven messaging (Saga pattern)", "involved_microservices": ["Face Detection Service", "Age Detection Service"], "explaination": "Use events to trigger face and age detection asynchronously without tight coupling."}, {"group_name": "Data Storage Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["Authentication Service", "Photo Upload Service", "Face Detection Service", "Age Detection Service", "Photo Management Service"], "explaination": "Maintain dedicated databases for each service to ensure loose coupling and independent scaling."}], "datastore": [{"datastore_name": "User Data Store", "associated_microservices": ["Authentication Service"], "description": "Stores user credentials, OTPs, and session data for secure access."}, {"datastore_name": "Photo Data Store", "associated_microservices": ["Photo Upload Service", "Photo Management Service"], "description": "Stores uploaded photos, metadata, and detection results for photo management."}, {"datastore_name": "Face Detection Data Store", "associated_microservices": ["Face Detection Service"], "description": "Stores face detection results for proper cropping and tagging."}, {"datastore_name": "Age Detection Data Store", "associated_microservices": ["Age Detection Service"], "description": "Stores age detection results for age data retrieval."}]}</t>
+          <t>{'microservices': [{'name': 'authentication-service', 'endpoints': [{'name': '/register', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['user_id', 'registration_status'], 'description': 'Registers a new user with email and password'}, {'name': '/verify-otp', 'method': 'POST', 'inputs': ['email', 'otp_code'], 'outputs': ['verification_status'], 'description': 'Verifies user account using OTP code'}, {'name': '/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['session_token', 'user_id'], 'description': 'Authenticates user and creates session'}, {'name': '/session/validate', 'method': 'GET', 'inputs': ['session_token'], 'outputs': ['is_valid', 'user_id'], 'description': 'Validates existing session token'}, {'name': '/password-reset/request', 'method': 'POST', 'inputs': ['email'], 'outputs': ['reset_token'], 'description': 'Initiates password reset process'}, {'name': '/password-reset/confirm', 'method': 'POST', 'inputs': ['reset_token', 'new_password'], 'outputs': ['reset_status'], 'description': 'Completes password reset with new password'}, {'name': '/logout', 'method': 'POST', 'inputs': ['session_token'], 'outputs': ['logout_status'], 'description': 'Terminates user session'}], 'user_stories': ['1', '2', '3', '4', '5'], 'parameters': ['user_id', 'email', 'password_hash', 'otp_token', 'otp_expiry', 'session_token', 'session_expiry', 'reset_token', 'is_verified'], 'description': 'Handles user registration, login, OTP verification, password reset, and session management'}, {'name': 'photo-management-service', 'endpoints': [{'name': '/photos', 'method': 'POST', 'inputs': ['user_id', 'photo_file', 'tags', 'metadata'], 'outputs': ['photo_id', 'upload_status'], 'description': 'Uploads a photo with optional metadata and triggers face detection'}, {'name': '/photos/{photo_id}', 'method': 'GET', 'inputs': ['photo_id', 'user_id'], 'outputs': ['photo_content', 'metadata'], 'description': 'Retrieves photo content and metadata by photo ID'}, {'name': '/photos', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['photo_list', 'metadata_list'], 'description': 'Retrieves all photos and tags for a user by email'}, {'name': '/photos/filter', 'method': 'GET', 'inputs': ['user_id', 'tags'], 'outputs': ['filtered_photo_list'], 'description': 'Filters photos by email and tag'}, {'name': '/photos', 'method': 'DELETE', 'inputs': ['photo_ids', 'user_id'], 'outputs': ['deletion_status'], 'description': 'Deletes one or more photos and triggers cascade deletion'}], 'user_stories': ['6', '11', '12', '13', '14'], 'parameters': ['photo_id', 'user_id', 'storage_path', 'upload_timestamp', 'tags', 'metadata', 'face_detection_status', 'age_detection_status'], 'description': 'Manages photo upload, storage, metadata, retrieval, deletion, and filtering operations'}, {'name': 'face-detection-service', 'endpoints': [{'name': '/detect-faces', 'method': 'POST', 'inputs': ['photo_id', 'photo_content'], 'outputs': ['detection_results', 'crop_coordinates'], 'description': 'Performs face detection and returns crop coordinates'}, {'name': '/faces/{photo_id}', 'method': 'GET', 'inputs': ['photo_id'], 'outputs': ['face_data', 'crop_coordinates'], 'description': 'Retrieves face detection results for a photo'}, {'name': '/faces', 'method': 'DELETE', 'inputs': ['photo_ids'], 'outputs': ['deletion_status'], 'description': 'Deletes face detection data for specified photos'}], 'user_stories': ['7'], 'parameters': ['photo_id', 'face_count', 'crop_coordinates', 'detection_timestamp', 'confidence_scores'], 'description': 'Performs face detection and image cropping using computer vision'}, {'name': 'age-detection-service', 'endpoints': [{'name': '/detect-age', 'method': 'POST', 'inputs': ['photo_id', 'cropped_face_data'], 'outputs': ['job_id', 'processing_status'], 'description': 'Initiates asynchronous age detection processing'}, {'name': '/age/{photo_id}', 'method': 'GET', 'inputs': ['photo_id'], 'outputs': ['detected_age', 'confidence'], 'description': 'Retrieves detected age for a specific photo'}, {'name': '/ages', 'method': 'POST', 'inputs': ['photo_ids'], 'outputs': ['age_results_list'], 'description': 'Retrieves detected ages for multiple photos in batch'}, {'name': '/ages', 'method': 'DELETE', 'inputs': ['photo_ids'], 'outputs': ['deletion_status'], 'description': 'Deletes age detection records for specified photos'}, {'name': '/age/status/{job_id}', 'method': 'GET', 'inputs': ['job_id'], 'outputs': ['processing_status', 'progress'], 'description': 'Checks status of age detection job'}], 'user_stories': ['8', '9', '10', '15'], 'parameters': ['photo_id', 'job_id', 'detected_age', 'confidence_score', 'processing_status', 'detection_timestamp', 'face_coordinates'], 'description': 'Runs asynchronous age detection on faces and stores/retrieves age results using CQRS pattern'}], 'patterns': [{'group_name': 'Service Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['authentication-service', 'photo-management-service', 'face-detection-service', 'age-detection-service'], 'explaination': 'I chose this pattern because each microservice needs to maintain its own data independently to ensure loose coupling and service autonomy. The context explicitly recommends that each service should have its own database for user credentials, photo metadata, detection results, and age detection data respectively.'}, {'group_name': 'Photo Processing Workflow', 'implementation_pattern': 'saga', 'involved_microservices': ['photo-management-service', 'face-detection-service', 'age-detection-service'], 'explaination': 'I chose the Saga pattern because the photo upload and processing workflow (User Stories 6, 7, 8) requires coordinated multi-step transactions across services. When a photo is uploaded, it must be stored, then face detection must run, then age detection must execute. If any step fails, compensating transactions must clean up previous steps. Similarly, photo deletion (User Story 11) requires cascade deletion across all three services.'}, {'group_name': 'Asynchronous Event Processing', 'implementation_pattern': 'domain event', 'involved_microservices': ['photo-management-service', 'face-detection-service', 'age-detection-service'], 'explaination': 'I chose the Domain Event pattern because the system requires asynchronous processing triggered by state changes. PhotoUploaded events trigger face detection (User Story 7), FaceDetected events trigger age detection (User Story 8), and PhotoDeleted events cascade deletion (User Story 11). This enables loose coupling and supports the background processing requirement.'}, {'group_name': 'Aggregated Photo Data Retrieval', 'implementation_pattern': 'api composition', 'involved_microservices': ['photo-management-service', 'age-detection-service', 'face-detection-service'], 'explaination': 'I chose the API Composition pattern because several user stories (9, 10, 12, 14) require aggregating data from multiple services. When retrieving photos with age data or filtering photos, the system must combine photo metadata from photo-management-service with age results from age-detection-service and potentially face data from face-detection-service.'}, {'group_name': 'Age Detection Read/Write Separation', 'implementation_pattern': 'cqrs', 'involved_microservices': ['age-detection-service'], 'explaination': 'I chose the CQRS pattern for age-detection-service because it has distinct command and query responsibilities. The command side handles asynchronous age detection processing (User Story 8) which is write-intensive and time-consuming, while the query side provides optimized reads for retrieving age results (User Stories 9, 10). This separation improves performance and scalability.'}, {'group_name': 'Domain Boundaries', 'implementation_pattern': 'aggregate', 'involved_microservices': ['authentication-service', 'photo-management-service', 'face-detection-service', 'age-detection-service'], 'explaination': 'I chose the Aggregate pattern to define clear domain boundaries and consistency rules. User aggregate in authentication-service, Photo aggregate in photo-management-service, Face Detection aggregate in face-detection-service, and Age Detection Result aggregate in age-detection-service ensure that related data is kept together and maintains consistency within each service.'}], 'datastore': [{'datastore_name': 'authentication-db', 'associated_microservices': ['authentication-service'], 'description': 'Stores user credentials, email addresses, password hashes, OTP tokens, session tokens, and account verification status. Supports User Stories 1, 2, 3, 4, 5 for registration, login, OTP verification, session management, and password reset. Uses Database per Service pattern to maintain service autonomy.'}, {'datastore_name': 'photo-metadata-db', 'associated_microservices': ['photo-management-service'], 'description': 'Stores photo metadata including photo IDs, user IDs, storage paths, tags, upload timestamps, and processing status flags for face and age detection. Supports User Stories 6, 11, 12, 13, 14 for photo upload, retrieval, deletion, and filtering. Acts as orchestrator in Saga pattern and publishes Domain Events.'}, {'datastore_name': 'face-detection-db', 'associated_microservices': ['face-detection-service'], 'description': 'Stores face detection results including photo IDs, face counts, crop coordinates, confidence scores, and detection timestamps. Supports User Story 7 for automated face detection. Participates in Saga pattern and consumes/produces Domain Events.'}, {'datastore_name': 'age-detection-write-db', 'associated_microservices': ['age-detection-service'], 'description': 'Write-side database for CQRS pattern. Stores age detection processing jobs, statuses, and raw detection events. Supports User Story 8 for asynchronous age detection processing and User Story 15 for containerized deployment.'}, {'datastore_name': 'age-detection-read-db', 'associated_microservices': ['age-detection-service'], 'description': 'Read-side database for CQRS pattern. Stores optimized age detection results with photo IDs, detected ages, confidence scores, and timestamps. Supports User Stories 9 and 10 for efficient retrieval of single and multiple photo age results. Enables fast queries through denormalized data structure.'}]}</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -812,10 +812,10 @@
         <v>26</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -904,23 +904,23 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "User Management Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email", "password"], "outputs": ["registration result"], "description": "takes user email and password as inputs and outputs the registration result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}, {"name": "/deleteAccount", "method": "DELETE", "inputs": ["user_id"], "outputs": ["deletion result"], "description": "deletes the user account based on user_id"}, {"name": "/profile", "method": "GET", "inputs": ["user_id"], "outputs": ["user profile"], "description": "retrieves the user profile based on user_id"}, {"name": "/modifyUsername", "method": "PUT", "inputs": ["user_id", "new_username"], "outputs": ["modification result"], "description": "modifies the username of the user based on user_id"}, {"name": "/modifyPassword", "method": "PUT", "inputs": ["user_id", "new_password"], "outputs": ["modification result"], "description": "modifies the password of the user based on user_id"}], "user_stories": ["1", "2", "3", "4", "5", "6"], "parameters": ["email", "password", "user_id", "new_username", "new_password"], "description": "Handles user registration, authentication, profile management, and account deletion."}, {"name": "Trip Management Service", "endpoints": [{"name": "/trips", "method": "GET", "inputs": ["user_id"], "outputs": ["user trips"], "description": "retrieves all trips associated with the user based on user_id"}, {"name": "/searchTrips", "method": "GET", "inputs": ["user_id", "search_query"], "outputs": ["search results"], "description": "searches for trips based on title or destination"}, {"name": "/invitations", "method": "GET", "inputs": ["user_id"], "outputs": ["pending invitations"], "description": "retrieves pending trip invitations for the user based on user_id"}, {"name": "/createTrip", "method": "POST", "inputs": ["user_id", "trip_details"], "outputs": ["creation result"], "description": "creates a new trip with the provided details for the user based on user_id"}, {"name": "/deleteTrip", "method": "DELETE", "inputs": ["trip_id"], "outputs": ["deletion result"], "description": "deletes the trip based on trip_id"}, {"name": "/inviteUsers", "method": "POST", "inputs": ["trip_id", "invited_users"], "outputs": ["invitation result"], "description": "invites users to the trip based on trip_id"}, {"name": "/acceptInvitation", "method": "PUT", "inputs": ["user_id", "trip_id"], "outputs": ["acceptance result"], "description": "accepts the trip invitation for the user based on user_id and trip_id"}, {"name": "/refuseInvitation", "method": "PUT", "inputs": ["user_id", "trip_id"], "outputs": ["refusal result"], "description": "refuses the trip invitation for the user based on user_id and trip_id"}, {"name": "/revokeInvitation", "method": "DELETE", "inputs": ["trip_id", "invited_user_id"], "outputs": ["revocation result"], "description": "revokes the invitation sent to the user based on trip_id and invited_user_id"}, {"name": "/leaveTrip", "method": "PUT", "inputs": ["user_id", "trip_id"], "outputs": ["leave result"], "description": "allows the user to leave the trip based on user_id and trip_id"}, {"name": "/removeParticipant", "method": "DELETE", "inputs": ["trip_id", "participant_id"], "outputs": ["removal result"], "description": "removes a participant from the trip based on trip_id and participant_id"}, {"name": "/modifyTripTitle", "method": "PUT", "inputs": ["trip_id", "new_title"], "outputs": ["modification result"], "description": "modifies the title of the trip based on trip_id"}, {"name": "/modifyTripDates", "method": "PUT", "inputs": ["trip_id", "new_dates"], "outputs": ["modification result"], "description": "modifies the dates of the trip based on trip_id"}, {"name": "/modifyTripDestinations", "method": "PUT", "inputs": ["trip_id", "new_destinations"], "outputs": ["modification result"], "description": "modifies the destinations of the trip based on trip_id"}], "user_stories": ["7", "8", "9", "10", "11", "12", "13", "14", "15", "16", "17", "18", "19", "20", "67"], "parameters": ["user_id", "search_query", "trip_details", "trip_id", "invited_users", "invited_user_id", "participant_id", "new_title", "new_dates", "new_destinations"], "description": "Manages creation, modification, deletion, and retrieval of trips, including invitations and participant management."}, {"name": "Schedule Management Service", "endpoints": [{"name": "/tripSchedule", "method": "GET", "inputs": ["trip_id"], "outputs": ["trip schedule"], "description": "retrieves the schedule of the trip based on trip_id"}, {"name": "/filterScheduleByDay", "method": "GET", "inputs": ["trip_id", "day"], "outputs": ["filtered schedule"], "description": "filters the trip schedule by a specific day based on trip_id and day"}, {"name": "/weatherPrediction", "method": "GET", "inputs": ["trip_id"], "outputs": ["weather predictions"], "description": "provides weather predictions for each day of the trip based on trip_id"}, {"name": "/addActivity", "method": "POST", "inputs": ["trip_id", "activity_details"], "outputs": ["addition result"], "description": "adds a new activity to the trip schedule based on trip_id and activity_details"}, {"name": "/deleteActivity", "method": "DELETE", "inputs": ["trip_id", "activity_id"], "outputs": ["deletion result"], "description": "deletes an activity from the trip schedule based on trip_id and activity_id"}, {"name": "/activityDetails", "method": "GET", "inputs": ["trip_id", "activity_id"], "outputs": ["activity details"], "description": "retrieves the details of an activity from the trip schedule based on trip_id and activity_id"}, {"name": "/modifyActivity", "method": "PUT", "inputs": ["trip_id", "activity_id", "new_details"], "outputs": ["modification result"], "description": "modifies the details of an activity in the trip schedule based on trip_id, activity_id, and new_details"}, {"name": "/addAttachmentToActivity", "method": "POST", "inputs": ["trip_id", "activity_id", "attachment"], "outputs": ["addition result"], "description": "adds an attachment to an activity in the trip schedule based on trip_id, activity_id, and attachment"}, {"name": "/activityAttachments", "method": "GET", "inputs": ["trip_id", "activity_id"], "outputs": ["activity attachments"], "description": "retrieves the attachments of an activity from the trip schedule based on trip_id and activity_id"}, {"name": "/downloadActivityAttachment", "method": "GET", "inputs": ["trip_id", "activity_id", "attachment_id"], "outputs": ["attachment file"], "description": "allows downloading the attachment of an activity from the trip schedule based on trip_id, activity_id, and attachment_id"}, {"name": "/addTravel", "method": "POST", "inputs": ["trip_id", "travel_details"], "outputs": ["addition result"], "description": "adds a new travel to the trip schedule based on trip_id and travel_details"}, {"name": "/deleteTravel", "method": "DELETE", "inputs": ["trip_id", "travel_id"], "outputs": ["deletion result"], "description": "deletes a travel from the trip schedule based on trip_id and travel_id"}, {"name": "/travelDetails", "method": "GET", "inputs": ["trip_id", "travel_id"], "outputs": ["travel details"], "description": "retrieves the details of a travel from the trip schedule based on trip_id and travel_id"}, {"name": "/modifyTravel", "method": "PUT", "inputs": ["trip_id", "travel_id", "new_details"], "outputs": ["modification result"], "description": "modifies the details of a travel in the trip schedule based on trip_id, travel_id, and new_details"}, {"name": "/addAttachmentToTravel", "method": "POST", "inputs": ["trip_id", "travel_id", "attachment"], "outputs": ["addition result"], "description": "adds an attachment to a travel in the trip schedule based on trip_id, travel_id, and attachment"}, {"name": "/travelAttachments", "method": "GET", "inputs": ["trip_id", "travel_id"], "outputs": ["travel attachments"], "description": "retrieves the attachments of a travel from the trip schedule based on trip_id and travel_id"}, {"name": "/downloadTravelAttachment", "method": "GET", "inputs": ["trip_id", "travel_id", "attachment_id"], "outputs": ["attachment file"], "description": "allows downloading the attachment of a travel from the trip schedule based on trip_id, travel_id, and attachment_id"}, {"name": "/changeMainLocation", "method": "PUT", "inputs": ["trip_id", "new_location"], "outputs": ["modification result"], "description": "changes the main location of a night in the trip schedule based on trip_id and new_location"}, {"name": "/createAccommodation", "method": "POST", "inputs": ["trip_id", "accommodation_details"], "outputs": ["creation result"], "description": "creates a new accommodation spanning several nights for the trip based on trip_id and accommodation_details"}, {"name": "/deleteAccommodation", "method": "DELETE", "inputs": ["trip_id", "accommodation_id"], "outputs": ["deletion result"], "description": "deletes an accommodation from the trip schedule based on trip_id and accommodation_id"}, {"name": "/accommodationDetails", "method": "GET", "inputs": ["trip_id", "accommodation_id"], "outputs": ["accommodation details"], "description": "retrieves the details of an accommodation from the trip schedule based on trip_id and accommodation_id"}, {"name": "/modifyAccommodation", "method": "PUT", "inputs": ["trip_id", "accommodation_id", "new_details"], "outputs": ["modification result"], "description": "modifies the details of an accommodation in the trip schedule based on trip_id, accommodation_id, and new_details"}, {"name": "/addAttachmentToAccommodation", "method": "POST", "inputs": ["trip_id", "accommodation_id", "attachment"], "outputs": ["addition result"], "description": "adds an attachment to an accommodation in the trip schedule based on trip_id, accommodation_id, and attachment"}, {"name": "/accommodationAttachments", "method": "GET", "inputs": ["trip_id", "accommodation_id"], "outputs": ["accommodation attachments"], "description": "retrieves the attachments of an accommodation from the trip schedule based on trip_id and accommodation_id"}, {"name": "/downloadAccommodationAttachment", "method": "GET", "inputs": ["trip_id", "accommodation_id", "attachment_id"], "outputs": ["attachment file"], "description": "allows downloading the attachment of an accommodation from the trip schedule based on trip_id, accommodation_id, and attachment_id"}], "user_stories": ["21", "22", "23", "24", "25", "26", "27", "28", "29", "30", "31", "32", "33", "34", "35", "36", "37", "38", "39", "40", "41", "42", "43", "44", "45", "46", "47"], "parameters": ["trip_id", "day", "activity_details", "activity_id", "new_details", "attachment", "attachment_id", "travel_details", "travel_id", "accommodation_details", "accommodation_id"], "description": "Manages trip schedules including activities, travels, accommodations, and related details such as maps and attachments."}], "patterns": [{"group_name": "Data Management Patterns", "implementation_pattern": "Saga Pattern", "involved_microservices": ["Trip Management Service"], "explaination": "I chose this pattern because it ensures data consistency for operations spanning multiple services like inviting users to trips, updating trip schedules, and settling expenses."}, {"group_name": "Data Management Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["User Management Service", "Trip Management Service", "Schedule Management Service"], "explaination": "I chose this pattern to ensure loose coupling and independent data management for each microservice."}, {"group_name": "Data Management Patterns", "implementation_pattern": "Event Sourcing", "involved_microservices": ["Expense Management Service", "Trip Management Service"], "explaination": "I chose this pattern for auditability and complex state reconstruction in services handling expenses and trip management."}, {"group_name": "Querying Patterns", "implementation_pattern": "API Composition", "involved_microservices": ["Schedule Management Service"], "explaination": "I chose this pattern for queries that require data from multiple services like showing trip details with schedules, expenses, and participants."}, {"group_name": "Communication Patterns", "implementation_pattern": "Remote Procedure Invocation (RPI)", "involved_microservices": ["User Management Service", "Trip Management Service"], "explaination": "I chose this pattern for request-response interactions where immediate results are needed, like user login and trip creation."}, {"group_name": "Communication Patterns", "implementation_pattern": "Messaging", "involved_microservices": ["Trip Management Service", "Group Chat Service"], "explaination": "I chose this pattern for decoupled communication, event propagation, and saga coordination, especially for notifying participants of trip updates and chat message delivery."}, {"group_name": "Security Patterns", "implementation_pattern": "API Gateway with Backend for Frontend (BFF)", "involved_microservices": ["User Management Service"], "explaination": "I chose this pattern to centralize authentication and authorization, handling user login, session management, and forwarding authenticated requests to services."}], "datastore": [{"datastore_name": "User Service Database", "associated_microservices": ["User Management Service"], "description": "Database for storing user-related information such as registration details, authentication data, and user profiles."}, {"datastore_name": "Trip Service Database", "associated_microservices": ["Trip Management Service"], "description": "Database for managing trip-related data including trip creation, modifications, invitations, and participant details."}, {"datastore_name": "Schedule Service Database", "associated_microservices": ["Schedule Management Service"], "description": "Database for storing trip schedules, activities, travels, accommodations, and related details like maps and attachments."}]}</t>
+          <t>{'microservices': [{'name': 'User Management Service', 'endpoints': [{'name': '/register', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['registration_result', 'user_id'], 'description': 'Registers a new user with email and password'}, {'name': '/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['authentication_token', 'user_profile'], 'description': 'Authenticates user and returns token'}, {'name': '/users/{user_id}', 'method': 'DELETE', 'inputs': ['user_id'], 'outputs': ['deletion_status'], 'description': 'Deletes user account and triggers cascading deletion saga'}, {'name': '/users/{user_id}/profile', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['user_profile'], 'description': 'Retrieves user profile information'}, {'name': '/users/{user_id}/username', 'method': 'PUT', 'inputs': ['user_id', 'new_username'], 'outputs': ['update_result'], 'description': 'Updates user username'}, {'name': '/users/{user_id}/password', 'method': 'PUT', 'inputs': ['user_id', 'old_password', 'new_password'], 'outputs': ['update_result'], 'description': 'Updates user password'}, {'name': '/users/{user_id}/status', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['online_status'], 'description': 'Checks if a user is online'}, {'name': '/users/{user_id}/status', 'method': 'PUT', 'inputs': ['user_id', 'status'], 'outputs': ['update_result'], 'description': 'Updates user online status'}], 'user_stories': ['1', '2', '3', '4', '5', '6', '68'], 'parameters': ['user_id', 'email', 'password', 'username', 'online_status', 'created_at', 'updated_at'], 'description': 'Handles user registration, authentication, profile management, and account operations including online status tracking'}, {'name': 'Trip Management Service', 'endpoints': [{'name': '/trips', 'method': 'POST', 'inputs': ['user_id', 'title', 'start_date', 'end_date', 'destinations'], 'outputs': ['trip_id', 'trip_details'], 'description': 'Creates a new trip and initiates trip creation saga'}, {'name': '/trips/{trip_id}', 'method': 'DELETE', 'inputs': ['trip_id', 'user_id'], 'outputs': ['deletion_status'], 'description': 'Deletes a trip and triggers cascading deletion saga'}, {'name': '/users/{user_id}/trips', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['trips_list'], 'description': 'Retrieves all trips for a user using API composition'}, {'name': '/users/{user_id}/trips/search', 'method': 'GET', 'inputs': ['user_id', 'search_query'], 'outputs': ['filtered_trips'], 'description': 'Searches trips by title or destination'}, {'name': '/users/{user_id}/invitations', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['pending_invitations'], 'description': 'Retrieves pending trip invitations for a user'}, {'name': '/trips/{trip_id}/invitations', 'method': 'POST', 'inputs': ['trip_id', 'inviter_user_id', 'invitee_email'], 'outputs': ['invitation_id', 'invitation_status'], 'description': 'Invites users to a trip'}, {'name': '/invitations/{invitation_id}/accept', 'method': 'POST', 'inputs': ['invitation_id', 'user_id'], 'outputs': ['acceptance_result'], 'description': 'Accepts a trip invitation and triggers domain event'}, {'name': '/invitations/{invitation_id}/decline', 'method': 'POST', 'inputs': ['invitation_id', 'user_id'], 'outputs': ['decline_result'], 'description': 'Declines a trip invitation'}, {'name': '/invitations/{invitation_id}', 'method': 'DELETE', 'inputs': ['invitation_id', 'trip_creator_id'], 'outputs': ['revoke_result'], 'description': 'Revokes a pending invitation'}, {'name': '/trips/{trip_id}/participants/{user_id}', 'method': 'DELETE', 'inputs': ['trip_id', 'user_id', 'requester_id'], 'outputs': ['removal_result'], 'description': 'Removes participant or allows participant to leave trip'}, {'name': '/trips/{trip_id}/title', 'method': 'PUT', 'inputs': ['trip_id', 'user_id', 'new_title'], 'outputs': ['update_result'], 'description': 'Updates trip title and publishes TripUpdated event'}, {'name': '/trips/{trip_id}/dates', 'method': 'PUT', 'inputs': ['trip_id', 'user_id', 'start_date', 'end_date'], 'outputs': ['update_result'], 'description': 'Updates trip dates and publishes TripUpdated event'}, {'name': '/trips/{trip_id}/destinations', 'method': 'PUT', 'inputs': ['trip_id', 'user_id', 'destinations'], 'outputs': ['update_result'], 'description': 'Updates trip destinations and publishes TripUpdated event'}, {'name': '/cities/suggest', 'method': 'GET', 'inputs': ['query'], 'outputs': ['suggested_cities'], 'description': 'Suggests city names for autocomplete'}], 'user_stories': ['7', '8', '9', '10', '11', '12', '13', '14', '15', '16', '17', '18', '19', '20', '67'], 'parameters': ['trip_id', 'title', 'start_date', 'end_date', 'destinations', 'creator_id', 'participants', 'invitations', 'created_at', 'updated_at'], 'description': 'Manages trip lifecycle including creation, deletion, basic trip information, participant management, and invitations. Acts as aggregate root for Trip entity'}, {'name': 'Schedule Service', 'endpoints': [{'name': '/trips/{trip_id}/schedule', 'method': 'GET', 'inputs': ['trip_id', 'user_id'], 'outputs': ['schedule_data'], 'description': 'Retrieves complete trip schedule using CQRS read model'}, {'name': '/trips/{trip_id}/schedule/day/{date}', 'method': 'GET', 'inputs': ['trip_id', 'date'], 'outputs': ['day_schedule'], 'description': 'Retrieves schedule filtered by specific day'}, {'name': '/trips/{trip_id}/activities', 'method': 'POST', 'inputs': ['trip_id', 'user_id', 'name', 'time', 'place', 'date', 'address', 'additional_info'], 'outputs': ['activity_id', 'activity_details'], 'description': 'Adds a new activity to trip schedule'}, {'name': '/activities/{activity_id}', 'method': 'DELETE', 'inputs': ['activity_id', 'user_id'], 'outputs': ['deletion_status'], 'description': 'Deletes an activity from schedule'}, {'name': '/activities/{activity_id}', 'method': 'GET', 'inputs': ['activity_id'], 'outputs': ['activity_details'], 'description': 'Retrieves detailed activity information'}, {'name': '/activities/{activity_id}', 'method': 'PUT', 'inputs': ['activity_id', 'user_id', 'name', 'time', 'place', 'date', 'address', 'additional_info'], 'outputs': ['update_result'], 'description': 'Updates activity details'}, {'name': '/activities/{activity_id}/attachments', 'method': 'POST', 'inputs': ['activity_id', 'user_id', 'attachment_file'], 'outputs': ['attachment_id'], 'description': 'Adds attachment to activity'}, {'name': '/activities/{activity_id}/attachments', 'method': 'GET', 'inputs': ['activity_id'], 'outputs': ['attachments_list'], 'description': 'Retrieves activity attachments'}, {'name': '/activities/{activity_id}/attachments/{attachment_id}', 'method': 'GET', 'inputs': ['activity_id', 'attachment_id'], 'outputs': ['attachment_file'], 'description': 'Downloads specific activity attachment'}, {'name': '/trips/{trip_id}/travels', 'method': 'POST', 'inputs': ['trip_id', 'user_id', 'name', 'departure_time', 'arrival_time', 'departure_place', 'arrival_place', 'date', 'additional_info'], 'outputs': ['travel_id', 'travel_details'], 'description': 'Adds a new travel to trip schedule'}, {'name': '/travels/{travel_id}', 'method': 'DELETE', 'inputs': ['travel_id', 'user_id'], 'outputs': ['deletion_status'], 'description': 'Deletes a travel from schedule'}, {'name': '/travels/{travel_id}', 'method': 'GET', 'inputs': ['travel_id'], 'outputs': ['travel_details'], 'description': 'Retrieves detailed travel information'}, {'name': '/travels/{travel_id}', 'method': 'PUT', 'inputs': ['travel_id', 'user_id', 'name', 'departure_time', 'arrival_time', 'departure_place', 'arrival_place', 'date', 'additional_info'], 'outputs': ['update_result'], 'description': 'Updates travel details'}, {'name': '/travels/{travel_id}/attachments', 'method': 'POST', 'inputs': ['travel_id', 'user_id', 'attachment_file'], 'outputs': ['attachment_id'], 'description': 'Adds attachment to travel'}, {'name': '/travels/{travel_id}/attachments', 'method': 'GET', 'inputs': ['travel_id'], 'outputs': ['attachments_list'], 'description': 'Retrieves travel attachments'}, {'name': '/travels/{travel_id}/attachments/{attachment_id}', 'method': 'GET', 'inputs': ['travel_id', 'attachment_id'], 'outputs': ['attachment_file'], 'description': 'Downloads specific travel attachment'}, {'name': '/trips/{trip_id}/nights/{date}/location', 'method': 'PUT', 'inputs': ['trip_id', 'date', 'user_id', 'location'], 'outputs': ['update_result'], 'description': 'Updates main location for a specific night'}, {'name': '/trips/{trip_id}/accommodations', 'method': 'POST', 'inputs': ['trip_id', 'user_id', 'name', 'check_in_time', 'check_out_time', 'start_date', 'end_date', 'contacts', 'address', 'additional_info'], 'outputs': ['accommodation_id', 'accommodation_details'], 'description': 'Creates accommodation spanning several nights'}, {'name': '/accommodations/{accommodation_id}', 'method': 'DELETE', 'inputs': ['accommodation_id', 'user_id'], 'outputs': ['deletion_status'], 'description': 'Deletes an accommodation'}, {'name': '/accommodations/{accommodation_id}', 'method': 'GET', 'inputs': ['accommodation_id'], 'outputs': ['accommodation_details'], 'description': 'Retrieves detailed accommodation information'}, {'name': '/accommodations/{accommodation_id}', 'method': 'PUT', 'inputs': ['accommodation_id', 'user_id', 'name', 'check_in_time', 'check_out_time', 'start_date', 'end_date', 'contacts', 'address', 'additional_info'], 'outputs': ['update_result'], 'description': 'Updates accommodation details'}, {'name': '/accommodations/{accommodation_id}/attachments', 'method': 'POST', 'inputs': ['accommodation_id', 'user_id', 'attachment_file'], 'outputs': ['attachment_id'], 'description': 'Adds attachment to accommodation'}, {'name': '/accommodations/{accommodation_id}/attachments', 'method': 'GET', 'inputs': ['accommodation_id'], 'outputs': ['attachments_list'], 'description': 'Retrieves accommodation attachments'}, {'name': '/accommodations/{accommodation_id}/attachments/{attachment_id}', 'method': 'GET', 'inputs': ['accommodation_id', 'attachment_id'], 'outputs': ['attachment_file'], 'description': 'Downloads specific accommodation attachment'}], 'user_stories': ['21', '22', '24', '25', '26', '27', '28', '29', '30', '31', '32', '33', '34', '35', '36', '37', '38', '39', '40', '41', '42', '43', '44', '45', '46', '47'], 'parameters': ['trip_id', 'activity_id', 'travel_id', 'accommodation_id', 'date', 'name', 'time', 'place', 'address', 'additional_info', 'attachments', 'created_at', 'updated_at'], 'description': 'Manages trip schedules including activities, travels, accommodations, and their attachments. Implements aggregate pattern with ScheduleDay as aggregate root and uses CQRS for optimized schedule views'}, {'name': 'Expense Management Service', 'endpoints': [{'name': '/trips/{trip_id}/expenses', 'method': 'POST', 'inputs': ['trip_id', 'user_id', 'title', 'amount', 'split_details', 'date'], 'outputs': ['expense_id', 'expense_details'], 'description': 'Creates a new expense for the trip'}, {'name': '/expenses/{expense_id}/title', 'method': 'PUT', 'inputs': ['expense_id', 'user_id', 'new_title'], 'outputs': ['update_result'], 'description': 'Updates expense title'}, {'name': '/expenses/{expense_id}/amount', 'method': 'PUT', 'inputs': ['expense_id', 'user_id', 'new_amount'], 'outputs': ['update_result'], 'description': 'Updates expense amount'}, {'name': '/expenses/{expense_id}/split', 'method': 'PUT', 'inputs': ['expense_id', 'user_id', 'split_details'], 'outputs': ['update_result'], 'description': 'Updates expense split among participants'}, {'name': '/expenses/{expense_id}/date', 'method': 'PUT', 'inputs': ['expense_id', 'user_id', 'new_date'], 'outputs': ['update_result'], 'description': 'Updates expense date'}, {'name': '/expenses/{expense_id}', 'method': 'DELETE', 'inputs': ['expense_id', 'user_id'], 'outputs': ['deletion_status'], 'description': 'Deletes an expense'}, {'name': '/trips/{trip_id}/expenses/summary/{user_id}', 'method': 'GET', 'inputs': ['trip_id', 'user_id'], 'outputs': ['total_spent'], 'description': 'Retrieves total amount spent by user using CQRS read model'}, {'name': '/trips/{trip_id}/debts/owed/{user_id}', 'method': 'GET', 'inputs': ['trip_id', 'user_id'], 'outputs': ['debts_owed_list'], 'description': 'Retrieves list of users the current user owes money to'}, {'name': '/trips/{trip_id}/debts/owing/{user_id}', 'method': 'GET', 'inputs': ['trip_id', 'user_id'], 'outputs': ['debts_owing_list'], 'description': 'Retrieves list of users who owe money to current user'}, {'name': '/trips/{trip_id}/debts/settle', 'method': 'POST', 'inputs': ['trip_id', 'payer_user_id', 'payee_user_id', 'amount'], 'outputs': ['settlement_id', 'settlement_result'], 'description': 'Settles debts between users and triggers settlement saga'}, {'name': '/trips/{trip_id}/debts/remind', 'method': 'POST', 'inputs': ['trip_id', 'creditor_user_id', 'debtor_user_id'], 'outputs': ['reminder_status'], 'description': 'Sends reminder to settle debts through domain event'}], 'user_stories': ['48', '49', '50', '51', '52', '53', '54', '55', '56', '57', '58'], 'parameters': ['expense_id', 'trip_id', 'title', 'amount', 'payer_id', 'split_details', 'date', 'settlement_id', 'debt_calculations', 'created_at', 'updated_at'], 'description': 'Handles expense tracking, splitting costs among participants, debt calculation using CQRS for complex aggregations, and settlement reminders. Implements Expense and DebtSettlement as aggregate roots'}, {'name': 'Chat Service', 'endpoints': [{'name': '/trips/{trip_id}/messages', 'method': 'POST', 'inputs': ['trip_id', 'user_id', 'message_content'], 'outputs': ['message_id', 'timestamp'], 'description': 'Sends a message to trip group chat and publishes MessageSent event'}, {'name': '/trips/{trip_id}/messages', 'method': 'GET', 'inputs': ['trip_id', 'user_id', 'limit', 'offset'], 'outputs': ['messages_list'], 'description': 'Retrieves chat history using CQRS read-optimized view'}, {'name': '/messages/{message_id}', 'method': 'DELETE', 'inputs': ['message_id', 'user_id'], 'outputs': ['deletion_status'], 'description': 'Deletes a message sent by the user'}, {'name': '/messages/{message_id}', 'method': 'PUT', 'inputs': ['message_id', 'user_id', 'new_content'], 'outputs': ['update_result'], 'description': 'Modifies a message sent by the user'}, {'name': '/messages/{message_id}/receipts', 'method': 'GET', 'inputs': ['message_id'], 'outputs': ['read_receipts'], 'description': 'Retrieves read receipts for a message'}, {'name': '/messages/{message_id}/read', 'method': 'POST', 'inputs': ['message_id', 'user_id'], 'outputs': ['receipt_status'], 'description': 'Marks message as read by user'}], 'user_stories': ['59', '60', '61', '62', '63'], 'parameters': ['message_id', 'trip_id', 'sender_id', 'content', 'timestamp', 'read_receipts', 'is_edited', 'is_deleted'], 'description': 'Provides real-time group chat functionality using domain events for messaging, including message CRUD operations and read receipts. Uses CQRS for chat history and Conversation as aggregate root'}, {'name': 'Media Service', 'endpoints': [{'name': '/trips/{trip_id}/photos', 'method': 'GET', 'inputs': ['trip_id', 'user_id'], 'outputs': ['photos_list'], 'description': 'Retrieves all photos for a trip'}, {'name': '/trips/{trip_id}/photos', 'method': 'POST', 'inputs': ['trip_id', 'user_id', 'photo_file', 'metadata'], 'outputs': ['photo_id', 'upload_status'], 'description': 'Uploads a photo to trip gallery and publishes PhotoUploaded event'}, {'name': '/photos/{photo_id}', 'method': 'DELETE', 'inputs': ['photo_id', 'user_id'], 'outputs': ['deletion_status'], 'description': 'Deletes a photo from trip gallery'}, {'name': '/photos/{photo_id}', 'method': 'GET', 'inputs': ['photo_id'], 'outputs': ['photo_file', 'metadata'], 'description': 'Retrieves specific photo'}], 'user_stories': ['64', '65', '66'], 'parameters': ['photo_id', 'trip_id', 'uploader_id', 'file_url', 'metadata', 'upload_timestamp'], 'description': 'Manages trip photos including upload, storage, retrieval, and deletion. Uses TripGallery as aggregate root and publishes domain events for photo operations'}, {'name': 'Weather Service', 'endpoints': [{'name': '/weather/forecast', 'method': 'GET', 'inputs': ['location', 'date'], 'outputs': ['weather_forecast'], 'description': 'Retrieves weather prediction for specific location and date'}, {'name': '/trips/{trip_id}/weather', 'method': 'GET', 'inputs': ['trip_id'], 'outputs': ['daily_forecasts'], 'description': 'Retrieves weather forecasts for all trip days and destinations using API composition'}], 'user_stories': ['23'], 'parameters': ['location', 'date', 'forecast_data', 'cache_timestamp', 'api_key'], 'description': 'Integrates with external weather APIs to provide weather predictions for trip destinations and dates. Maintains cache for API efficiency'}], 'patterns': [{'group_name': 'Service Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['User Management Service', 'Trip Management Service', 'Schedule Service', 'Expense Management Service', 'Chat Service', 'Media Service', 'Weather Service'], 'explaination': 'I chose database per service pattern because the context explicitly recommends it for ensuring loose coupling and service autonomy across all seven microservices. Each service manages its own domain data independently, allowing for independent scaling, technology choices, and deployment.'}, {'group_name': 'Trip Lifecycle Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Trip Management Service', 'Schedule Service', 'Expense Management Service', 'Chat Service', 'Media Service'], 'explaination': 'I chose the aggregate pattern to define clear consistency boundaries. Trip Management Service has Trip as aggregate root, Schedule Service uses ScheduleDay as aggregate root, Expense Management has Expense and DebtSettlement as aggregate roots, Chat Service uses Conversation as aggregate root, and Media Service uses TripGallery as aggregate root. This ensures transactional consistency within each aggregate while maintaining service independence.'}, {'group_name': 'Account Deletion Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['User Management Service', 'Trip Management Service', 'Schedule Service', 'Expense Management Service', 'Chat Service', 'Media Service'], 'explaination': 'I chose the saga pattern for user account deletion (User Story 3) because it requires coordinating cascading deletions across multiple services. When a user deletes their account, the saga orchestrates deletion of their data from Trip Management, Schedule, Expense, Chat, and Media services while maintaining data consistency across the distributed system.'}, {'group_name': 'Trip Creation and Invitation Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Trip Management Service', 'User Management Service'], 'explaination': 'I chose the saga pattern for trip creation and user invitation (User Stories 10, 12) because it involves coordinating between Trip Management and User Management services to validate users, create invitations, and ensure consistency. The saga handles the multi-step process of creating a trip and inviting participants with proper rollback capabilities.'}, {'group_name': 'Trip Deletion Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Trip Management Service', 'Schedule Service', 'Expense Management Service', 'Chat Service', 'Media Service'], 'explaination': 'I chose the saga pattern for trip deletion (User Story 11) because it requires coordinated cleanup across Schedule, Expense, Chat, and Media services. The saga ensures all trip-related data is properly deleted from all services while maintaining consistency, with compensation logic if any step fails.'}, {'group_name': 'Expense Settlement Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Expense Management Service', 'Chat Service'], 'explaination': 'I chose the saga pattern for debt settlement (User Stories 57, 58) because settling debts involves updating expense records and potentially notifying users through the chat system. The saga coordinates these operations and ensures consistency in debt calculations and notifications.'}, {'group_name': 'Inter-Service Event Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['Trip Management Service', 'Schedule Service', 'Expense Management Service', 'Chat Service', 'Media Service', 'User Management Service'], 'explaination': 'I chose the domain event pattern for loose coupling between services as recommended in the context. Events like TripCreated, TripDeleted, TripUpdated, UserInvited, InvitationAccepted, ParticipantRemoved, ExpenseCreated, ExpenseSettled, MessageSent, and PhotoUploaded enable asynchronous communication and allow services to react to state changes without tight coupling.'}, {'group_name': 'Trip Dashboard Aggregation', 'implementation_pattern': 'api composition', 'involved_microservices': ['Trip Management Service', 'Schedule Service', 'Expense Management Service'], 'explaination': 'I chose API composition for the trip dashboard (User Story 7) because it requires combining data from multiple services in real-time. The pattern aggregates trip information from Trip Management, schedule previews from Schedule Service, and expense summaries from Expense Management Service to create a comprehensive trip overview.'}, {'group_name': 'Weather-Enhanced Activity View', 'implementation_pattern': 'api composition', 'involved_microservices': ['Schedule Service', 'Weather Service'], 'explaination': 'I chose API composition for displaying activities with weather information (User Stories 26, 23) because it requires combining schedule data from Schedule Service with weather forecasts from Weather Service. This real-time composition provides users with activity details enriched with relevant weather predictions.'}, {'group_name': 'Trip Search Enhancement', 'implementation_pattern': 'api composition', 'involved_microservices': ['Trip Management Service', 'Schedule Service'], 'explaination': 'I chose API composition for trip search (User Story 8) because searching trips by title or destination may benefit from enriching basic trip information with schedule previews to provide better search results and user experience.'}, {'group_name': 'Schedule Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Schedule Service'], 'explaination': 'I chose CQRS for Schedule Service (User Stories 21, 22) because the context recommends maintaining a read-optimized view combining activities, travels, and accommodations. The write model handles schedule modifications while the read model provides optimized queries for viewing complete schedules and filtering by specific days.'}, {'group_name': 'User Trip List Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Trip Management Service'], 'explaination': 'I chose CQRS for trip list views (User Story 7) as recommended in the context to maintain a pre-computed view of all user trips with summary information. This optimizes the frequent read operation of viewing trip lists while keeping write operations for trip modifications separate.'}, {'group_name': 'Expense Dashboard Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Expense Management Service'], 'explaination': 'I chose CQRS for the expense dashboard (User Stories 54, 55, 56) because the context recommends a materialized view of debts, payments, and balances. Complex debt calculations and aggregations benefit from pre-computed read models while maintaining a separate write model for expense operations.'}, {'group_name': 'Chat History Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Chat Service'], 'explaination': 'I chose CQRS for chat functionality (User Story 60) because the context recommends a read-optimized message history with user information. The write model handles real-time message creation while the read model provides optimized queries for chat history, supporting efficient pagination and retrieval.'}], 'datastore': [{'datastore_name': 'User Database', 'associated_microservices': ['User Management Service'], 'description': 'Stores user account information including credentials, profiles, and online status. Supports user stories 1-6, 68 for registration, authentication, profile management, and online status tracking. Uses relational database for ACID compliance on user credentials.'}, {'datastore_name': 'Trip Database', 'associated_microservices': ['Trip Management Service'], 'description': 'Stores trip information, participants, and invitations. Supports user stories 7-20, 67 for trip management, participant operations, and city suggestions. Includes CQRS read model for optimized trip list queries. Uses relational database for consistency in trip and invitation management.'}, {'datastore_name': 'Schedule Database', 'associated_microservices': ['Schedule Service'], 'description': 'Stores activities, travels, accommodations, and their attachments for trip schedules. Supports user stories 21-22, 24-47 for comprehensive schedule management. Includes CQRS read model for optimized schedule views and day filtering. Uses document or relational database to handle complex schedule item relationships.'}, {'datastore_name': 'Expense Database', 'associated_microservices': ['Expense Management Service'], 'description': 'Stores expense records, split details, and debt calculations. Supports user stories 48-58 for expense tracking and settlement. Includes CQRS read model for pre-computed debt summaries and balances. Uses relational database for accurate financial calculations and consistency.'}, {'datastore_name': 'Chat Database', 'associated_microservices': ['Chat Service'], 'description': 'Stores chat messages, read receipts, and conversation metadata. Supports user stories 59-63 for real-time messaging functionality. Includes CQRS read model for optimized message history queries. Uses document database or time-series database for efficient message storage and retrieval.'}, {'datastore_name': 'Media Database', 'associated_microservices': ['Media Service'], 'description': 'Stores photo metadata and references to actual photo files in object storage. Supports user stories 64-66 for photo management. Uses combination of database for metadata and object storage for actual photo files to handle large media efficiently.'}, {'datastore_name': 'Weather Cache Database', 'associated_microservices': ['Weather Service'], 'description': 'Caches weather forecast data from external APIs and stores API configuration. Supports user story 23 for weather predictions. Uses cache database (Redis/Memcached) or document database with TTL for efficient API response caching and reducing external API calls.'}]}</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.7058823529411765</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="G7" t="n">
         <v>68</v>
       </c>
       <c r="H7" t="n">
-        <v>16</v>
+        <v>9.714285714285714</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -971,7 +971,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Authentication Service", "endpoints": [{"name": "/connect_wallet", "method": "POST", "inputs": ["user_id", "wallet_address"], "outputs": ["connection_result"], "description": "Connects user wallet to the platform securely"}], "user_stories": ["1"], "parameters": ["user_id", "wallet_address"], "description": "Handles user wallet connections and secure access to the platform."}, {"name": "Presence Service", "endpoints": [{"name": "/online_players", "method": "GET", "inputs": [], "outputs": ["online_players_count"], "description": "Reports the number of players currently online"}], "user_stories": ["2"], "parameters": [], "description": "Tracks and reports the number of players currently online."}, {"name": "Coin Toss Service", "endpoints": [{"name": "/place_bet", "method": "POST", "inputs": ["user_id", "bet_amount"], "outputs": ["bet_placed"], "description": "Places a bet for the coin toss game"}, {"name": "/choose_side", "method": "POST", "inputs": ["user_id", "side_choice"], "outputs": ["choice_selected"], "description": "Selects heads or tails for the coin toss game"}, {"name": "/current_bets", "method": "GET", "inputs": [], "outputs": ["bets"], "description": "Displays current bets placed by other players"}, {"name": "/game_signatures", "method": "GET", "inputs": [], "outputs": ["signatures"], "description": "Shows the signatures of the game round"}], "user_stories": ["3", "4", "5", "6"], "parameters": ["user_id", "bet_amount", "side_choice"], "description": "Manages the coin toss game including bet placement, choice selection, displaying current bets, and verifying game fairness."}, {"name": "Lottery Service", "endpoints": [{"name": "/buy_tickets", "method": "POST", "inputs": ["user_id", "ticket_count"], "outputs": ["tickets_purchased"], "description": "Buys tickets for the decentralized lottery game"}, {"name": "/confirm_transaction", "method": "POST", "inputs": ["user_id", "transaction_id"], "outputs": ["transaction_confirmed"], "description": "Confirms the transaction in the wallet popup"}, {"name": "/historical_winnings", "method": "GET", "inputs": [], "outputs": ["winnings"], "description": "Views historical winnings of the lottery"}, {"name": "/next_draw_date", "method": "GET", "inputs": [], "outputs": ["draw_date"], "description": "Shows the next draw date"}], "user_stories": ["7", "8", "9", "10", "11"], "parameters": ["user_id", "ticket_count", "transaction_id"], "description": "Manages decentralized lottery games including ticket purchases, transaction confirmations, historical winnings, purchase confirmations, and draw scheduling."}, {"name": "Scratchcard Service", "endpoints": [{"name": "/buy_scratchcard", "method": "POST", "inputs": ["user_id"], "outputs": ["scratchcard_purchased"], "description": "Buys a scratchcard for the game"}, {"name": "/scratch_card", "method": "POST", "inputs": ["user_id", "scratch_position"], "outputs": ["prize"], "description": "Scratches off the card to reveal the prize"}, {"name": "/instant_feedback", "method": "POST", "inputs": ["user_id", "result"], "outputs": ["feedback"], "description": "Provides instant feedback on win or loss"}, {"name": "/bulk_purchase", "method": "POST", "inputs": ["user_id", "quantity"], "outputs": ["bulk_purchase_result"], "description": "Allows bulk purchase of scratchcards"}], "user_stories": ["12", "13", "14", "15"], "parameters": ["user_id", "scratch_position", "result", "quantity"], "description": "Handles scratchcard game operations including purchase, interactive scratching, instant win/loss feedback, and bulk purchases."}, {"name": "Statistics Service", "endpoints": [{"name": "/help_section", "method": "GET", "inputs": [], "outputs": ["help_content"], "description": "Accesses the help section for game instructions"}, {"name": "/current_jackpots", "method": "GET", "inputs": [], "outputs": ["jackpots"], "description": "Shows current jackpots available"}, {"name": "/recent_wins", "method": "GET", "inputs": [], "outputs": ["wins"], "description": "Displays the latest wins on the platform"}, {"name": "/platform_stats", "method": "GET", "inputs": [], "outputs": ["stats"], "description": "Shows platform statistics and activity"}], "user_stories": ["16", "17", "18", "19"], "parameters": [], "description": "Provides platform and game statistics such as help content, current jackpots, recent wins, and overall platform activity."}], "patterns": [{"group_name": "Coin Toss and Lottery Services", "implementation_pattern": "Saga", "involved_microservices": ["Coin Toss Service", "Lottery Service"], "explaination": "I chose this pattern to manage distributed transactions related to bet placement, choice selection, ticket purchases, and draw scheduling, ensuring data consistency without distributed transactions."}, {"group_name": "Scratchcard Service", "implementation_pattern": "Event Sourcing", "involved_microservices": ["Scratchcard Service"], "explaination": "I chose this pattern for detailed game state history and replayability required for audit or fairness verification."}, {"group_name": "Statistics Service", "implementation_pattern": "API Composition", "involved_microservices": ["Statistics Service"], "explaination": "I chose this pattern to aggregate statistics data from multiple game services."}], "datastore": [{"datastore_name": "User Data", "associated_microservices": ["Authentication Service", "Coin Toss Service", "Lottery Service", "Scratchcard Service", "Statistics Service"], "description": "Stores user-related data such as user IDs, wallet addresses, and game statistics."}]}</t>
+          <t>{'microservices': [{'name': 'user-service', 'endpoints': [{'name': '/wallet/connect', 'method': 'POST', 'inputs': ['wallet_address', 'signature'], 'outputs': ['authentication_token', 'connection_status'], 'description': 'Connects user wallet and returns authentication token'}, {'name': '/wallet/disconnect', 'method': 'POST', 'inputs': ['authentication_token'], 'outputs': ['disconnection_status'], 'description': 'Disconnects user wallet and invalidates authentication token'}, {'name': '/players/online', 'method': 'GET', 'inputs': [], 'outputs': ['online_player_count'], 'description': 'Returns the current number of online players'}, {'name': '/wallet/balance', 'method': 'GET', 'inputs': ['wallet_address', 'authentication_token'], 'outputs': ['balance'], 'description': 'Returns the current wallet balance'}], 'user_stories': ['1', '2'], 'parameters': ['wallet_address', 'authentication_token', 'online_status', 'connection_timestamp'], 'description': 'Manages user wallet connections, authentication, and tracks online player count'}, {'name': 'coin-toss-service', 'endpoints': [{'name': '/game/create', 'method': 'POST', 'inputs': ['bet_amount', 'choice', 'wallet_address', 'authentication_token'], 'outputs': ['game_id', 'creation_status'], 'description': 'Creates a new coin toss game with specified bet amount and choice'}, {'name': '/game/join', 'method': 'POST', 'inputs': ['game_id', 'wallet_address', 'authentication_token'], 'outputs': ['join_status'], 'description': 'Allows a user to join an existing coin toss game'}, {'name': '/bets/current', 'method': 'GET', 'inputs': [], 'outputs': ['active_bets_list'], 'description': 'Returns list of current active bets from all players'}, {'name': '/game/result', 'method': 'GET', 'inputs': ['game_id'], 'outputs': ['result', 'winner', 'signatures'], 'description': 'Returns game result with cryptographic signatures for verification'}, {'name': '/game/signatures', 'method': 'GET', 'inputs': ['game_id'], 'outputs': ['player1_signature', 'player2_signature', 'server_signature'], 'description': 'Returns all signatures for a game round for fairness verification'}], 'user_stories': ['3', '4', '5', '6'], 'parameters': ['game_id', 'bet_amount', 'choice', 'game_state', 'player1_address', 'player2_address', 'signatures', 'result', 'timestamp'], 'description': 'Handles P2P coin toss game logic, bet placement, game state management, and signature verification for fair play'}, {'name': 'lottery-service', 'endpoints': [{'name': '/tickets/purchase', 'method': 'POST', 'inputs': ['wallet_address', 'ticket_count', 'authentication_token'], 'outputs': ['transaction_id', 'ticket_numbers'], 'description': 'Initiates lottery ticket purchase and returns transaction details'}, {'name': '/tickets/confirm', 'method': 'POST', 'inputs': ['transaction_id', 'blockchain_transaction_hash'], 'outputs': ['confirmation_status', 'ticket_ids'], 'description': 'Confirms ticket purchase after blockchain transaction completion'}, {'name': '/draw/next', 'method': 'GET', 'inputs': [], 'outputs': ['next_draw_date', 'current_jackpot'], 'description': 'Returns the date and time of the next lottery draw'}, {'name': '/winnings/history', 'method': 'GET', 'inputs': ['limit', 'offset'], 'outputs': ['historical_winnings_list'], 'description': 'Returns historical lottery winnings and winners'}, {'name': '/tickets/user', 'method': 'GET', 'inputs': ['wallet_address', 'authentication_token'], 'outputs': ['user_tickets_list'], 'description': 'Returns all tickets owned by a specific user'}], 'user_stories': ['7', '8', '9', '10', '11'], 'parameters': ['ticket_id', 'wallet_address', 'ticket_numbers', 'purchase_timestamp', 'draw_date', 'transaction_hash', 'confirmation_status', 'smart_contract_address'], 'description': 'Manages lottery ticket purchases, blockchain smart contract interactions, draw scheduling, and ticket confirmations'}, {'name': 'scratchcard-service', 'endpoints': [{'name': '/scratchcard/purchase', 'method': 'POST', 'inputs': ['wallet_address', 'card_count', 'authentication_token'], 'outputs': ['transaction_id', 'card_ids'], 'description': 'Purchases scratchcards and initiates blockchain transaction'}, {'name': '/scratchcard/reveal', 'method': 'POST', 'inputs': ['card_id', 'wallet_address', 'authentication_token'], 'outputs': ['win_status', 'prize_amount', 'card_details'], 'description': 'Reveals scratchcard result and determines win/loss'}, {'name': '/scratchcard/claim', 'method': 'POST', 'inputs': ['card_id', 'wallet_address', 'authentication_token'], 'outputs': ['claim_status', 'transaction_hash'], 'description': 'Claims prize for winning scratchcard via smart contract'}, {'name': '/scratchcard/user', 'method': 'GET', 'inputs': ['wallet_address', 'authentication_token'], 'outputs': ['user_scratchcards_list'], 'description': 'Returns all scratchcards owned by a user'}], 'user_stories': ['12', '13', '14', '15'], 'parameters': ['card_id', 'wallet_address', 'purchase_timestamp', 'reveal_status', 'win_status', 'prize_amount', 'transaction_hash', 'smart_contract_address'], 'description': 'Handles scratchcard purchases, game mechanics, instant win validation, and prize distribution via blockchain smart contracts'}, {'name': 'stats-service', 'endpoints': [{'name': '/help', 'method': 'GET', 'inputs': ['game_type'], 'outputs': ['help_documentation'], 'description': 'Returns help documentation for each game type'}, {'name': '/jackpots/current', 'method': 'GET', 'inputs': [], 'outputs': ['lottery_jackpot', 'scratchcard_jackpots'], 'description': 'Returns current jackpot amounts for all games'}, {'name': '/wins/recent', 'method': 'GET', 'inputs': ['limit', 'game_type'], 'outputs': ['recent_wins_list'], 'description': 'Returns list of recent wins across all games'}, {'name': '/stats/platform', 'method': 'GET', 'inputs': [], 'outputs': ['total_bets', 'total_winnings', 'active_games', 'total_players'], 'description': 'Returns aggregated platform statistics'}], 'user_stories': ['16', '17', '18', '19'], 'parameters': ['total_bets', 'total_winnings', 'active_games', 'recent_wins_cache', 'jackpot_amounts', 'platform_activity_metrics'], 'description': 'Aggregates and provides platform statistics, recent wins, current jackpots, help documentation, and general platform analytics'}], 'patterns': [{'group_name': 'Service Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['user-service', 'coin-toss-service', 'lottery-service', 'scratchcard-service', 'stats-service'], 'explaination': 'I chose Database per Service pattern because each microservice manages distinct business capabilities (user authentication, gaming logic, lottery management, scratchcards, statistics) and needs to evolve independently. This pattern maintains loose coupling and allows each service to choose optimal data storage strategies for their specific needs, as recommended in the context for all services.'}, {'group_name': 'Lottery Purchase Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['lottery-service', 'user-service', 'stats-service'], 'explaination': 'I chose Saga pattern for lottery ticket purchases because the operation spans multiple services: lottery-service creates tickets, blockchain smart contract interaction occurs, user-service updates wallet balance, and stats-service updates statistics. This ensures distributed transaction consistency across services as specified in user stories 7, 8, and 10, with compensation logic if any step fails.'}, {'group_name': 'Scratchcard Purchase and Prize Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['scratchcard-service', 'user-service', 'stats-service'], 'explaination': 'I chose Saga pattern for scratchcard operations because purchasing and claiming prizes requires coordination between scratchcard-service (card creation/validation), blockchain interaction for prize distribution, user-service (wallet updates), and stats-service (statistics updates). This handles the distributed transaction as mentioned in user stories 12, 14, and 15.'}, {'group_name': 'Fair Gaming Transparency', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['coin-toss-service', 'lottery-service'], 'explaination': 'I chose Event Sourcing for coin-toss-service and lottery-service because these services require complete audit trails for fairness verification. For coin-toss, user story 6 explicitly requires signature verification, and storing game rounds as event sequences ensures transparency. For lottery, user story 9 requires historical winnings display, which event sourcing naturally provides through the event stream.'}, {'group_name': 'Cross-Service Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['coin-toss-service', 'lottery-service', 'scratchcard-service', 'user-service'], 'explaination': 'I chose Domain Event pattern because services need to publish significant state changes (BetPlaced, GameCompleted, TicketPurchased, DrawCompleted, ScratchcardPurchased, WalletConnected) that other services consume. This enables loose coupling while allowing stats-service to aggregate data and sagas to coordinate multi-service transactions as recommended in the context.'}, {'group_name': 'Statistics Aggregation', 'implementation_pattern': 'cqrs', 'involved_microservices': ['stats-service'], 'explaination': 'I chose CQRS pattern for stats-service because it needs to maintain read-optimized views by subscribing to domain events from all other services. User stories 16-19 require displaying current jackpots, last wins, and platform statistics, which are aggregated from multiple event streams. CQRS separates the complex write operations (event processing) from optimized read queries for displaying statistics.'}, {'group_name': 'Simple Queries', 'implementation_pattern': 'api composition', 'involved_microservices': ['user-service', 'coin-toss-service'], 'explaination': 'I chose API Composition for simple aggregations where a service can directly provide data without complex cross-service queries. User story 2 (online player count) is handled by user-service querying its own data, and user story 5 (current bets display) is handled by coin-toss-service aggregating its own active games.'}, {'group_name': 'Game State Aggregation', 'implementation_pattern': 'aggregate', 'involved_microservices': ['coin-toss-service', 'lottery-service', 'scratchcard-service'], 'explaination': 'I chose Aggregate pattern to group related entities and maintain consistency boundaries within gaming services. Coin-toss games aggregate bet information and player choices, lottery aggregates tickets and draws, and scratchcards aggregate card states and prizes, ensuring transactional consistency within each game domain.'}], 'datastore': [{'datastore_name': 'user_database', 'associated_microservices': ['user-service'], 'description': 'Stores wallet addresses, authentication tokens, connection timestamps, and online player status. Influenced by user stories 1 and 2 which require secure wallet connection management and tracking online players. Uses relational database for ACID guarantees on authentication.'}, {'datastore_name': 'coin_toss_event_store', 'associated_microservices': ['coin-toss-service'], 'description': 'Event sourcing store that maintains complete history of coin toss game events (game created, bet placed, game completed) with cryptographic signatures. Influenced by user stories 3-6, particularly user story 6 requiring signature verification for fairness. Uses append-only event log for immutable audit trail.'}, {'datastore_name': 'lottery_event_store', 'associated_microservices': ['lottery-service'], 'description': 'Event sourcing store for lottery events (ticket purchases, draws, winner selections) and blockchain transaction records. Influenced by user stories 7-11, particularly user story 9 requiring historical winnings display and user story 10 requiring purchase confirmations. Uses append-only event log with blockchain transaction hashes.'}, {'datastore_name': 'scratchcard_database', 'associated_microservices': ['scratchcard-service'], 'description': 'Stores scratchcard purchases, reveal states, win validations, and prize claim records with blockchain transaction references. Influenced by user stories 12-15 requiring instant purchase, reveal mechanics, win feedback, and multiple card purchases. Uses document database for flexible card state management.'}, {'datastore_name': 'stats_read_database', 'associated_microservices': ['stats-service'], 'description': 'CQRS read-optimized database storing materialized views of aggregated statistics, recent wins, current jackpots, and platform metrics. Influenced by user stories 16-19 requiring help documentation, jackpot display, recent wins, and platform statistics. Uses denormalized schema optimized for fast read queries, populated by consuming domain events from all other services.'}]}</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -984,10 +984,10 @@
         <v>40</v>
       </c>
       <c r="H8" t="n">
-        <v>3.166666666666667</v>
+        <v>3.8</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "User Management Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email", "password"], "outputs": ["registration result"], "description": "takes user email and password as inputs and outputs the registration result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}, {"name": "/profile", "method": "GET", "inputs": [], "outputs": ["user profile data"], "description": "returns the user's profile data"}, {"name": "/delete", "method": "DELETE", "inputs": [], "outputs": ["deletion result"], "description": "deletes the user account"}, {"name": "/update/email", "method": "PUT", "inputs": ["email"], "outputs": ["update result"], "description": "updates the user's email address"}, {"name": "/update/password", "method": "PUT", "inputs": ["password"], "outputs": ["update result"], "description": "updates the user's password"}, {"name": "/update/gender", "method": "PUT", "inputs": ["gender"], "outputs": ["update result"], "description": "updates the user's gender"}], "user_stories": ["1", "2", "3", "4", "5", "6", "7"], "parameters": ["email", "password", "gender"], "description": "Handles user registration, authentication, profile management, and account deletion."}, {"name": "Ingredient Storage Service", "endpoints": [{"name": "/add", "method": "POST", "inputs": ["ingredient"], "outputs": ["add result"], "description": "adds an ingredient to the user's storage"}, {"name": "/delete", "method": "DELETE", "inputs": ["ingredient"], "outputs": ["delete result"], "description": "deletes an ingredient from the user's storage"}, {"name": "/set-expiration", "method": "PUT", "inputs": ["ingredient", "expiration_date"], "outputs": ["set expiration result"], "description": "sets the expiration date for an ingredient in the user's storage"}, {"name": "/set-quantity", "method": "PUT", "inputs": ["ingredient", "quantity"], "outputs": ["set quantity result"], "description": "sets the quantity for an ingredient in the user's storage"}, {"name": "/notify-expiration", "method": "POST", "inputs": [], "outputs": ["notification result"], "description": "sends notifications for expiring ingredients"}], "user_stories": ["8", "9", "17", "18", "19"], "parameters": ["ingredient", "expiration_date", "quantity"], "description": "Manages the user's ingredient storage including adding, deleting, setting expiration dates, quantities, and notifications for expiring ingredients."}, {"name": "Recipe Management Service", "endpoints": [{"name": "/search", "method": "GET", "inputs": ["query"], "outputs": ["search result"], "description": "searches for recipes based on a query"}, {"name": "/save", "method": "POST", "inputs": ["recipe"], "outputs": ["save result"], "description": "saves a recipe for the user"}, {"name": "/delete", "method": "DELETE", "inputs": ["recipe"], "outputs": ["delete result"], "description": "deletes a saved recipe"}, {"name": "/search-by-ingredient", "method": "GET", "inputs": ["ingredient"], "outputs": ["search result"], "description": "searches for recipes containing a specific ingredient"}], "user_stories": ["10", "11", "13", "14"], "parameters": ["query", "recipe", "ingredient"], "description": "Allows users to search, save, and delete recipes, including searching recipes by specific ingredients."}, {"name": "Shopping List Service", "endpoints": [{"name": "/create", "method": "POST", "inputs": ["list_name"], "outputs": ["create result"], "description": "creates a new shopping list"}, {"name": "/delete", "method": "DELETE", "inputs": ["list_id"], "outputs": ["delete result"], "description": "deletes a shopping list"}, {"name": "/read", "method": "GET", "inputs": [], "outputs": ["shopping lists"], "description": "reads all shopping lists"}, {"name": "/add-ingredient", "method": "POST", "inputs": ["list_id", "ingredient"], "outputs": ["add result"], "description": "adds an ingredient to a shopping list"}, {"name": "/delete-ingredient", "method": "DELETE", "inputs": ["list_id", "ingredient"], "outputs": ["delete result"], "description": "deletes an ingredient from a shopping list"}, {"name": "/move-to-storage", "method": "PUT", "inputs": ["list_id", "ingredient"], "outputs": ["move result"], "description": "moves an ingredient from the shopping list to storage"}], "user_stories": ["12", "15", "16", "20", "21", "22"], "parameters": ["list_name", "list_id", "ingredient"], "description": "Manages shopping lists including creation, deletion, reading, adding ingredients, deleting ingredients, and moving ingredients from shopping list to storage."}], "patterns": [{"group_name": "Data Management Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["User Management Service", "Ingredient Storage Service", "Recipe Management Service", "Shopping List Service"], "explaination": "Each service owns its private database to ensure loose coupling and independent scalability."}, {"group_name": "Data Management Patterns", "implementation_pattern": "Saga Pattern", "involved_microservices": ["Shopping List Service"], "explaination": "To maintain data consistency across services for operations that span multiple services (e.g., moving ingredients from shopping list to storage), use sagas to coordinate a sequence of local transactions."}, {"group_name": "Data Management Patterns", "implementation_pattern": "API Composition", "involved_microservices": ["Recipe Management Service"], "explaination": "For queries that require data from multiple services (e.g., searching recipes by ingredients stored), implement API composition by invoking relevant services and performing in-memory joins."}, {"group_name": "Data Management Patterns", "implementation_pattern": "Domain Event", "involved_microservices": ["Ingredient Storage Service"], "explaination": "Publish events when data changes (e.g., ingredient added or deleted) to notify other services asynchronously, supporting eventual consistency and reactive updates."}], "datastore": [{"datastore_name": "User Management Database", "associated_microservices": ["User Management Service"], "description": "Database for storing user registration, authentication, profile, and account data."}, {"datastore_name": "Ingredient Storage Database", "associated_microservices": ["Ingredient Storage Service"], "description": "Database for managing user's ingredient storage data including expiration dates, quantities, and notifications."}, {"datastore_name": "Recipe Management Database", "associated_microservices": ["Recipe Management Service"], "description": "Database for storing and managing recipes data for users."}, {"datastore_name": "Shopping List Database", "associated_microservices": ["Shopping List Service"], "description": "Database for handling user's shopping lists including ingredients, quantities, and movements."}]}</t>
+          <t>{'microservices': [{'name': 'User Management Service', 'endpoints': [{'name': '/register', 'method': 'POST', 'inputs': ['email', 'password', 'gender'], 'outputs': ['registration_result', 'user_id'], 'description': 'Registers a new user with email, password and optional gender'}, {'name': '/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['login_result', 'auth_token', 'user_id'], 'description': 'Authenticates user with email and password'}, {'name': '/profile/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'auth_token'], 'outputs': ['user_profile_data'], 'description': 'Retrieves user profile information'}, {'name': '/profile/{user_id}', 'method': 'DELETE', 'inputs': ['user_id', 'auth_token'], 'outputs': ['deletion_result'], 'description': 'Deletes user account and publishes account deletion event'}, {'name': '/profile/{user_id}/email', 'method': 'PUT', 'inputs': ['user_id', 'new_email', 'auth_token'], 'outputs': ['update_result'], 'description': 'Updates user email address'}, {'name': '/profile/{user_id}/password', 'method': 'PUT', 'inputs': ['user_id', 'old_password', 'new_password', 'auth_token'], 'outputs': ['update_result'], 'description': 'Updates user password'}, {'name': '/profile/{user_id}/gender', 'method': 'PUT', 'inputs': ['user_id', 'gender', 'auth_token'], 'outputs': ['update_result'], 'description': 'Updates user gender information'}], 'user_stories': ['1', '2', '3', '4', '5', '6', '7'], 'parameters': ['user_id', 'email', 'password', 'gender', 'auth_token', 'registration_date'], 'description': 'Handles user registration, authentication, profile management, and account operations including email/password modifications and account deletion'}, {'name': 'Recipe Service', 'endpoints': [{'name': '/recipes/search', 'method': 'GET', 'inputs': ['search_query', 'user_id', 'auth_token'], 'outputs': ['recipe_list'], 'description': 'Searches for recipes based on query parameters'}, {'name': '/recipes/search/by-ingredient', 'method': 'GET', 'inputs': ['ingredient_name', 'user_id', 'auth_token'], 'outputs': ['recipe_list'], 'description': 'Searches for recipes containing specific ingredients'}, {'name': '/recipes/{recipe_id}', 'method': 'GET', 'inputs': ['recipe_id', 'user_id', 'auth_token'], 'outputs': ['recipe_details'], 'description': 'Retrieves detailed information about a specific recipe'}, {'name': '/users/{user_id}/saved-recipes', 'method': 'POST', 'inputs': ['user_id', 'recipe_id', 'auth_token'], 'outputs': ['save_result'], 'description': "Saves a recipe to user's collection"}, {'name': '/users/{user_id}/saved-recipes', 'method': 'GET', 'inputs': ['user_id', 'auth_token'], 'outputs': ['saved_recipes_list'], 'description': 'Retrieves all saved recipes for a user'}, {'name': '/users/{user_id}/saved-recipes/{recipe_id}', 'method': 'DELETE', 'inputs': ['user_id', 'recipe_id', 'auth_token'], 'outputs': ['deletion_result'], 'description': "Removes a saved recipe from user's collection"}], 'user_stories': ['10', '11', '13', '14'], 'parameters': ['recipe_id', 'user_id', 'recipe_name', 'ingredients_list', 'nutritional_values', 'saved_date'], 'description': 'Manages recipe discovery, search functionality (including search by ingredients), and saved recipes for users. Uses CQRS pattern to separate write operations from optimized read/search operations'}, {'name': 'Ingredient Storage Service', 'endpoints': [{'name': '/users/{user_id}/storage/ingredients', 'method': 'POST', 'inputs': ['user_id', 'ingredient_name', 'quantity', 'expiration_date', 'auth_token'], 'outputs': ['ingredient_id', 'creation_result'], 'description': "Adds a new ingredient to user's storage"}, {'name': '/users/{user_id}/storage/ingredients', 'method': 'GET', 'inputs': ['user_id', 'auth_token'], 'outputs': ['ingredients_list'], 'description': "Retrieves all ingredients in user's storage"}, {'name': '/users/{user_id}/storage/ingredients/{ingredient_id}', 'method': 'DELETE', 'inputs': ['user_id', 'ingredient_id', 'auth_token'], 'outputs': ['deletion_result'], 'description': 'Removes an ingredient from storage'}, {'name': '/users/{user_id}/storage/ingredients/{ingredient_id}/quantity', 'method': 'PUT', 'inputs': ['user_id', 'ingredient_id', 'quantity', 'auth_token'], 'outputs': ['update_result'], 'description': 'Updates the quantity of an ingredient in storage'}, {'name': '/users/{user_id}/storage/ingredients/{ingredient_id}/expiration', 'method': 'PUT', 'inputs': ['user_id', 'ingredient_id', 'expiration_date', 'auth_token'], 'outputs': ['update_result'], 'description': 'Sets or updates the expiration date for an ingredient'}, {'name': '/users/{user_id}/storage/ingredients/expiring', 'method': 'GET', 'inputs': ['user_id', 'days_threshold', 'auth_token'], 'outputs': ['expiring_ingredients_list'], 'description': 'Retrieves ingredients expiring within specified days'}], 'user_stories': ['8', '9', '17', '19'], 'parameters': ['ingredient_id', 'user_id', 'ingredient_name', 'quantity', 'expiration_date', 'added_date'], 'description': "Manages user's ingredient inventory including adding, removing, setting quantities and expiration dates. Publishes domain events for ingredient expiration notifications"}, {'name': 'Shopping List Service', 'endpoints': [{'name': '/users/{user_id}/shopping-lists', 'method': 'POST', 'inputs': ['user_id', 'list_name', 'auth_token'], 'outputs': ['shopping_list_id', 'creation_result'], 'description': 'Creates a new shopping list for the user'}, {'name': '/users/{user_id}/shopping-lists', 'method': 'GET', 'inputs': ['user_id', 'auth_token'], 'outputs': ['shopping_lists'], 'description': 'Retrieves all shopping lists for a user'}, {'name': '/users/{user_id}/shopping-lists/{list_id}', 'method': 'GET', 'inputs': ['user_id', 'list_id', 'auth_token'], 'outputs': ['shopping_list_details'], 'description': 'Retrieves details of a specific shopping list'}, {'name': '/users/{user_id}/shopping-lists/{list_id}', 'method': 'DELETE', 'inputs': ['user_id', 'list_id', 'auth_token'], 'outputs': ['deletion_result'], 'description': 'Deletes a shopping list'}, {'name': '/users/{user_id}/shopping-lists/{list_id}/ingredients', 'method': 'POST', 'inputs': ['user_id', 'list_id', 'ingredient_name', 'quantity', 'auth_token'], 'outputs': ['ingredient_id', 'addition_result'], 'description': 'Adds an ingredient to a shopping list'}, {'name': '/users/{user_id}/shopping-lists/{list_id}/ingredients/{ingredient_id}', 'method': 'DELETE', 'inputs': ['user_id', 'list_id', 'ingredient_id', 'auth_token'], 'outputs': ['deletion_result'], 'description': 'Removes an ingredient from a shopping list'}, {'name': '/users/{user_id}/shopping-lists/{list_id}/transfer-to-storage', 'method': 'POST', 'inputs': ['user_id', 'list_id', 'ingredient_ids', 'auth_token'], 'outputs': ['transfer_result'], 'description': 'Initiates transfer of ingredients from shopping list to storage'}], 'user_stories': ['12', '15', '16', '20', '21', '22'], 'parameters': ['shopping_list_id', 'user_id', 'list_name', 'ingredient_id', 'ingredient_name', 'quantity', 'created_date'], 'description': 'Handles creation, deletion, and management of shopping lists, including adding/removing ingredients and transferring items to ingredient storage'}, {'name': 'Notification Service', 'endpoints': [{'name': '/users/{user_id}/notifications', 'method': 'GET', 'inputs': ['user_id', 'auth_token'], 'outputs': ['notifications_list'], 'description': 'Retrieves all notifications for a user'}, {'name': '/users/{user_id}/notifications/{notification_id}', 'method': 'PUT', 'inputs': ['user_id', 'notification_id', 'read_status', 'auth_token'], 'outputs': ['update_result'], 'description': 'Updates notification status (read/unread)'}, {'name': '/notifications/send', 'method': 'POST', 'inputs': ['user_id', 'notification_type', 'message', 'related_ingredient_id'], 'outputs': ['send_result'], 'description': 'Internal endpoint to send notifications (triggered by domain events)'}], 'user_stories': ['18'], 'parameters': ['notification_id', 'user_id', 'notification_type', 'message', 'read_status', 'created_date', 'related_entity_id'], 'description': 'Manages notification delivery to users, particularly for ingredient expiration reminders. Consumes domain events from other services'}], 'patterns': [{'group_name': 'Service Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['User Management Service', 'Recipe Service', 'Ingredient Storage Service', 'Shopping List Service', 'Notification Service'], 'explaination': 'I chose this pattern because each microservice manages a distinct domain with specific data storage needs. This ensures loose coupling between services, allows independent development and deployment, prevents runtime coupling issues, and aligns with microservice autonomy principles as recommended in the context.'}, {'group_name': 'Shopping List to Storage Transfer', 'implementation_pattern': 'saga', 'involved_microservices': ['Shopping List Service', 'Ingredient Storage Service'], 'explaination': 'I chose the Saga pattern for user story 15 because transferring ingredients from shopping list to storage requires coordinating a distributed transaction across two services. The saga ensures that either both operations complete successfully (removing from shopping list and adding to storage) or the transaction is compensated if any step fails.'}, {'group_name': 'Account Deletion Coordination', 'implementation_pattern': 'saga', 'involved_microservices': ['User Management Service', 'Recipe Service', 'Shopping List Service', 'Ingredient Storage Service'], 'explaination': 'I chose the Saga pattern for user story 4 because account deletion requires coordinating deletion across multiple services (user data, saved recipes, shopping lists, and ingredient storage). This ensures data consistency across all services when a user account is deleted.'}, {'group_name': 'Recipe Ingredients to Shopping List', 'implementation_pattern': 'saga', 'involved_microservices': ['Recipe Service', 'Shopping List Service'], 'explaination': 'I chose the Saga pattern for user story 12 because adding recipe ingredients to a shopping list requires coordination between Recipe Service (to fetch ingredient details) and Shopping List Service (to add items). This ensures transactional consistency when transferring recipe data to shopping lists.'}, {'group_name': 'Expiration Event Handling', 'implementation_pattern': 'domain event', 'involved_microservices': ['Ingredient Storage Service', 'Notification Service'], 'explaination': 'I chose the Domain Event pattern for user story 18 because the Ingredient Storage Service needs to publish events when ingredients are approaching expiration, which the Notification Service consumes to send notifications. This provides loose coupling and asynchronous communication between services.'}, {'group_name': 'Account Deletion Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['User Management Service', 'Recipe Service', 'Shopping List Service', 'Ingredient Storage Service'], 'explaination': 'I chose the Domain Event pattern to support user story 4 because when a user deletes their account, the User Management Service publishes domain events that other services consume to clean up related data. This enables asynchronous, loosely coupled communication for cascading deletions.'}, {'group_name': 'Recipe Search Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Recipe Service'], 'explaination': 'I chose CQRS for Recipe Service to support user stories 10 and 14 because the service has complex query requirements (general recipe search and search by ingredients). Separating the write model (recipe management, saving recipes) from the read model (optimized for search operations) improves search performance and scalability.'}, {'group_name': 'Recipe Search with Available Ingredients', 'implementation_pattern': 'api composition', 'involved_microservices': ['Recipe Service', 'Ingredient Storage Service'], 'explaination': "I chose API Composition for user story 14 because searching for recipes based on ingredients the user has in storage requires combining data from Recipe Service (recipe catalog with ingredient requirements) and Ingredient Storage Service (user's available ingredients). The Recipe Service composes this data in real-time to show recipes the user can make."}, {'group_name': 'User Profile Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['User Management Service'], 'explaination': 'I chose the Aggregate pattern for user stories 1-7 to ensure consistency of user profile data (email, password, gender) within the User Management Service boundary. The user aggregate maintains business rules and validates modifications as a cohesive unit.'}, {'group_name': 'Shopping List Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Shopping List Service'], 'explaination': 'I chose the Aggregate pattern for user stories 12, 15, 16, 20, 21, 22 to manage shopping list items as a cohesive unit with business rules. The shopping list aggregate ensures consistency when adding/removing ingredients and maintains validation rules for the shopping list boundary.'}, {'group_name': 'Ingredient Storage Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Ingredient Storage Service'], 'explaination': 'I chose the Aggregate pattern for user stories 8, 9, 17, 19 to maintain ingredient quantities and expiration dates with proper validation within the storage boundary. The ingredient storage aggregate ensures consistency and enforces business rules for ingredient management.'}], 'datastore': [{'datastore_name': 'User Database', 'associated_microservices': ['User Management Service'], 'description': 'Stores user account information including email, hashed password, gender, and registration details. Supports user stories 1-7 for user registration, authentication, profile management, and account operations. Required by database per service pattern.'}, {'datastore_name': 'Recipe Database', 'associated_microservices': ['Recipe Service'], 'description': 'Stores recipe catalog data, ingredient lists, nutritional values, and user-saved recipes. Contains both write model (for saving recipes) and read model (optimized for search operations) to support CQRS pattern. Implements user stories 10, 11, 13, 14 for recipe search, saving, and management.'}, {'datastore_name': 'Ingredient Storage Database', 'associated_microservices': ['Ingredient Storage Service'], 'description': 'Stores user ingredient inventory including ingredient names, quantities, expiration dates, and timestamps. Supports user stories 8, 9, 17, 19 for managing ingredients in storage and tracking expiration dates. Required for domain event publishing (expiration notifications) and aggregate pattern implementation.'}, {'datastore_name': 'Shopping List Database', 'associated_microservices': ['Shopping List Service'], 'description': 'Stores shopping lists and their associated ingredients including list names, ingredient items, quantities, and creation dates. Supports user stories 12, 15, 16, 20, 21, 22 for creating and managing shopping lists. Required for saga coordination during transfers to storage and aggregate pattern implementation.'}, {'datastore_name': 'Notification Database', 'associated_microservices': ['Notification Service'], 'description': 'Stores notification records including notification type, message content, delivery status, read/unread status, and related entity references. Supports user story 18 for ingredient expiration notifications. Required for consuming domain events from Ingredient Storage Service and tracking notification delivery.'}]}</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -1047,10 +1047,10 @@
         <v>61</v>
       </c>
       <c r="H9" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1083,24 +1083,14 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "User Management Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email", "password"], "outputs": ["registration result"], "description": "takes user email and password as inputs and outputs the registration result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}, {"name": "/logout", "method": "POST", "inputs": [], "outputs": ["logout result"], "description": "logs out the user"}, {"name": "/profile", "method": "GET", "inputs": [], "outputs": ["profile information"], "description": "returns the user's profile information"}], "user_stories": ["1", "2", "3", "4", "8"], "parameters": ["email", "password"], "description": "Handles user registration, login, logout, session management, and profile information."}, {"name": "Bed Space Listing Service", "endpoints": [{"name": "/add", "method": "POST", "inputs": ["bed space details"], "outputs": ["add result"], "description": "adds a new bed space with all necessary details"}, {"name": "/view", "method": "GET", "inputs": [], "outputs": ["bed spaces"], "description": "returns all available bed spaces"}, {"name": "/search", "method": "GET", "inputs": ["search query"], "outputs": ["search results"], "description": "searches for bed spaces by name or location"}, {"name": "/details", "method": "GET", "inputs": ["bed space id"], "outputs": ["detailed information"], "description": "returns detailed information about a specific bed space"}, {"name": "/update", "method": "PUT", "inputs": ["bed space id", "updated details"], "outputs": ["update result"], "description": "updates the details of a bed space"}, {"name": "/remove", "method": "DELETE", "inputs": ["bed space id"], "outputs": ["removal result"], "description": "removes a bed space if it's no longer available"}], "user_stories": ["5", "6", "7", "12", "13", "14", "15"], "parameters": ["bed space details", "search query", "bed space id", "updated details"], "description": "Manages bed space listings including adding, viewing, editing, updating, and removing bed spaces."}, {"name": "Bed Owner Management Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["owner details"], "outputs": ["registration result"], "description": "registers a bed owner with their details"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "logs in a bed owner"}, {"name": "/listings", "method": "GET", "inputs": [], "outputs": ["bed space listings"], "description": "returns all bed space listings of the owner"}, {"name": "/manage", "method": "PUT", "inputs": ["action", "listing details"], "outputs": ["management result"], "description": "manages bed space listings based on the action provided"}], "user_stories": ["10", "11"], "parameters": ["owner details", "email", "password", "action", "listing details"], "description": "Handles bed owner registration, login, and management of their bed space listings."}, {"name": "Communication Service", "endpoints": [{"name": "/contact", "method": "POST", "inputs": ["bed owner id", "message"], "outputs": ["contact result"], "description": "facilitates contacting a bed owner via WhatsApp with a message"}], "user_stories": ["9"], "parameters": ["bed owner id", "message"], "description": "Facilitates contacting bed owners via WhatsApp for clarifications."}, {"name": "Admin Management Service", "endpoints": [{"name": "/users", "method": "GET", "inputs": [], "outputs": ["all users"], "description": "returns all users for monitoring"}, {"name": "/delete", "method": "DELETE", "inputs": ["entity type", "entity id"], "outputs": ["deletion result"], "description": "deletes inappropriate listings or users based on the entity type and id"}], "user_stories": ["16", "17"], "parameters": ["entity type", "entity id"], "description": "Allows admins to view all users and delete inappropriate listings or users."}], "patterns": [{"group_name": "User Management Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["User Management Service"], "explaination": "To keep user data isolated and maintain loose coupling."}, {"group_name": "Bed Space Patterns", "implementation_pattern": "API Composition", "involved_microservices": ["Bed Space Listing Service"], "explaination": "To support queries that may need to join or aggregate data from multiple services."}, {"group_name": "Bed Owner Patterns", "implementation_pattern": "Saga", "involved_microservices": ["Bed Owner Management Service"], "explaination": "For operations spanning multiple services or requiring data consistency."}, {"group_name": "Communication Patterns", "implementation_pattern": "Remote Procedure Invocation", "involved_microservices": ["Communication Service"], "explaination": "To interact asynchronously or synchronously with other services."}, {"group_name": "Admin Management Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["Admin Management Service"], "explaination": "To manage admin-related data and operations independently."}], "datastore": [{"datastore_name": "User Datastore", "associated_microservices": ["User Management Service"], "description": "Stores user-related data for registration, login, and profile management."}, {"datastore_name": "Bed Space Datastore", "associated_microservices": ["Bed Space Listing Service"], "description": "Manages bed space listings data for adding, viewing, and updating bed spaces."}, {"datastore_name": "Bed Owner Datastore", "associated_microservices": ["Bed Owner Management Service"], "description": "Stores bed owner information and their listings for registration and management."}, {"datastore_name": "Admin Datastore", "associated_microservices": ["Admin Management Service"], "description": "Manages admin-related data for monitoring users and handling deletions."}]}</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" t="n">
-        <v>17</v>
-      </c>
-      <c r="G10" t="n">
-        <v>17</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5</v>
-      </c>
+          <t>{'microservices': [], 'patterns': [], 'datastore': []}</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1132,7 +1122,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "User Management Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email", "password"], "outputs": ["registration result"], "description": "takes user email and password as inputs and outputs the registration result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}, {"name": "/profile", "method": "PUT", "inputs": ["profile_picture"], "outputs": ["update result"], "description": "takes user profile picture as input and updates the profile"}], "user_stories": ["1", "2", "3"], "parameters": ["email", "password", "profile_picture"], "description": "Handles user registration, login, profile management including uploading and editing profile pictures."}, {"name": "Image Processing Service", "endpoints": [{"name": "/apply_filter", "method": "POST", "inputs": ["profile_picture", "filter_type"], "outputs": ["filtered_picture"], "description": "applies a filter to the user's profile picture"}], "user_stories": ["4"], "parameters": ["profile_picture", "filter_type"], "description": "Applies image filters such as cartoon effects to user profile pictures."}, {"name": "UI/UX Service", "endpoints": [], "user_stories": ["5"], "parameters": [], "description": "Manages the interactive and animated user interface to enhance user engagement and usability."}, {"name": "Question Deck Service", "endpoints": [{"name": "/decks", "method": "GET", "inputs": [], "outputs": ["question_decks"], "description": "fetches available question decks"}, {"name": "/search", "method": "GET", "inputs": ["search_query"], "outputs": ["search_results"], "description": "searches for question decks based on the search query"}], "user_stories": ["6", "8", "10"], "parameters": ["search_query"], "description": "Manages creation, upload, browsing, searching, and selection of multiple-choice question decks."}, {"name": "Quiz Interaction Service", "endpoints": [{"name": "/answer", "method": "POST", "inputs": ["question_id", "selected_option"], "outputs": ["answer_result"], "description": "submits the answer to a multiple-choice question"}], "user_stories": ["7", "11"], "parameters": ["question_id", "selected_option"], "description": "Handles the interactive answering of multiple-choice questions, including navigation using touch and motion sensors."}, {"name": "Performance Analytics Service", "endpoints": [{"name": "/statistics", "method": "GET", "inputs": ["user_id"], "outputs": ["performance_stats"], "description": "fetches performance statistics for a user"}], "user_stories": ["9"], "parameters": ["user_id"], "description": "Tracks and reports user performance statistics such as average scores, strengths, weaknesses, and progress over time."}], "patterns": [{"group_name": "Data Style Patterns", "implementation_pattern": "API Composition", "involved_microservices": ["User Management Service", "Image Processing Service", "UI/UX Service", "Question Deck Service", "Quiz Interaction Service", "Performance Analytics Service"], "explaination": "Using API Composition pattern to aggregate data from multiple services for improved user experience and reduced network requests."}, {"group_name": "Communication Style Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["User Management Service", "Image Processing Service", "UI/UX Service", "Question Deck Service", "Quiz Interaction Service", "Performance Analytics Service"], "explaination": "Implementing Database per Service pattern to ensure loose coupling and independent scalability for each microservice."}, {"group_name": "Communication Style Patterns", "implementation_pattern": "Saga", "involved_microservices": ["User Management Service", "Image Processing Service", "UI/UX Service", "Question Deck Service", "Quiz Interaction Service", "Performance Analytics Service"], "explaination": "Utilizing Saga pattern for managing data consistency across services without distributed transactions."}, {"group_name": "Data Style Patterns", "implementation_pattern": "CQRS", "involved_microservices": ["User Management Service", "Image Processing Service", "UI/UX Service", "Question Deck Service", "Quiz Interaction Service", "Performance Analytics Service"], "explaination": "Implementing CQRS pattern to maintain read-optimized replicas for efficient querying of data from multiple services."}], "datastore": [{"datastore_name": "User Datastore", "associated_microservices": ["User Management Service"], "description": "Stores user registration, login, and profile information."}, {"datastore_name": "Image Datastore", "associated_microservices": ["Image Processing Service"], "description": "Stores user profile pictures and processed images."}, {"datastore_name": "Question Deck Datastore", "associated_microservices": ["Question Deck Service"], "description": "Stores multiple-choice question decks created by teachers."}, {"datastore_name": "Performance Datastore", "associated_microservices": ["Performance Analytics Service"], "description": "Stores user performance statistics and analytics data."}]}</t>
+          <t>{'microservices': [{'name': 'User Management Service', 'endpoints': [{'name': '/register', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['user_id', 'registration_status'], 'description': 'Registers a new user account with email and password'}, {'name': '/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['auth_token', 'user_id', 'login_status'], 'description': 'Authenticates user credentials and returns authentication token'}, {'name': '/profile/picture', 'method': 'POST', 'inputs': ['user_id', 'image_file'], 'outputs': ['upload_status', 'picture_url'], 'description': 'Uploads or updates user profile picture'}, {'name': '/profile/picture', 'method': 'PUT', 'inputs': ['user_id', 'image_file'], 'outputs': ['update_status', 'picture_url'], 'description': 'Edits existing user profile picture'}, {'name': '/profile/picture/filter', 'method': 'POST', 'inputs': ['user_id', 'filter_type'], 'outputs': ['filtered_picture_url', 'filter_status'], 'description': 'Applies cartoon filter to user profile picture'}, {'name': '/profile/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['user_profile', 'email', 'picture_url'], 'description': 'Retrieves user profile information'}], 'user_stories': ['1', '2', '3', '4'], 'parameters': ['user_id', 'email', 'password', 'profile_picture_url', 'auth_token'], 'description': 'Handles user registration, authentication, login, and user profile management including profile pictures and cartoon filters'}, {'name': 'Deck Management Service', 'endpoints': [{'name': '/decks', 'method': 'POST', 'inputs': ['teacher_id', 'deck_title', 'subject', 'questions'], 'outputs': ['deck_id', 'creation_status'], 'description': 'Creates a new question deck with multiple-choice questions'}, {'name': '/decks', 'method': 'GET', 'inputs': ['user_id', 'page', 'limit'], 'outputs': ['deck_list', 'total_count'], 'description': 'Retrieves list of available question decks for browsing'}, {'name': '/decks/search', 'method': 'GET', 'inputs': ['search_query', 'user_id'], 'outputs': ['matching_decks'], 'description': 'Searches for decks by topic, subject, or keyword'}, {'name': '/decks/{deck_id}', 'method': 'GET', 'inputs': ['deck_id', 'user_id'], 'outputs': ['deck_details', 'questions', 'metadata'], 'description': 'Retrieves detailed information about a specific deck'}, {'name': '/decks/{deck_id}', 'method': 'PUT', 'inputs': ['deck_id', 'teacher_id', 'updated_questions'], 'outputs': ['update_status'], 'description': 'Updates an existing question deck'}], 'user_stories': ['6', '8', '10'], 'parameters': ['deck_id', 'teacher_id', 'deck_title', 'subject', 'questions', 'metadata'], 'description': 'Manages question decks including creation, upload, browsing, and search functionality for both teachers and students'}, {'name': 'Quiz Service', 'endpoints': [{'name': '/quiz/start', 'method': 'POST', 'inputs': ['user_id', 'deck_id'], 'outputs': ['quiz_session_id', 'first_question'], 'description': 'Initiates a new quiz session for a selected deck'}, {'name': '/quiz/{session_id}/question', 'method': 'GET', 'inputs': ['session_id', 'question_index'], 'outputs': ['question', 'choices', 'question_number'], 'description': 'Retrieves a specific question from the current quiz session'}, {'name': '/quiz/{session_id}/answer', 'method': 'POST', 'inputs': ['session_id', 'question_id', 'selected_answer', 'input_method'], 'outputs': ['answer_status', 'is_correct'], 'description': 'Submits answer for a question (supports touch and accelerometer input)'}, {'name': '/quiz/{session_id}/complete', 'method': 'POST', 'inputs': ['session_id', 'user_id'], 'outputs': ['final_score', 'total_questions', 'correct_answers', 'completion_status'], 'description': 'Completes quiz session and calculates final results'}, {'name': '/quiz/{session_id}/navigate', 'method': 'POST', 'inputs': ['session_id', 'navigation_direction'], 'outputs': ['next_question', 'navigation_status'], 'description': 'Navigates between questions using accelerometer or touch input'}], 'user_stories': ['7', '11'], 'parameters': ['quiz_session_id', 'user_id', 'deck_id', 'current_question_index', 'submitted_answers', 'session_status'], 'description': 'Handles the quiz-taking experience including question delivery, answer submission, and deck testing functionality'}, {'name': 'Analytics Service', 'endpoints': [{'name': '/analytics/{user_id}/statistics', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['average_score', 'total_quizzes', 'strengths', 'weaknesses'], 'description': 'Retrieves comprehensive performance statistics for a user'}, {'name': '/analytics/{user_id}/progress', 'method': 'GET', 'inputs': ['user_id', 'time_range'], 'outputs': ['progress_data', 'score_trends'], 'description': 'Retrieves progress over time for a specific user'}, {'name': '/analytics/{user_id}/subject-performance', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['subject_scores', 'strengths', 'weaknesses'], 'description': 'Retrieves performance breakdown by subject/topic'}, {'name': '/analytics/events', 'method': 'POST', 'inputs': ['event_type', 'user_id', 'deck_id', 'quiz_data'], 'outputs': ['event_id', 'processing_status'], 'description': 'Internal endpoint for receiving quiz completion events'}], 'user_stories': ['9'], 'parameters': ['user_id', 'quiz_completion_events', 'average_score', 'strengths', 'weaknesses', 'progress_timeline', 'materialized_views'], 'description': 'Tracks and calculates user performance statistics including scores, progress over time, strengths, and weaknesses using CQRS and event sourcing'}, {'name': 'UI Service', 'endpoints': [{'name': '/ui/preferences/{user_id}', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['ui_preferences', 'animation_settings'], 'description': 'Retrieves user interface preferences and settings'}, {'name': '/ui/preferences/{user_id}', 'method': 'PUT', 'inputs': ['user_id', 'preferences'], 'outputs': ['update_status'], 'description': 'Updates user interface preferences'}, {'name': '/ui/accelerometer/calibrate', 'method': 'POST', 'inputs': ['user_id', 'device_info'], 'outputs': ['calibration_settings'], 'description': 'Calibrates accelerometer settings for navigation'}, {'name': '/ui/dashboard', 'method': 'GET', 'inputs': ['user_id'], 'outputs': ['user_profile', 'available_decks', 'recent_performance'], 'description': 'Composes dashboard data from multiple services'}], 'user_stories': ['5'], 'parameters': ['user_id', 'ui_preferences', 'animation_settings', 'accelerometer_settings'], 'description': 'Provides interactive and animated user interface components and manages accelerometer-based navigation'}], 'patterns': [{'group_name': 'Service Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['User Management Service', 'Deck Management Service', 'Quiz Service', 'Analytics Service', 'UI Service'], 'explaination': 'I chose database per service pattern because each microservice needs to evolve independently and scale according to its specific needs. This ensures loose coupling and allows each service to choose its optimal data storage technology. The context explicitly recommends this pattern for all services to maintain service autonomy.'}, {'group_name': 'User Registration Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['User Management Service', 'Analytics Service'], 'explaination': 'I chose the saga pattern for user registration because when a new user registers (user story #1), we need to ensure data consistency across services - creating the user profile in User Management Service AND initializing analytics tracking in Analytics Service. The context recommends a choreography-based saga using domain events for this workflow.'}, {'group_name': 'Deck Creation Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Deck Management Service', 'Quiz Service'], 'explaination': 'I chose the saga pattern for deck creation because when a teacher creates a deck (user story #10), the deck must be made available for quiz-taking in the Quiz Service. The context recommends an orchestration-based saga for controlled workflow to ensure the deck is properly registered across both services.'}, {'group_name': 'Quiz Completion Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Quiz Service', 'Analytics Service'], 'explaination': 'I chose the saga pattern for quiz completion because when a student completes a quiz (user stories #7, #11), performance statistics must be updated in the Analytics Service. The context recommends a choreography-based saga for loose coupling, allowing the Quiz Service to publish completion events that Analytics Service consumes.'}, {'group_name': 'Asynchronous Service Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['User Management Service', 'Deck Management Service', 'Quiz Service', 'Analytics Service', 'UI Service'], 'explaination': 'I chose domain events pattern for asynchronous communication between services. The context specifies events like UserRegistered, DeckCreated, QuizCompleted, and ProfileUpdated to enable loose coupling and event-driven architecture. This supports the saga patterns and allows services to react to changes without direct dependencies.'}, {'group_name': 'Dashboard Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['UI Service', 'User Management Service', 'Deck Management Service', 'Analytics Service'], 'explaination': 'I chose API composition for the UI Service dashboard (user story #5) because it needs to compose data from multiple services in real-time: user profile from User Management Service, available decks from Deck Management Service, and recent performance from Analytics Service. The context recommends this pattern for simple, real-time queries that aggregate data from multiple sources.'}, {'group_name': 'Performance Analytics Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Analytics Service'], 'explaination': 'I chose CQRS for the Analytics Service because user story #9 requires complex statistical queries (average score, strengths, weaknesses, progress over time). The context explicitly recommends CQRS here to separate the write model for capturing quiz results from the read model optimized for analytics queries, with materialized views for efficient querying.'}, {'group_name': 'Analytics Event Store', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Analytics Service'], 'explaination': 'I chose event sourcing for the Analytics Service because it needs to track progress over time (user story #9). The context recommends storing all quiz completion events as an event stream, enabling temporal queries, rebuilding performance statistics from events, and allowing recalculation if business rules change. This pattern works in conjunction with CQRS for optimal analytics capabilities.'}, {'group_name': 'Service Aggregates', 'implementation_pattern': 'aggregate', 'involved_microservices': ['User Management Service', 'Deck Management Service', 'Quiz Service', 'Analytics Service'], 'explaination': 'I chose the aggregate pattern to define clear bounded contexts and consistency boundaries within each service. User Management has User aggregate, Deck Management has Deck aggregate with questions as child entities, Quiz Service has QuizSession aggregate with answers, and Analytics has UserPerformance aggregate. This ensures transactional consistency within each aggregate while maintaining service autonomy.'}], 'datastore': [{'datastore_name': 'User Database', 'associated_microservices': ['User Management Service'], 'description': 'Stores user credentials, profiles, and profile pictures. Supports user stories #1 (registration), #2 (login), #3 (profile picture upload/edit), and #4 (cartoon filter). Uses database per service pattern to maintain service autonomy.'}, {'datastore_name': 'Deck Database', 'associated_microservices': ['Deck Management Service'], 'description': 'Stores question decks, questions with multiple-choice options, and metadata for searching. Supports user stories #6 (browsing decks), #8 (search functionality), and #10 (deck creation by teachers). Implements aggregate pattern with Deck as root entity containing questions.'}, {'datastore_name': 'Quiz Session Database', 'associated_microservices': ['Quiz Service'], 'description': 'Stores active and completed quiz sessions, submitted answers, and test results. Supports user stories #7 (students answering questions) and #11 (teachers testing decks). Uses aggregate pattern with QuizSession as root entity. Publishes domain events for quiz completion.'}, {'datastore_name': 'Analytics Write Database', 'associated_microservices': ['Analytics Service'], 'description': 'Event store for quiz completion events using event sourcing pattern. Captures all quiz results as immutable events to support user story #9 (performance statistics and progress over time). This is the write model in the CQRS implementation.'}, {'datastore_name': 'Analytics Read Database', 'associated_microservices': ['Analytics Service'], 'description': 'Optimized read model with materialized views for user story #9 statistics queries (average score, strengths, weaknesses, progress over time). Contains pre-computed aggregations and denormalized data built from the event store. This is the read model in the CQRS implementation, enabling efficient querying of complex analytics.'}, {'datastore_name': 'UI Preferences Database', 'associated_microservices': ['UI Service'], 'description': 'Stores user interface preferences, animation settings, and accelerometer calibration data. Supports user story #5 (interactive and animated UI). Maintains personalization settings and device-specific configurations for enhanced user experience.'}]}</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -1145,10 +1135,10 @@
         <v>11</v>
       </c>
       <c r="H11" t="n">
-        <v>1.833333333333333</v>
+        <v>2.2</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1209,23 +1199,23 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "User Management", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email"], "outputs": ["registration result"], "description": "takes user email as input and outputs the registration result"}, {"name": "/logout", "method": "POST", "inputs": [], "outputs": ["logout result"], "description": "logs out the user"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}, {"name": "/updateStatus", "method": "PUT", "inputs": ["status"], "outputs": ["update result"], "description": "updates user status"}, {"name": "/modifyInfo", "method": "PUT", "inputs": ["info"], "outputs": ["modification result"], "description": "modifies user information"}], "user_stories": ["1", "2", "3", "6", "12", "30"], "parameters": ["email", "password", "status", "info"], "description": "Handles user registration, login, logout, profile management, and user status updates (e.g., customer, farmer, rider)."}, {"name": "Insertion Management", "endpoints": [{"name": "/publish", "method": "POST", "inputs": ["insertion data"], "outputs": ["publish result"], "description": "publishes a new insertion"}, {"name": "/modify", "method": "PUT", "inputs": ["insertion data"], "outputs": ["modification result"], "description": "modifies an existing insertion"}, {"name": "/delete", "method": "DELETE", "inputs": ["insertion id"], "outputs": ["deletion result"], "description": "deletes an insertion"}, {"name": "/addBoxes", "method": "POST", "inputs": ["boxes data"], "outputs": ["add boxes result"], "description": "adds boxes to an existing insertion"}], "user_stories": ["4", "9", "10", "31"], "parameters": ["insertion data", "insertion id", "boxes data"], "description": "Manages farmers' product insertions including publishing, modifying, deleting insertions, and adding boxes to insertions."}, {"name": "Home and Browsing", "endpoints": [{"name": "/home", "method": "GET", "inputs": [], "outputs": ["home page data"], "description": "provides access to the home page"}, {"name": "/farmerPage", "method": "GET", "inputs": ["farmer id"], "outputs": ["farmer page data"], "description": "provides access to a specific farmer's page"}, {"name": "/search", "method": "GET", "inputs": ["search query"], "outputs": ["search results"], "description": "searches for farmer insertions"}], "user_stories": ["5", "8", "13"], "parameters": ["farmer id", "search query"], "description": "Provides access to the home page, farmer pages, and supports searching for farmer insertions."}, {"name": "Seasonal Calendar and Booking", "endpoints": [{"name": "/calendar", "method": "GET", "inputs": [], "outputs": ["calendar data"], "description": "provides seasonal foodstuff calendar"}, {"name": "/book", "method": "POST", "inputs": ["booking data"], "outputs": ["booking result"], "description": "books a product from the calendar"}], "user_stories": ["7", "18"], "parameters": ["booking data"], "description": "Allows customers to view seasonal foodstuff on a calendar and book products from the calendar."}, {"name": "Shopping Cart and Order Management", "endpoints": [{"name": "/addToCart", "method": "POST", "inputs": ["product id"], "outputs": ["add to cart result"], "description": "adds a product to the shopping cart"}, {"name": "/deleteFromCart", "method": "DELETE", "inputs": ["product id"], "outputs": ["delete from cart result"], "description": "deletes a product from the shopping cart"}, {"name": "/generateOrder", "method": "POST", "inputs": ["cart data"], "outputs": ["order generation result"], "description": "generates an order from the shopping cart"}, {"name": "/checkout", "method": "POST", "inputs": ["payment data"], "outputs": ["checkout result"], "description": "checks out and pays for the order"}, {"name": "/orderHistory", "method": "GET", "inputs": [], "outputs": ["order history data"], "description": "provides order history for the customer"}], "user_stories": ["14", "15", "16", "17", "22", "33"], "parameters": ["product id", "cart data", "payment data"], "description": "Manages shopping cart operations, order generation, checkout, payment, and order history."}, {"name": "Subscription and Notification", "endpoints": [{"name": "/subscribe", "method": "POST", "inputs": ["farmer id"], "outputs": ["subscription result"], "description": "subscribes to a farmer"}, {"name": "/unsubscribe", "method": "DELETE", "inputs": ["farmer id"], "outputs": ["unsubscription result"], "description": "unsubscribes from a farmer"}, {"name": "/subscriptionList", "method": "GET", "inputs": [], "outputs": ["subscription list"], "description": "provides a list of subscribed farmers"}, {"name": "/notificationCenter", "method": "GET", "inputs": [], "outputs": ["notifications"], "description": "provides notifications for the user"}], "user_stories": ["19", "20", "35", "36"], "parameters": ["farmer id"], "description": "Handles customer subscriptions to farmers, notification delivery, and managing subscription lists."}, {"name": "Booking Requests Management", "endpoints": [{"name": "/respondRequest", "method": "PUT", "inputs": ["request id", "response"], "outputs": ["response result"], "description": "responds to a booking request"}, {"name": "/requestStatus", "method": "GET", "inputs": ["request id"], "outputs": ["request status"], "description": "provides the status of a booking request"}], "user_stories": ["21", "32"], "parameters": ["request id", "response"], "description": "Allows farmers to accept or decline booking requests and users to see the status of their booked boxes."}, {"name": "Commenting", "endpoints": [{"name": "/leaveComment", "method": "POST", "inputs": ["comment data"], "outputs": ["comment result"], "description": "allows users to leave comments for farmers"}], "user_stories": ["23"], "parameters": ["comment data"], "description": "Enables users who bought boxes to leave comments for farmers."}, {"name": "Rider Management", "endpoints": [{"name": "/deliveryPage", "method": "GET", "inputs": [], "outputs": ["delivery page data"], "description": "provides a personal delivery page for the rider"}, {"name": "/updateAvailability", "method": "PUT", "inputs": ["availability status"], "outputs": ["update result"], "description": "updates rider availability status"}, {"name": "/updateDeliveryStatus", "method": "PUT", "inputs": ["order id", "status"], "outputs": ["update result"], "description": "updates delivery status of an order"}], "user_stories": ["25", "26", "34"], "parameters": ["availability status", "order id", "status"], "description": "Manages rider profiles, availability status, delivery pages, and updating delivery status of orders."}, {"name": "Delivery Options", "endpoints": [{"name": "/selectOption", "method": "PUT", "inputs": ["option"], "outputs": ["selection result"], "description": "allows customers to select a delivery option"}], "user_stories": ["27"], "parameters": ["option"], "description": "Allows customers to select delivery options for receiving products at home."}, {"name": "Achievements and Badges", "endpoints": [{"name": "/earnBadge", "method": "POST", "inputs": ["badge data"], "outputs": ["earn badge result"], "description": "enables farmers to earn badges based on achievements"}], "user_stories": ["28"], "parameters": ["badge data"], "description": "Manages earning and displaying badges for farmers based on their achievements."}, {"name": "Expiring Boxes", "endpoints": [{"name": "/viewExpiring", "method": "GET", "inputs": [], "outputs": ["expiring boxes data"], "description": "provides a list of expiring boxes"}], "user_stories": ["11"], "parameters": [], "description": "Allows users to view expiring boxes."}], "patterns": [{"group_name": "Data Consistency", "implementation_pattern": "Saga", "involved_microservices": ["Shopping Cart and Order Management", "User Management", "Payment"], "explaination": "I chose this pattern to maintain data consistency during complex business transactions like order creation involving multiple services."}, {"group_name": "Event Publishing", "implementation_pattern": "Transactional Outbox", "involved_microservices": ["User Management", "Insertion Management"], "explaination": "I chose this pattern to ensure atomic updates and reliable event publishing when services update their databases."}, {"group_name": "Queries Optimization", "implementation_pattern": "API Composition and CQRS", "involved_microservices": ["Home and Browsing", "Seasonal Calendar and Booking"], "explaination": "I chose this pattern to optimize queries that require data from multiple services by aggregating results and maintaining read-only replicas."}], "datastore": [{"datastore_name": "User Datastore", "associated_microservices": ["User Management"], "description": "Stores user registration, login, profile, and status data."}, {"datastore_name": "Insertion Datastore", "associated_microservices": ["Insertion Management"], "description": "Stores farmer product insertion data."}, {"datastore_name": "Order Datastore", "associated_microservices": ["Shopping Cart and Order Management"], "description": "Stores shopping cart, order, and payment data."}, {"datastore_name": "Notification Datastore", "associated_microservices": ["Subscription and Notification"], "description": "Stores subscription and notification data."}, {"datastore_name": "Booking Request Datastore", "associated_microservices": ["Booking Requests Management"], "description": "Stores booking request and response data."}, {"datastore_name": "Comment Datastore", "associated_microservices": ["Commenting"], "description": "Stores user comments for farmers."}, {"datastore_name": "Rider Datastore", "associated_microservices": ["Rider Management"], "description": "Stores rider profiles, availability, and delivery status data."}, {"datastore_name": "Delivery Option Datastore", "associated_microservices": ["Delivery Options"], "description": "Stores delivery option data for customers."}, {"datastore_name": "Badge Datastore", "associated_microservices": ["Achievements and Badges"], "description": "Stores badge earning data for farmers."}, {"datastore_name": "Expiring Boxes Datastore", "associated_microservices": ["Expiring Boxes"], "description": "Stores expiring boxes data for users."}]}</t>
+          <t>{'microservices': [{'name': 'user-management-service', 'endpoints': [{'name': '/register', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['user_id', 'registration_status'], 'description': 'Registers a new user with email and password'}, {'name': '/register/oauth', 'method': 'POST', 'inputs': ['oauth_token', 'provider'], 'outputs': ['user_id', 'registration_status'], 'description': 'Registers a new user using OAuth provider'}, {'name': '/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['auth_token', 'user_profile'], 'description': 'Authenticates user and returns authentication token'}, {'name': '/logout', 'method': 'POST', 'inputs': ['auth_token'], 'outputs': ['logout_status'], 'description': 'Logs out user and invalidates authentication token'}, {'name': '/profile', 'method': 'GET', 'inputs': ['user_id', 'auth_token'], 'outputs': ['user_profile'], 'description': 'Retrieves user profile information'}, {'name': '/profile', 'method': 'PUT', 'inputs': ['user_id', 'auth_token', 'profile_data'], 'outputs': ['update_status'], 'description': 'Updates user profile information'}, {'name': '/role', 'method': 'PUT', 'inputs': ['user_id', 'auth_token', 'new_role'], 'outputs': ['role_update_status'], 'description': 'Updates user role from customer to farmer or rider'}], 'user_stories': ['1', '2', '3', '6', '12', '24', '29', '30'], 'parameters': ['user_id', 'email', 'password', 'oauth_token', 'auth_token', 'role', 'profile_data'], 'description': 'Manages user authentication, registration (email and OAuth), login/logout, user profiles, role updates (customer to farmer/rider), and user information modifications'}, {'name': 'insertion-service', 'endpoints': [{'name': '/insertions', 'method': 'POST', 'inputs': ['farmer_id', 'auth_token', 'insertion_data'], 'outputs': ['insertion_id', 'creation_status'], 'description': 'Creates a new product insertion by a farmer'}, {'name': '/insertions/{insertion_id}', 'method': 'PUT', 'inputs': ['insertion_id', 'farmer_id', 'auth_token', 'insertion_data'], 'outputs': ['update_status'], 'description': 'Modifies an existing insertion'}, {'name': '/insertions/{insertion_id}', 'method': 'DELETE', 'inputs': ['insertion_id', 'farmer_id', 'auth_token'], 'outputs': ['deletion_status'], 'description': 'Deletes an insertion'}, {'name': '/insertions/search', 'method': 'GET', 'inputs': ['search_query', 'filters'], 'outputs': ['insertion_list'], 'description': 'Searches for insertions based on query and filters'}, {'name': '/insertions/{insertion_id}/boxes', 'method': 'POST', 'inputs': ['insertion_id', 'farmer_id', 'auth_token', 'box_data'], 'outputs': ['box_id', 'creation_status'], 'description': 'Adds boxes to an existing insertion'}], 'user_stories': ['4', '8', '9', '10', '31'], 'parameters': ['insertion_id', 'farmer_id', 'insertion_data', 'box_data', 'box_id', 'search_query'], 'description': 'Handles farmer product insertions including creation, modification, deletion, search functionality, and box management within insertions'}, {'name': 'catalog-service', 'endpoints': [{'name': '/catalog', 'method': 'GET', 'inputs': ['filters'], 'outputs': ['product_list'], 'description': 'Retrieves the main catalog of products'}, {'name': '/calendar/seasonal', 'method': 'GET', 'inputs': ['month', 'season'], 'outputs': ['seasonal_products'], 'description': 'Displays seasonal foodstuff calendar'}, {'name': '/catalog/expiring', 'method': 'GET', 'inputs': [], 'outputs': ['expiring_boxes'], 'description': 'Shows boxes that are expiring soon'}, {'name': '/farmers/{farmer_id}/profile', 'method': 'GET', 'inputs': ['farmer_id'], 'outputs': ['farmer_profile', 'insertions', 'reviews', 'badges'], 'description': 'Displays farmer public profile page'}], 'user_stories': ['5', '7', '11', '13'], 'parameters': ['farmer_id', 'seasonal_data', 'expiring_boxes', 'catalog_view'], 'description': 'Manages product catalog, seasonal calendar display, expiring boxes, and farmer profile pages with public information'}, {'name': 'cart-service', 'endpoints': [{'name': '/cart', 'method': 'GET', 'inputs': ['customer_id', 'auth_token'], 'outputs': ['cart_items'], 'description': 'Retrieves current cart contents'}, {'name': '/cart/items', 'method': 'POST', 'inputs': ['customer_id', 'auth_token', 'product_id', 'quantity'], 'outputs': ['cart_status'], 'description': 'Adds a product to the shopping cart'}, {'name': '/cart/items/{item_id}', 'method': 'DELETE', 'inputs': ['customer_id', 'auth_token', 'item_id'], 'outputs': ['deletion_status'], 'description': 'Removes an item from the shopping cart'}], 'user_stories': ['14', '15', '33'], 'parameters': ['cart_id', 'customer_id', 'cart_items', 'product_id', 'quantity'], 'description': 'Manages shopping cart operations including adding products, viewing cart contents, and removing items from cart'}, {'name': 'order-service', 'endpoints': [{'name': '/orders', 'method': 'POST', 'inputs': ['customer_id', 'auth_token', 'cart_id'], 'outputs': ['order_id', 'order_status'], 'description': 'Generates an order from shopping cart'}, {'name': '/orders/{order_id}/payment', 'method': 'POST', 'inputs': ['order_id', 'customer_id', 'auth_token', 'payment_details'], 'outputs': ['payment_status', 'transaction_id'], 'description': 'Processes payment for an order'}, {'name': '/orders/history', 'method': 'GET', 'inputs': ['customer_id', 'auth_token'], 'outputs': ['order_history'], 'description': 'Retrieves customer order history'}, {'name': '/bookings', 'method': 'POST', 'inputs': ['customer_id', 'auth_token', 'product_id', 'booking_details'], 'outputs': ['booking_id', 'booking_status'], 'description': 'Creates a booking request for a product from calendar'}, {'name': '/bookings/{booking_id}/respond', 'method': 'PUT', 'inputs': ['booking_id', 'farmer_id', 'auth_token', 'response'], 'outputs': ['response_status'], 'description': 'Farmer accepts or declines a booking request'}, {'name': '/bookings/status', 'method': 'GET', 'inputs': ['customer_id', 'auth_token'], 'outputs': ['booking_requests'], 'description': 'Retrieves status of booking requests'}], 'user_stories': ['16', '17', '18', '21', '22', '32'], 'parameters': ['order_id', 'customer_id', 'order_items', 'payment_status', 'booking_id', 'booking_status', 'farmer_response'], 'description': 'Handles order generation from cart, payment processing, order history, and booking requests management (acceptance/decline by farmers)'}, {'name': 'delivery-service', 'endpoints': [{'name': '/riders/{rider_id}/availability', 'method': 'PUT', 'inputs': ['rider_id', 'auth_token', 'availability_status'], 'outputs': ['status_update'], 'description': 'Updates rider availability status'}, {'name': '/riders/{rider_id}/dashboard', 'method': 'GET', 'inputs': ['rider_id', 'auth_token'], 'outputs': ['delivery_requests', 'delivery_history'], 'description': 'Displays rider personal delivery dashboard'}, {'name': '/orders/{order_id}/delivery', 'method': 'POST', 'inputs': ['order_id', 'customer_id', 'auth_token', 'delivery_option', 'address'], 'outputs': ['delivery_id', 'delivery_status'], 'description': 'Selects delivery option for an order'}, {'name': '/deliveries/{delivery_id}/status', 'method': 'PUT', 'inputs': ['delivery_id', 'rider_id', 'auth_token', 'status'], 'outputs': ['status_update'], 'description': 'Updates delivery status by rider'}], 'user_stories': ['25', '26', '27', '34'], 'parameters': ['rider_id', 'availability_status', 'delivery_id', 'delivery_status', 'delivery_address', 'assigned_rider'], 'description': 'Manages rider availability, delivery requests, delivery option selection, delivery status updates, and rider delivery dashboard'}, {'name': 'notification-service', 'endpoints': [{'name': '/subscriptions', 'method': 'POST', 'inputs': ['customer_id', 'auth_token', 'farmer_id'], 'outputs': ['subscription_status'], 'description': 'Subscribes customer to a farmer'}, {'name': '/subscriptions', 'method': 'DELETE', 'inputs': ['customer_id', 'auth_token', 'farmer_id'], 'outputs': ['unsubscription_status'], 'description': 'Unsubscribes customer from a farmer'}, {'name': '/subscriptions', 'method': 'GET', 'inputs': ['customer_id', 'auth_token'], 'outputs': ['subscribed_farmers'], 'description': 'Retrieves list of subscribed farmers'}, {'name': '/notifications', 'method': 'GET', 'inputs': ['customer_id', 'auth_token'], 'outputs': ['notification_list'], 'description': 'Retrieves customer notification center'}, {'name': '/notifications/{notification_id}', 'method': 'PUT', 'inputs': ['notification_id', 'customer_id', 'auth_token', 'read_status'], 'outputs': ['status_update'], 'description': 'Marks notification as read'}], 'user_stories': ['19', '20', '35', '36'], 'parameters': ['subscription_id', 'customer_id', 'farmer_id', 'notification_id', 'notification_type', 'read_status'], 'description': 'Handles farmer subscriptions, unsubscriptions, notification generation for new insertions, and notification center for customers'}, {'name': 'review-service', 'endpoints': [{'name': '/reviews', 'method': 'POST', 'inputs': ['customer_id', 'auth_token', 'farmer_id', 'order_id', 'rating', 'comment'], 'outputs': ['review_id', 'creation_status'], 'description': 'Creates a review for a purchased product'}, {'name': '/reviews/farmer/{farmer_id}', 'method': 'GET', 'inputs': ['farmer_id'], 'outputs': ['review_list'], 'description': 'Retrieves reviews for a specific farmer'}], 'user_stories': ['23'], 'parameters': ['review_id', 'customer_id', 'farmer_id', 'order_id', 'rating', 'comment'], 'description': 'Manages customer reviews and comments on purchased products from farmers'}, {'name': 'gamification-service', 'endpoints': [{'name': '/farmers/{farmer_id}/badges', 'method': 'GET', 'inputs': ['farmer_id'], 'outputs': ['badge_list'], 'description': 'Retrieves badges earned by a farmer'}, {'name': '/badges/calculate', 'method': 'POST', 'inputs': ['farmer_id', 'achievement_data'], 'outputs': ['new_badges', 'calculation_status'], 'description': 'Calculates and awards badges based on farmer achievements'}], 'user_stories': ['28'], 'parameters': ['farmer_id', 'badge_id', 'badge_type', 'achievement_criteria', 'earned_date'], 'description': 'Manages farmer badge system and achievement tracking displayed on farmer profiles'}], 'patterns': [{'group_name': 'Microservices Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['user-management-service', 'insertion-service', 'catalog-service', 'cart-service', 'order-service', 'delivery-service', 'notification-service', 'review-service', 'gamification-service'], 'explaination': 'I chose database per service pattern because the context explicitly recommends it for ensuring loose coupling between microservices. Each service manages its own data domain (users, insertions, orders, etc.) and needs to evolve independently. This pattern supports the fundamental principle of microservices architecture where services are autonomous and independently deployable.'}, {'group_name': 'Order Creation Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['cart-service', 'order-service', 'notification-service', 'delivery-service'], 'explaination': 'I chose the saga pattern for order creation because it involves a distributed transaction across multiple services. When a customer generates an order (user stories 16, 17), it requires coordinated actions: generating order from cart, processing payment, notifying farmers, and potentially assigning delivery. The context specifically identifies this as an Order Creation Saga to maintain data consistency without distributed transactions.'}, {'group_name': 'Booking Request Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['catalog-service', 'order-service', 'notification-service'], 'explaination': 'I chose the saga pattern for booking requests because it handles the distributed workflow when customers book products from the calendar (user story 18) and farmers accept/decline requests (user story 21). The context recommends this saga to manage the booking request lifecycle and farmer response flow while maintaining consistency across services.'}, {'group_name': 'Role Update Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['user-management-service', 'delivery-service', 'insertion-service'], 'explaination': 'I chose the saga pattern for role updates because when a customer updates their status to farmer or rider (user stories 12, 24), it requires coordinated initialization across multiple services. The user-management-service updates the role, and then delivery-service or insertion-service must initialize the necessary data and capabilities for the new role. The context specifically identifies this as a Role Update Saga.'}, {'group_name': 'Catalog and Seasonal Calendar', 'implementation_pattern': 'cqrs', 'involved_microservices': ['insertion-service', 'catalog-service'], 'explaination': 'I chose CQRS pattern because catalog-service handles read-heavy operations for browsing products, seasonal calendar, and expiring boxes (user stories 5, 7, 11), while insertion-service handles write operations for creating and modifying insertions. The context recommends CQRS for efficient search and filtering operations. The insertion-service is the write model, and catalog-service maintains optimized read views.'}, {'group_name': 'Notification Management', 'implementation_pattern': 'cqrs', 'involved_microservices': ['notification-service'], 'explaination': 'I chose CQRS pattern for notification-service because it needs to efficiently handle notification generation (writes) and notification retrieval (reads) separately. The context recommends CQRS for the notification center (user stories 35, 36) with separate write and read models to optimize notification retrieval performance while handling high-volume notification generation from various domain events.'}, {'group_name': 'Farmer Profile Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['catalog-service', 'review-service', 'gamification-service'], 'explaination': 'I chose API composition pattern because displaying a farmer profile page (user story 13) requires composing data from multiple services: insertions from catalog-service, reviews from review-service, and badges from gamification-service. The context specifically identifies this as a use case for API composition to create a comprehensive farmer profile view while keeping services decoupled.'}, {'group_name': 'Shopping Cart View Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['cart-service', 'catalog-service'], 'explaination': 'I chose API composition pattern because viewing the shopping cart (user story 33) requires combining cart items from cart-service with detailed product information from catalog-service. The context recommends this pattern to compose the complete cart view with enriched product details while maintaining service independence.'}, {'group_name': 'Order History Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['order-service', 'delivery-service'], 'explaination': 'I chose API composition pattern because displaying order history (user story 22) requires composing order data from order-service with delivery status from delivery-service. The context identifies this as an API composition use case to provide customers with complete order information including delivery tracking.'}, {'group_name': 'Event-Driven Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['user-management-service', 'insertion-service', 'order-service', 'delivery-service', 'notification-service', 'gamification-service'], 'explaination': 'I chose domain event pattern for asynchronous communication between services. The context recommends publishing domain events like UserRegistered, InsertionCreated, OrderCreated, DeliveryAssigned, etc. This enables loose coupling and supports use cases like triggering notifications (user stories 19, 35, 36), updating gamification badges (user story 28), and coordinating cross-service workflows without direct service-to-service calls.'}, {'group_name': 'Cart Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['cart-service'], 'explaination': 'I chose the aggregate pattern for cart-service because a shopping cart with its items forms a natural aggregate root. The context identifies Cart Aggregate as a bounded consistency boundary where cart items are managed as a unit. This ensures transactional consistency for cart operations (user stories 14, 15, 33) within the cart-service.'}, {'group_name': 'Order Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['order-service'], 'explaination': 'I chose the aggregate pattern for order-service because an order with its line items and booking requests forms a cohesive aggregate. The context identifies Order Aggregate as maintaining consistency for order-related operations. This ensures that order generation, payment, and booking requests (user stories 16, 17, 18, 21, 22, 32) are managed as a consistent unit.'}, {'group_name': 'User Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['user-management-service'], 'explaination': 'I chose the aggregate pattern for user-management-service because user profile with roles and authentication data forms an aggregate root. The context identifies User Aggregate for managing user-related consistency. This ensures that authentication, registration, and role updates (user stories 1, 2, 3, 6, 12, 24, 29, 30) maintain consistency within the user boundary.'}, {'group_name': 'Insertion Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['insertion-service'], 'explaination': 'I chose the aggregate pattern for insertion-service because an insertion with its associated boxes forms a natural aggregate. The context identifies Insertion Aggregate for maintaining consistency when farmers create, modify, or delete insertions and manage boxes (user stories 4, 9, 10, 31). This ensures transactional consistency for insertion operations.'}, {'group_name': 'Subscription Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['notification-service'], 'explaination': 'I chose the aggregate pattern for notification-service subscriptions because farmer subscriptions with notification preferences form a consistency boundary. The context identifies Subscription Aggregate for managing subscription lifecycle. This ensures that subscribe, unsubscribe, and notification preferences (user stories 19, 20, 35) are handled consistently.'}], 'datastore': [{'datastore_name': 'User Database', 'associated_microservices': ['user-management-service'], 'description': 'Stores user profiles, authentication credentials (email/OAuth tokens), roles (customer/farmer/rider), and profile information. Supports user stories 1, 2, 3, 6, 12, 24, 29, 30 for registration, authentication, role management, and profile modifications. Uses aggregate pattern for user data consistency.'}, {'datastore_name': 'Insertion Write Database', 'associated_microservices': ['insertion-service'], 'description': 'Stores farmer product insertions and associated boxes with write-optimized schema. Supports user stories 4, 9, 10, 31 for creating, modifying, deleting insertions and managing boxes. Part of CQRS write model and uses aggregate pattern for insertion consistency.'}, {'datastore_name': 'Catalog Read Database', 'associated_microservices': ['catalog-service'], 'description': 'Maintains optimized read views of product catalog, seasonal calendar, expiring boxes, and farmer profiles. Supports user stories 5, 7, 11, 13 with denormalized data for efficient querying and filtering. Part of CQRS read model synchronized via domain events from insertion-service.'}, {'datastore_name': 'Cart Database', 'associated_microservices': ['cart-service'], 'description': 'Stores shopping cart data with cart items for each customer. Supports user stories 14, 15, 33 for adding products, viewing cart, and removing items. Uses aggregate pattern to maintain cart consistency as a transactional unit.'}, {'datastore_name': 'Order Database', 'associated_microservices': ['order-service'], 'description': 'Stores orders, order line items, payment information, and booking requests. Supports user stories 16, 17, 18, 21, 22, 32 for order generation, payment processing, booking management, and order history. Uses aggregate pattern for order consistency and participates in saga patterns for distributed transactions.'}, {'datastore_name': 'Delivery Database', 'associated_microservices': ['delivery-service'], 'description': 'Stores rider availability status, delivery assignments, delivery requests, and delivery status history. Supports user stories 25, 26, 27, 34 for rider dashboard, availability management, delivery assignment, and status updates. Participates in order creation saga.'}, {'datastore_name': 'Notification Write Database', 'associated_microservices': ['notification-service'], 'description': 'Stores subscription data and notification generation records. Supports user stories 19, 20, 35 for farmer subscriptions and unsubscriptions. Uses aggregate pattern for subscription consistency and domain events for notification triggering.'}, {'datastore_name': 'Notification Read Database', 'associated_microservices': ['notification-service'], 'description': 'Maintains optimized read view of customer notifications for efficient retrieval. Supports user story 36 for notification center. Part of CQRS read model for high-performance notification querying.'}, {'datastore_name': 'Review Database', 'associated_microservices': ['review-service'], 'description': 'Stores customer reviews and comments on purchased products from farmers. Supports user story 23 for leaving reviews. Data is composed with farmer profiles via API composition pattern.'}, {'datastore_name': 'Gamification Database', 'associated_microservices': ['gamification-service'], 'description': 'Stores farmer badges, achievements, and achievement tracking data. Supports user story 28 for badge system. Updated via domain events and composed with farmer profiles via API composition pattern.'}]}</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.9444444444444444</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G12" t="n">
         <v>36</v>
       </c>
       <c r="H12" t="n">
-        <v>2.833333333333333</v>
+        <v>4</v>
       </c>
       <c r="I12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1265,7 +1255,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "User Management Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email", "password"], "outputs": ["registration result"], "description": "takes user email and password as inputs and outputs the registration result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}], "user_stories": ["2", "3", "12", "16", "18", "20"], "parameters": ["email", "password"], "description": "Handles user registration, login, logout, password regeneration, and user role management (client, user, manager, admin)."}, {"name": "Event Management Service", "endpoints": [{"name": "/create_event", "method": "POST", "inputs": ["event_details"], "outputs": ["event_id"], "description": "creates a new event with the provided details and returns the event ID"}, {"name": "/get_events", "method": "GET", "inputs": [], "outputs": ["event_list"], "description": "retrieves a list of all events available"}], "user_stories": ["4", "13", "14"], "parameters": ["event_details"], "description": "Manages event creation, publication, and retrieval, allowing managers to insert and view their proposed events and clients/users to explore events."}, {"name": "Ticketing Service", "endpoints": [{"name": "/book_ticket", "method": "POST", "inputs": ["event_id", "user_id"], "outputs": ["ticket_id"], "description": "books a ticket for the specified event and user"}, {"name": "/buy_ticket", "method": "POST", "inputs": ["ticket_id", "payment_details"], "outputs": ["purchase_result"], "description": "processes the purchase of a ticket with the provided payment details"}], "user_stories": ["7", "8", "9", "10", "11"], "parameters": ["event_id", "user_id", "payment_details"], "description": "Handles ticket booking, buying, payment processing, and ticket retrieval for users."}, {"name": "User Profile Service", "endpoints": [{"name": "/update_profile", "method": "PUT", "inputs": ["user_id", "profile_data"], "outputs": ["update_result"], "description": "updates the user profile data for the specified user"}, {"name": "/get_profile", "method": "GET", "inputs": ["user_id"], "outputs": ["profile_data"], "description": "retrieves the profile data for the specified user"}], "user_stories": ["5", "15", "19"], "parameters": ["user_id", "profile_data"], "description": "Manages user and manager personal pages, allowing them to view and update their personal data."}, {"name": "Notification Service", "endpoints": [{"name": "/add_favourite_category", "method": "POST", "inputs": ["user_id", "category"], "outputs": ["add_result"], "description": "adds a favourite category for the specified user"}, {"name": "/send_notification", "method": "POST", "inputs": ["user_id", "event_id"], "outputs": ["notification_result"], "description": "sends a notification to the user for the specified event"}], "user_stories": ["6"], "parameters": ["user_id", "category", "event_id"], "description": "Manages user preferences such as favourite categories and sends email notifications about related events."}, {"name": "Admin Management Service", "endpoints": [{"name": "/add_manager", "method": "POST", "inputs": ["admin_id", "manager_data"], "outputs": ["add_result"], "description": "adds a new manager with the provided data"}, {"name": "/manage_admin_tasks", "method": "PUT", "inputs": ["admin_id", "task_details"], "outputs": ["task_result"], "description": "manages administrative tasks for the specified admin"}], "user_stories": ["17"], "parameters": ["admin_id", "manager_data", "task_details"], "description": "Allows admins to add new managers and manage administrative tasks."}, {"name": "Public Access Service", "endpoints": [{"name": "/explore_events", "method": "GET", "inputs": [], "outputs": ["event_list"], "description": "provides access to explore all events without logging in"}], "user_stories": ["1"], "parameters": [], "description": "Provides access to the web application for clients to explore functionalities without logging in."}], "patterns": [{"group_name": "Data Management and Consistency Patterns", "implementation_pattern": "Saga Pattern", "involved_microservices": ["Ticketing Service"], "explaination": "I chose this pattern because it allows managing distributed transactions like booking and payment processes in the Ticketing Service, ensuring eventual consistency without distributed transactions."}, {"group_name": "Querying Patterns", "implementation_pattern": "API Composition", "involved_microservices": ["User Profile Service", "Event Management Service"], "explaination": "I chose this pattern to handle queries that require data from multiple services, such as displaying user profile data alongside ticket purchases or event details."}], "datastore": [{"datastore_name": "User Datastore", "associated_microservices": ["User Management Service", "User Profile Service"], "description": "Stores user-related data such as registration details, profile information, and user roles."}, {"datastore_name": "Event Datastore", "associated_microservices": ["Event Management Service"], "description": "Stores event-related data including event details, proposals, and publication information."}, {"datastore_name": "Ticket Datastore", "associated_microservices": ["Ticketing Service"], "description": "Stores ticket-related data such as bookings, purchases, and payment details."}, {"datastore_name": "Notification Datastore", "associated_microservices": ["Notification Service"], "description": "Stores notification preferences and related event notifications for users."}, {"datastore_name": "Admin Datastore", "associated_microservices": ["Admin Management Service"], "description": "Stores admin-related data for managing managers and administrative tasks."}]}</t>
+          <t>{'microservices': [{'name': 'Authentication Service', 'endpoints': [{'name': '/register', 'method': 'POST', 'inputs': ['email', 'password', 'user_type'], 'outputs': ['registration_result', 'user_id'], 'description': 'Registers a new user with email and password'}, {'name': '/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['authentication_token', 'user_role', 'user_id'], 'description': 'Authenticates user and returns token with role information'}, {'name': '/logout', 'method': 'POST', 'inputs': ['authentication_token'], 'outputs': ['logout_result'], 'description': 'Invalidates the authentication token'}, {'name': '/password/reset-request', 'method': 'POST', 'inputs': ['email'], 'outputs': ['reset_token'], 'description': 'Initiates password reset process and sends reset token'}, {'name': '/password/reset', 'method': 'POST', 'inputs': ['reset_token', 'new_password'], 'outputs': ['reset_result'], 'description': 'Resets password using valid reset token'}, {'name': '/validate-token', 'method': 'GET', 'inputs': ['authentication_token'], 'outputs': ['validation_result', 'user_id', 'user_role'], 'description': 'Validates authentication token and returns user information'}], 'user_stories': ['2', '3', '12', '16', '18', '20'], 'parameters': ['email', 'password', 'authentication_token', 'user_type', 'user_role', 'reset_token'], 'description': 'Handles user authentication, registration, login, logout, and password recovery for all user types (clients, users, managers, admins)'}, {'name': 'User Profile Service', 'endpoints': [{'name': '/profile/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'authentication_token'], 'outputs': ['profile_data', 'favorite_categories'], 'description': 'Retrieves user profile information and preferences'}, {'name': '/profile/{user_id}', 'method': 'PUT', 'inputs': ['user_id', 'authentication_token', 'profile_data'], 'outputs': ['update_result'], 'description': 'Updates user profile information'}, {'name': '/profile/{user_id}/favorite-categories', 'method': 'POST', 'inputs': ['user_id', 'authentication_token', 'category_id'], 'outputs': ['add_result'], 'description': 'Adds a favorite category to user preferences'}, {'name': '/profile/{user_id}/favorite-categories', 'method': 'GET', 'inputs': ['user_id', 'authentication_token'], 'outputs': ['favorite_categories_list'], 'description': "Retrieves list of user's favorite categories"}, {'name': '/profile/{user_id}/favorite-categories/{category_id}', 'method': 'DELETE', 'inputs': ['user_id', 'authentication_token', 'category_id'], 'outputs': ['delete_result'], 'description': 'Removes a favorite category from user preferences'}], 'user_stories': ['5', '6', '15', '19'], 'parameters': ['user_id', 'profile_data', 'favorite_categories', 'category_id'], 'description': 'Manages user profile data, personal pages, and user preferences including favorite categories for all authenticated users'}, {'name': 'Event Management Service', 'endpoints': [{'name': '/events', 'method': 'GET', 'inputs': ['filters', 'pagination'], 'outputs': ['events_list'], 'description': 'Retrieves list of all events with optional filters'}, {'name': '/events/{event_id}', 'method': 'GET', 'inputs': ['event_id'], 'outputs': ['event_details'], 'description': 'Retrieves detailed information about a specific event'}, {'name': '/events', 'method': 'POST', 'inputs': ['authentication_token', 'event_data', 'manager_id'], 'outputs': ['event_id', 'creation_result'], 'description': 'Creates a new event proposed by a manager'}, {'name': '/events/manager/{manager_id}', 'method': 'GET', 'inputs': ['manager_id', 'authentication_token'], 'outputs': ['manager_events_list'], 'description': 'Retrieves all events proposed by a specific manager'}, {'name': '/events/{event_id}', 'method': 'PUT', 'inputs': ['event_id', 'authentication_token', 'event_data'], 'outputs': ['update_result'], 'description': 'Updates event information'}, {'name': '/events/categories', 'method': 'GET', 'inputs': [], 'outputs': ['categories_list'], 'description': 'Retrieves all available event categories'}], 'user_stories': ['4', '13', '14'], 'parameters': ['event_id', 'event_data', 'manager_id', 'category_id', 'filters', 'pagination'], 'description': 'Handles event creation, publishing, listing, and exploration. Manages event data and allows managers to propose and view their events'}, {'name': 'Ticket Service', 'endpoints': [{'name': '/tickets/purchase', 'method': 'POST', 'inputs': ['user_id', 'event_id', 'ticket_quantity', 'authentication_token'], 'outputs': ['reservation_id', 'reservation_result'], 'description': 'Initiates ticket purchase and reserves tickets'}, {'name': '/tickets/user/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'authentication_token'], 'outputs': ['purchased_tickets_list'], 'description': 'Retrieves all purchased tickets for a user'}, {'name': '/pre-sales/book', 'method': 'POST', 'inputs': ['user_id', 'event_id', 'authentication_token'], 'outputs': ['presale_booking_id', 'booking_result'], 'description': 'Books a pre-sale for an event'}, {'name': '/pre-sales/user/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'authentication_token'], 'outputs': ['presale_bookings_list'], 'description': 'Retrieves all pre-sale bookings for a user'}, {'name': '/tickets/availability/{event_id}', 'method': 'GET', 'inputs': ['event_id'], 'outputs': ['available_tickets', 'presale_available'], 'description': 'Checks ticket availability for an event'}, {'name': '/tickets/confirm', 'method': 'POST', 'inputs': ['reservation_id', 'payment_id'], 'outputs': ['ticket_code', 'confirmation_result'], 'description': 'Confirms ticket purchase after successful payment'}, {'name': '/tickets/release', 'method': 'POST', 'inputs': ['reservation_id'], 'outputs': ['release_result'], 'description': 'Releases reserved tickets if payment fails'}], 'user_stories': ['7', '8', '9', '10'], 'parameters': ['reservation_id', 'ticket_id', 'ticket_code', 'ticket_quantity', 'presale_booking_id', 'available_tickets'], 'description': 'Manages ticket purchases, pre-sale bookings, and ticket viewing. Handles ticket inventory and user ticket history'}, {'name': 'Payment Service', 'endpoints': [{'name': '/payments/process', 'method': 'POST', 'inputs': ['user_id', 'reservation_id', 'payment_details', 'amount'], 'outputs': ['payment_id', 'payment_status'], 'description': 'Processes payment for ticket purchase'}, {'name': '/payments/{payment_id}', 'method': 'GET', 'inputs': ['payment_id', 'authentication_token'], 'outputs': ['payment_details', 'payment_status'], 'description': 'Retrieves payment status and details'}, {'name': '/payments/{payment_id}/refund', 'method': 'POST', 'inputs': ['payment_id', 'authentication_token'], 'outputs': ['refund_result'], 'description': 'Processes refund for a payment'}], 'user_stories': ['11'], 'parameters': ['payment_id', 'payment_status', 'payment_details', 'amount'], 'description': 'Processes online payments for ticket purchases and generates ticket codes upon successful payment'}, {'name': 'Notification Service', 'endpoints': [{'name': '/notifications/send', 'method': 'POST', 'inputs': ['user_id', 'notification_type', 'notification_content'], 'outputs': ['send_result'], 'description': 'Sends notification to a user'}, {'name': '/notifications/event-created', 'method': 'POST', 'inputs': ['event_id', 'category_id'], 'outputs': ['notification_result'], 'description': 'Handles event creation notifications to interested users'}, {'name': '/notifications/preferences/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'authentication_token'], 'outputs': ['notification_preferences'], 'description': 'Retrieves user notification preferences'}, {'name': '/notifications/preferences/{user_id}', 'method': 'PUT', 'inputs': ['user_id', 'authentication_token', 'preferences'], 'outputs': ['update_result'], 'description': 'Updates user notification preferences'}], 'user_stories': ['6'], 'parameters': ['notification_id', 'notification_type', 'notification_content', 'notification_preferences'], 'description': 'Sends email notifications to users about events related to their favorite categories'}, {'name': 'User Management Service', 'endpoints': [{'name': '/users/managers', 'method': 'POST', 'inputs': ['admin_token', 'manager_email', 'manager_password', 'manager_details'], 'outputs': ['manager_id', 'creation_result'], 'description': 'Creates a new manager account'}, {'name': '/users/managers', 'method': 'GET', 'inputs': ['admin_token'], 'outputs': ['managers_list'], 'description': 'Retrieves list of all managers'}, {'name': '/users/{user_id}/role', 'method': 'PUT', 'inputs': ['admin_token', 'user_id', 'new_role'], 'outputs': ['role_update_result'], 'description': 'Updates user role'}, {'name': '/users', 'method': 'GET', 'inputs': ['admin_token', 'filters'], 'outputs': ['users_list'], 'description': 'Retrieves list of all users with filters'}, {'name': '/users/{user_id}/status', 'method': 'PUT', 'inputs': ['admin_token', 'user_id', 'status'], 'outputs': ['status_update_result'], 'description': 'Updates user account status (active/inactive)'}], 'user_stories': ['17'], 'parameters': ['manager_id', 'user_role', 'user_status', 'manager_details'], 'description': 'Handles administrative tasks such as creating and managing manager accounts and user role assignments'}, {'name': 'Web Frontend Service', 'endpoints': [{'name': '/', 'method': 'GET', 'inputs': [], 'outputs': ['html_page'], 'description': 'Serves the main web application homepage'}, {'name': '/events', 'method': 'GET', 'inputs': [], 'outputs': ['html_page'], 'description': 'Serves the events listing page'}, {'name': '/profile', 'method': 'GET', 'inputs': ['authentication_token'], 'outputs': ['html_page'], 'description': 'Serves the user profile page'}, {'name': '/login', 'method': 'GET', 'inputs': [], 'outputs': ['html_page'], 'description': 'Serves the login page'}], 'user_stories': ['1'], 'parameters': [], 'description': 'Serves the web application interface and provides the entry point for clients to explore functionalities'}], 'patterns': [{'group_name': 'Service Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['Authentication Service', 'User Profile Service', 'Event Management Service', 'Ticket Service', 'Payment Service', 'Notification Service', 'User Management Service'], 'explaination': 'I chose database per service pattern because each microservice needs to maintain its own data independently to ensure loose coupling, service autonomy, and the ability to scale and evolve each service independently. This pattern is recommended in the context for all services to ensure proper microservices architecture principles.'}, {'group_name': 'Ticket Purchase Transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['Ticket Service', 'Payment Service', 'Notification Service'], 'explaination': 'I chose the saga pattern for ticket purchase flow (user stories 10, 11) because it requires coordinating a distributed transaction across multiple services: Ticket Service reserves tickets, Payment Service processes payment, and Notification Service sends confirmation. If payment fails, the saga handles compensation by releasing the ticket reservation. This is explicitly recommended in the context for managing distributed transactions.'}, {'group_name': 'Pre-sale Booking Transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['Ticket Service', 'User Profile Service'], 'explaination': 'I chose the saga pattern for pre-sale booking (user story 9) because it requires coordination between Ticket Service and User Profile Service to ensure the user is eligible and the booking is properly recorded. This maintains data consistency across services while handling potential failures.'}, {'group_name': 'Event Notification Flow', 'implementation_pattern': 'domain event', 'involved_microservices': ['Event Management Service', 'Notification Service', 'User Profile Service'], 'explaination': 'I chose the domain event pattern for favorite category notifications (user story 6) because when Event Management Service creates a new event, it publishes a domain event that Notification Service subscribes to. Notification Service then queries User Profile Service for users with matching favorite categories. This maintains loose coupling and enables event-driven communication as recommended in the context.'}, {'group_name': 'Payment Transaction Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['Payment Service', 'Ticket Service', 'Notification Service'], 'explaination': 'I chose the domain event pattern because Payment Service publishes events when payment succeeds or fails, which Ticket Service consumes to confirm or release tickets, and Notification Service consumes to send notifications. This is explicitly recommended in the context for maintaining loose coupling in payment flows.'}, {'group_name': 'User Personal Page Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['User Profile Service', 'Ticket Service', 'Event Management Service'], 'explaination': 'I chose API composition for the user personal page (user stories 5, 15, 19) because it requires aggregating data from multiple services: User Profile Service for user data, Ticket Service for purchased tickets and pre-sales, and Event Management Service for event details. The context specifically recommends this pattern for queries that span multiple services.'}, {'group_name': 'Manager Dashboard Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Event Management Service', 'Ticket Service'], 'explaination': 'I chose API composition for manager dashboard (user story 13) because managers need to see their events from Event Management Service combined with ticket sales statistics from Ticket Service. This pattern is recommended in the context for dashboard views requiring data from multiple services.'}, {'group_name': 'Event Exploration Read Model', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Event Management Service'], 'explaination': 'I chose CQRS for event listing and exploration (user story 4) because this is a read-heavy operation requiring efficient browsing and filtering. The context recommends CQRS for read-heavy scenarios to create a read-optimized view that makes event exploration efficient for clients.'}, {'group_name': 'Ticket History Read Model', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Ticket Service'], 'explaination': "I chose CQRS for user ticket history (user stories 7, 8) to maintain a separate read model optimized for displaying user's tickets and pre-sales. This is explicitly recommended in the context for read-heavy operations involving ticket history queries."}, {'group_name': 'Event Aggregate Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Event Management Service'], 'explaination': 'I chose the aggregate pattern for Event Management Service because events represent a clear consistency boundary with all related event data managed as a single unit. This is recommended in the context to define clear boundaries for consistency within the service.'}, {'group_name': 'Ticket Aggregate Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Ticket Service'], 'explaination': 'I chose the aggregate pattern for Ticket Service because tickets and bookings form a consistency boundary where all ticket-related operations must maintain invariants (e.g., ticket availability). The context recommends this to maintain consistency boundaries for ticket management.'}, {'group_name': 'User Aggregate Boundary', 'implementation_pattern': 'aggregate', 'involved_microservices': ['User Profile Service'], 'explaination': 'I chose the aggregate pattern for User Profile Service because user data with preferences and favorite categories represents a clear consistency boundary. This is recommended in the context to maintain consistency boundaries within the service for user-related data.'}], 'datastore': [{'datastore_name': 'Authentication Database', 'associated_microservices': ['Authentication Service'], 'description': 'Stores user credentials, authentication tokens, password reset tokens, and session data. Supports user stories 2, 3, 12, 16, 18, 20 for registration, login, logout, and password recovery. Required by database per service pattern for service independence.'}, {'datastore_name': 'User Profile Database', 'associated_microservices': ['User Profile Service'], 'description': 'Stores user profile information, personal preferences, and favorite event categories. Supports user stories 5, 6, 15, 19 for managing user profiles and category preferences. Required by database per service pattern and needed for domain event pattern to identify users for notifications.'}, {'datastore_name': 'Event Management Database', 'associated_microservices': ['Event Management Service'], 'description': 'Stores event data including details, categories, manager associations, and published status. Supports user stories 4, 13, 14 for event creation, listing, and exploration. CQRS pattern requires both write model and read-optimized model for efficient event browsing. Aggregate pattern requires this to maintain event consistency boundaries.'}, {'datastore_name': 'Event Read Model Database', 'associated_microservices': ['Event Management Service'], 'description': 'Read-optimized database for event exploration and filtering. Supports user story 4 by providing efficient queries for event browsing. Required by CQRS pattern to separate read and write models for performance optimization.'}, {'datastore_name': 'Ticket Database', 'associated_microservices': ['Ticket Service'], 'description': 'Stores ticket inventory, reservations, purchased tickets, pre-sale bookings, and availability status. Supports user stories 7, 8, 9, 10 for ticket management and purchases. Required by database per service pattern and saga pattern to manage ticket reservations and compensations. Aggregate pattern requires this to maintain ticket consistency boundaries.'}, {'datastore_name': 'Ticket History Read Model Database', 'associated_microservices': ['Ticket Service'], 'description': 'Read-optimized database for user ticket and pre-sale history. Supports user stories 7, 8 by providing efficient queries for ticket viewing. Required by CQRS pattern to maintain separate read model for ticket history queries.'}, {'datastore_name': 'Payment Database', 'associated_microservices': ['Payment Service'], 'description': 'Stores payment transactions, payment status, refund information, and transaction history. Supports user story 11 for online payment processing. Required by database per service pattern and domain event pattern to track payment events. Saga pattern requires this to manage payment state in distributed transactions.'}, {'datastore_name': 'Notification Database', 'associated_microservices': ['Notification Service'], 'description': 'Stores notification logs, delivery status, user notification preferences, and sent notifications history. Supports user story 6 for email notifications about favorite categories. Required by database per service pattern and domain event pattern to track notifications sent based on events.'}, {'datastore_name': 'User Management Database', 'associated_microservices': ['User Management Service'], 'description': 'Stores administrative data including manager accounts, user roles, account status, and role assignments. Supports user story 17 for creating and managing manager accounts. Required by database per service pattern for administrative service independence.'}]}</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -1278,10 +1268,10 @@
         <v>20</v>
       </c>
       <c r="H13" t="n">
-        <v>2.857142857142857</v>
+        <v>2.625</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -1318,7 +1308,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Authentication Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email", "password"], "outputs": ["registration result"], "description": "Handles user registration with an external account"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "Handles user login"}, {"name": "/logout", "method": "POST", "inputs": [], "outputs": ["logout result"], "description": "Handles user logout"}], "user_stories": ["1", "6", "7"], "parameters": ["email", "password"], "description": "Handles user registration, login, logout, and external account integration such as Google authentication."}, {"name": "Recipe Search Service", "endpoints": [{"name": "/search", "method": "GET", "inputs": ["recipe_name"], "outputs": ["search results"], "description": "Searches recipes by name"}, {"name": "/recipe", "method": "GET", "inputs": ["recipe_id"], "outputs": ["recipe details"], "description": "Retrieves detailed information about a recipe"}], "user_stories": ["2", "3"], "parameters": ["recipe_name", "recipe_id"], "description": "Manages searching recipes by name and retrieving detailed information about recipes."}, {"name": "Ingredient Information Service", "endpoints": [{"name": "/ingredient", "method": "GET", "inputs": ["ingredient_id"], "outputs": ["ingredient details"], "description": "Provides detailed information about ingredients"}], "user_stories": ["4"], "parameters": ["ingredient_id"], "description": "Provides detailed information about ingredients used in recipes."}, {"name": "Dietary Recommendation Service", "endpoints": [], "user_stories": ["5"], "parameters": [], "description": "Suggests recipes based on specific diets using a Chat-BOT or other recommendation mechanisms."}, {"name": "User Profile Service", "endpoints": [{"name": "/profile", "method": "GET", "inputs": [], "outputs": ["user profile"], "description": "Accesses user profile page"}], "user_stories": ["8"], "parameters": [], "description": "Manages user profile data and access to personal information."}, {"name": "Calendar Management Service", "endpoints": [{"name": "/calendar", "method": "POST", "inputs": [], "outputs": ["calendar result"], "description": "Creates a calendar"}, {"name": "/calendar", "method": "DELETE", "inputs": [], "outputs": ["delete result"], "description": "Deletes a calendar"}, {"name": "/event", "method": "POST", "inputs": ["event_details"], "outputs": ["event result"], "description": "Adds an event to the calendar"}], "user_stories": ["9", "10", "11"], "parameters": ["event_details"], "description": "Allows users to create, delete, and manage calendars and events related to recipes."}, {"name": "Favorites Management Service", "endpoints": [{"name": "/favorite", "method": "POST", "inputs": ["recipe_id"], "outputs": ["add result"], "description": "Adds a recipe to favorites"}, {"name": "/favorite", "method": "DELETE", "inputs": ["recipe_id"], "outputs": ["remove result"], "description": "Removes a recipe from favorites"}, {"name": "/favorite", "method": "GET", "inputs": [], "outputs": ["favorite list"], "description": "Retrieves favorite recipes"}], "user_stories": ["12", "13", "14"], "parameters": ["recipe_id"], "description": "Enables users to add, remove, and view recipes in their favorite list."}], "patterns": [{"group_name": "Authentication", "implementation_pattern": "API Gateway", "involved_microservices": ["Authentication Service"], "explaination": "Centralizes authentication at the gateway level for security and simplicity"}, {"group_name": "Data Composition", "implementation_pattern": "API Composition", "involved_microservices": ["Recipe Search Service", "Ingredient Information Service"], "explaination": "Composes data from multiple services for searching and detailed information retrieval"}, {"group_name": "Data Management", "implementation_pattern": "Database per Service", "involved_microservices": ["User Profile Service", "Calendar Management Service", "Favorites Management Service"], "explaination": "Ensures independent data management for each service"}, {"group_name": "Distributed Transactions", "implementation_pattern": "Saga", "involved_microservices": ["Calendar Management Service", "Favorites Management Service"], "explaination": "Manages distributed transactions for consistency in operations across services"}], "datastore": [{"datastore_name": "User Profile Data", "associated_microservices": ["User Profile Service"], "description": "Stores user profile information"}, {"datastore_name": "Calendar and Events Data", "associated_microservices": ["Calendar Management Service"], "description": "Stores calendar and event data for users"}, {"datastore_name": "Favorite Recipes Data", "associated_microservices": ["Favorites Management Service"], "description": "Stores favorite recipes for users"}]}</t>
+          <t>{'microservices': [{'name': 'Authentication Service', 'endpoints': [{'name': '/register', 'method': 'POST', 'inputs': ['google_oauth_token'], 'outputs': ['user_id', 'registration_status'], 'description': 'Registers a new user using Google OAuth token and publishes UserRegistered event'}, {'name': '/login', 'method': 'POST', 'inputs': ['google_oauth_token'], 'outputs': ['session_token', 'user_id'], 'description': 'Authenticates user with Google OAuth and returns session token'}, {'name': '/logout', 'method': 'POST', 'inputs': ['session_token'], 'outputs': ['logout_status'], 'description': 'Invalidates user session and logs out the user'}, {'name': '/validate', 'method': 'GET', 'inputs': ['session_token'], 'outputs': ['validation_status', 'user_id'], 'description': 'Validates session token for authenticated requests'}], 'user_stories': ['1', '6', '7'], 'parameters': ['user_id', 'oauth_token', 'session_token', 'email', 'registration_date'], 'description': 'Manages user authentication, registration with external providers (Google OAuth), login, and logout operations. Publishes domain events when users register.'}, {'name': 'Recipe Service', 'endpoints': [{'name': '/recipes/search', 'method': 'GET', 'inputs': ['recipe_name', 'filters'], 'outputs': ['recipe_list'], 'description': 'Searches recipes by name using optimized query model'}, {'name': '/recipes/{recipe_id}', 'method': 'GET', 'inputs': ['recipe_id'], 'outputs': ['recipe_details', 'ingredient_ids'], 'description': 'Retrieves detailed information about a specific recipe'}, {'name': '/recipes/diet-suggestions', 'method': 'GET', 'inputs': ['diet_type'], 'outputs': ['suggested_recipes'], 'description': 'Returns recipe suggestions based on specific diet using chatbot functionality'}, {'name': '/recipes/{recipe_id}/verify', 'method': 'GET', 'inputs': ['recipe_id'], 'outputs': ['exists', 'recipe_name'], 'description': 'Verifies if a recipe exists for saga orchestration'}], 'user_stories': ['2', '3', '5'], 'parameters': ['recipe_id', 'recipe_name', 'description', 'instructions', 'diet_type', 'ingredient_ids', 'popularity_score', 'preparation_time'], 'description': 'Handles recipe search, retrieval of recipe details, and diet-based recipe suggestions including chatbot functionality. Uses CQRS pattern with separate command and query models for optimized search and read operations.'}, {'name': 'Ingredient Service', 'endpoints': [{'name': '/ingredients/{ingredient_id}', 'method': 'GET', 'inputs': ['ingredient_id'], 'outputs': ['ingredient_details'], 'description': 'Retrieves detailed information about a specific ingredient including nutritional data'}, {'name': '/ingredients/batch', 'method': 'POST', 'inputs': ['ingredient_ids'], 'outputs': ['ingredients_list'], 'description': 'Retrieves multiple ingredient details for API composition'}], 'user_stories': ['4'], 'parameters': ['ingredient_id', 'ingredient_name', 'nutritional_info', 'allergens', 'description'], 'description': 'Manages ingredient information and provides detailed data about ingredients used in recipes'}, {'name': 'User Profile Service', 'endpoints': [{'name': '/profiles/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'session_token'], 'outputs': ['profile_data'], 'description': 'Retrieves user profile information and basic data'}, {'name': '/profiles/{user_id}', 'method': 'POST', 'inputs': ['user_id', 'profile_data'], 'outputs': ['creation_status'], 'description': 'Creates user profile when UserRegistered event is received'}, {'name': '/profiles/{user_id}/favorites', 'method': 'GET', 'inputs': ['user_id', 'session_token'], 'outputs': ['favorite_recipe_ids'], 'description': 'Retrieves list of favorite recipe IDs for the user'}, {'name': '/profiles/{user_id}/favorites', 'method': 'POST', 'inputs': ['user_id', 'recipe_id', 'session_token'], 'outputs': ['add_status'], 'description': 'Adds a recipe to favorites list after saga verification and publishes RecipeFavorited event'}, {'name': '/profiles/{user_id}/favorites/{recipe_id}', 'method': 'DELETE', 'inputs': ['user_id', 'recipe_id', 'session_token'], 'outputs': ['removal_status'], 'description': 'Removes a recipe from favorites list'}], 'user_stories': ['8', '12', '13', '14'], 'parameters': ['user_id', 'profile_data', 'favorite_recipe_ids', 'created_date', 'last_updated'], 'description': 'Manages user profile data, favorite recipe lists, and personal information for registered users. Coordinates with Recipe Service for favorite operations.'}, {'name': 'Calendar Service', 'endpoints': [{'name': '/calendars', 'method': 'POST', 'inputs': ['user_id', 'calendar_name', 'session_token'], 'outputs': ['calendar_id', 'creation_status'], 'description': 'Creates a new calendar for the user and publishes CalendarCreated event'}, {'name': '/calendars/{calendar_id}', 'method': 'DELETE', 'inputs': ['calendar_id', 'user_id', 'session_token'], 'outputs': ['deletion_status'], 'description': 'Deletes a calendar and all associated events using saga orchestration and publishes CalendarDeleted event'}, {'name': '/calendars/{calendar_id}/events', 'method': 'POST', 'inputs': ['calendar_id', 'recipe_id', 'event_date', 'reminder_time', 'session_token'], 'outputs': ['event_id', 'creation_status'], 'description': 'Adds a recipe event to calendar after saga validation with Recipe Service'}, {'name': '/calendars/{calendar_id}/events', 'method': 'GET', 'inputs': ['calendar_id', 'session_token'], 'outputs': ['events_list'], 'description': 'Retrieves all events in a calendar'}, {'name': '/calendars/user/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'session_token'], 'outputs': ['calendars_summary'], 'description': 'Retrieves summary of user calendars for profile page composition'}], 'user_stories': ['9', '10', '11'], 'parameters': ['calendar_id', 'user_id', 'calendar_name', 'event_id', 'recipe_id', 'event_date', 'reminder_time', 'created_date'], 'description': 'Handles creation and deletion of user calendars and management of recipe-related events and reminders. Coordinates with Recipe Service for event validation.'}], 'patterns': [{'group_name': 'Service Database Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['Authentication Service', 'Recipe Service', 'Ingredient Service', 'User Profile Service', 'Calendar Service'], 'explaination': 'I chose this pattern because each microservice manages distinct data domains (authentication, recipes, ingredients, user profiles, calendars) and needs independent scalability and loose coupling. This ensures service autonomy and prevents tight coupling through shared databases.'}, {'group_name': 'Recipe Details Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Recipe Service', 'Ingredient Service'], 'explaination': 'I chose this pattern because user story 3 requires displaying complete recipe information including ingredient details, which spans both Recipe and Ingredient services. The Recipe Service retrieves recipe data with ingredient IDs, then composes it with detailed ingredient information from the Ingredient Service.'}, {'group_name': 'Profile Page Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['User Profile Service', 'Calendar Service'], 'explaination': 'I chose this pattern because user story 8 requires displaying profile information along with calendar summaries, which requires composing data from User Profile Service and Calendar Service to present a unified view of user information.'}, {'group_name': 'Favorite List Display Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['User Profile Service', 'Recipe Service'], 'explaination': 'I chose this pattern because user story 14 requires displaying the favorite list with full recipe details. User Profile Service provides favorite recipe IDs, which are then composed with detailed recipe information from Recipe Service.'}, {'group_name': 'Add to Favorites Transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['User Profile Service', 'Recipe Service'], 'explaination': 'I chose this pattern because user story 12 requires coordinating between User Profile Service and Recipe Service to verify the recipe exists before adding it to favorites. This distributed transaction ensures data consistency across services.'}, {'group_name': 'Add Calendar Event Transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['Calendar Service', 'Recipe Service'], 'explaination': 'I chose this pattern because user story 11 requires validating that a recipe exists before creating a calendar event for it. This ensures referential integrity across services through orchestrated distributed transaction.'}, {'group_name': 'Delete Calendar Transaction', 'implementation_pattern': 'saga', 'involved_microservices': ['Calendar Service'], 'explaination': 'I chose this pattern because user story 10 requires orchestrating the deletion of a calendar and all its associated events as a single logical transaction, ensuring all related data is properly removed.'}, {'group_name': 'User Lifecycle Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['Authentication Service', 'User Profile Service'], 'explaination': 'I chose this pattern because when a user registers (user story 1), the Authentication Service publishes a UserRegistered event that the User Profile Service consumes to asynchronously create the user profile. This maintains loose coupling while ensuring eventual consistency.'}, {'group_name': 'Recipe Engagement Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['User Profile Service', 'Recipe Service'], 'explaination': 'I chose this pattern because when users favorite recipes (user story 12), the User Profile Service publishes RecipeFavorited events that Recipe Service can consume to update popularity metrics, enabling asynchronous communication and analytics.'}, {'group_name': 'Calendar Lifecycle Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['Calendar Service'], 'explaination': 'I chose this pattern because calendar creation and deletion (user stories 9 and 10) publish CalendarCreated and CalendarDeleted events for audit logging and potential analytics purposes, supporting event-driven architecture.'}, {'group_name': 'Recipe Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Recipe Service'], 'explaination': 'I chose this pattern because the Recipe Service has distinct read and write patterns. User stories 2 and 5 require optimized search and query operations for recipe discovery and diet suggestions, while recipe updates use a separate command model. This separation enables efficient chatbot queries and search functionality.'}, {'group_name': 'User Account Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Authentication Service'], 'explaination': 'I chose this pattern because the Authentication Service manages the User Account aggregate with clear boundaries around authentication credentials, OAuth tokens, and session management, ensuring transactional consistency within the aggregate boundary.'}, {'group_name': 'Recipe Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Recipe Service'], 'explaination': 'I chose this pattern because Recipe is a clear aggregate root containing recipe details and references to ingredients, maintaining consistency boundaries for recipe-related operations in user stories 2, 3, and 5.'}, {'group_name': 'Ingredient Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Ingredient Service'], 'explaination': 'I chose this pattern because Ingredient is a clear aggregate root with well-defined boundaries around ingredient information and nutritional data as required by user story 4.'}, {'group_name': 'User Profile Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['User Profile Service'], 'explaination': 'I chose this pattern because UserProfile is an aggregate root that encapsulates profile data and the favorites collection, ensuring consistency for operations in user stories 8, 12, 13, and 14.'}, {'group_name': 'Calendar Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Calendar Service'], 'explaination': 'I chose this pattern because Calendar is an aggregate root containing calendar metadata and events collection, maintaining consistency boundaries for calendar operations in user stories 9, 10, and 11.'}], 'datastore': [{'datastore_name': 'Authentication Database', 'associated_microservices': ['Authentication Service'], 'description': 'Stores user authentication credentials, Google OAuth tokens, session tokens, and registration timestamps. Supports user stories 1, 6, and 7 for registration, login, and logout. Uses the Database per Service pattern to maintain service autonomy.'}, {'datastore_name': 'Recipe Database', 'associated_microservices': ['Recipe Service'], 'description': 'Stores recipe information including names, descriptions, instructions, diet types, ingredient references, and popularity scores. Contains separate command and query models for CQRS pattern. The query model is optimized for search operations (user story 2) and diet-based suggestions (user story 5). Supports user stories 2, 3, and 5.'}, {'datastore_name': 'Ingredient Database', 'associated_microservices': ['Ingredient Service'], 'description': 'Stores detailed ingredient information including names, nutritional data, allergen information, and descriptions. Supports user story 4 for displaying ingredient details. Uses the Database per Service pattern for independent management of ingredient data.'}, {'datastore_name': 'User Profile Database', 'associated_microservices': ['User Profile Service'], 'description': 'Stores user profile data, personal information, and favorite recipe lists. Supports user stories 8, 12, 13, and 14 for profile management and favorites operations. Maintains the UserProfile aggregate with embedded favorites collection. Uses Database per Service pattern for profile data isolation.'}, {'datastore_name': 'Calendar Database', 'associated_microservices': ['Calendar Service'], 'description': 'Stores calendar metadata, recipe-related events, reminder times, and event dates. Supports user stories 9, 10, and 11 for calendar and event management. Maintains the Calendar aggregate with embedded events collection. Uses Database per Service pattern to independently manage calendar data.'}]}</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -1331,10 +1321,10 @@
         <v>14</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="I14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1396,7 +1386,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "Authentication Service", "endpoints": [{"name": "/register", "method": "POST", "inputs": ["email", "password"], "outputs": ["registration result"], "description": "takes user email and password as inputs and outputs the registration result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}, {"name": "/logout", "method": "POST", "inputs": [], "outputs": ["logout result"], "description": "logs out the user"}], "user_stories": ["1", "2", "3", "4", "17", "18", "19", "20", "22", "23", "24"], "parameters": ["email", "password"], "description": "Handles user registration, login, logout, and session management for Clients, Agricultural Companies, and Administrators."}, {"name": "User Profile Service", "endpoints": [], "user_stories": ["5", "21", "28", "29"], "parameters": [], "description": "Manages personal information retrieval and modification for Clients and Agricultural Companies."}, {"name": "Product Catalog Service", "endpoints": [], "user_stories": ["6", "8", "14", "15", "16", "33", "34", "36", "37", "38"], "parameters": [], "description": "Manages product listings including adding, removing, modifying products by Agricultural Companies and Administrators, and provides product browsing capabilities for Clients."}, {"name": "Agricultural Company Service", "endpoints": [], "user_stories": ["7", "14", "15", "16", "17", "18", "19", "20", "31", "32"], "parameters": [], "description": "Manages Agricultural Company registration, login, inventory management, and provides information about Agricultural Companies by area."}, {"name": "Cart and Order Service", "endpoints": [], "user_stories": ["9", "10", "11", "12", "40", "41"], "parameters": [], "description": "Handles shopping cart operations and order completion including product addition/removal in cart and scheduling pickup dates."}, {"name": "Location Service", "endpoints": [], "user_stories": ["13"], "parameters": [], "description": "Provides location information and integration with Google Maps for Agricultural Companies to help Clients find directions."}, {"name": "Administration Service", "endpoints": [], "user_stories": ["25", "26", "27", "28", "29", "30", "31", "32", "33", "34", "35", "36", "37", "38", "39"], "parameters": [], "description": "Allows Administrators to manage users, orders, products, areas, and perform site maintenance tasks including deleting malicious users and managing areas."}], "patterns": [{"group_name": "Authentication Patterns", "implementation_pattern": "API Gateway Authentication", "involved_microservices": ["Authentication Service"], "explaination": "Centralizes authentication at the gateway, handling login, logout, and session management securely."}, {"group_name": "User Profile Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["User Profile Service"], "explaination": "Keeps user profile data private and encapsulated."}, {"group_name": "Product Catalog Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["Product Catalog Service"], "explaination": "Manages product listings independently."}, {"group_name": "Agricultural Company Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["Agricultural Company Service"], "explaination": "Manages company registration, login, and inventory securely."}, {"group_name": "Cart and Order Patterns", "implementation_pattern": "Saga", "involved_microservices": ["Cart and Order Service"], "explaination": "Manages the order lifecycle and maintains data consistency across services."}, {"group_name": "Location Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["Location Service"], "explaination": "Manages location data independently."}, {"group_name": "Administration Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["Administration Service"], "explaination": "Manages administrative data and operations securely."}], "datastore": [{"datastore_name": "User Profile Datastore", "associated_microservices": ["User Profile Service"], "description": "Stores personal information for Clients and Agricultural Companies."}, {"datastore_name": "Product Catalog Datastore", "associated_microservices": ["Product Catalog Service"], "description": "Manages product listings independently."}, {"datastore_name": "Agricultural Company Datastore", "associated_microservices": ["Agricultural Company Service"], "description": "Manages company registration, login, and inventory securely."}, {"datastore_name": "Location Datastore", "associated_microservices": ["Location Service"], "description": "Manages location data independently."}, {"datastore_name": "Administration Datastore", "associated_microservices": ["Administration Service"], "description": "Manages administrative data and operations securely."}]}</t>
+          <t>{'microservices': [{'name': 'Authentication Service', 'endpoints': [{'name': '/register/client', 'method': 'POST', 'inputs': ['email', 'password', 'name', 'address'], 'outputs': ['registration_result', 'user_id'], 'description': 'Registers a new client user'}, {'name': '/register/company', 'method': 'POST', 'inputs': ['email', 'password', 'company_name', 'location', 'area'], 'outputs': ['registration_result', 'company_id'], 'description': 'Registers a new agricultural company'}, {'name': '/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['login_result', 'session_token', 'user_type'], 'description': 'Authenticates user and creates session'}, {'name': '/logout', 'method': 'POST', 'inputs': ['session_token'], 'outputs': ['logout_result'], 'description': 'Terminates user session'}, {'name': '/validate-session', 'method': 'GET', 'inputs': ['session_token'], 'outputs': ['validation_result', 'user_id', 'user_type'], 'description': 'Validates existing session token for persistent login'}, {'name': '/refresh-token', 'method': 'POST', 'inputs': ['refresh_token'], 'outputs': ['new_session_token'], 'description': 'Refreshes session token for continuous authentication'}], 'user_stories': ['1', '2', '3', '4', '17', '18', '19', '20', '22', '23', '24'], 'parameters': ['email', 'password', 'session_token', 'refresh_token', 'user_type', 'user_id'], 'description': 'Handles user authentication, registration, login, logout, and session management for all user types (Clients, Agricultural Companies, and Administrators)'}, {'name': 'User Management Service', 'endpoints': [{'name': '/users/profile', 'method': 'GET', 'inputs': ['user_id', 'session_token'], 'outputs': ['user_profile'], 'description': 'Retrieves personal information for authenticated user'}, {'name': '/users', 'method': 'GET', 'inputs': ['session_token', 'user_type_filter', 'page', 'limit'], 'outputs': ['users_list', 'total_count'], 'description': 'Retrieves all users for administrator'}, {'name': '/users/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'session_token'], 'outputs': ['user_details'], 'description': 'Retrieves detailed information for specific user'}, {'name': '/users/{user_id}', 'method': 'PUT', 'inputs': ['user_id', 'session_token', 'updated_fields'], 'outputs': ['update_result'], 'description': 'Modifies user information for maintenance'}, {'name': '/users/{user_id}', 'method': 'DELETE', 'inputs': ['user_id', 'session_token'], 'outputs': ['deletion_result'], 'description': 'Deletes malicious user account'}], 'user_stories': ['5', '21', '25', '27', '28', '29'], 'parameters': ['user_id', 'user_profile', 'user_type', 'email', 'name', 'address', 'session_token'], 'description': 'Manages user profiles and personal information for clients, agricultural companies, and administrators. Handles user CRUD operations and user queries'}, {'name': 'Product Catalog Service', 'endpoints': [{'name': '/products/hot', 'method': 'GET', 'inputs': ['season', 'limit'], 'outputs': ['hot_products_list'], 'description': 'Retrieves seasonal hot products'}, {'name': '/products/company/{company_id}', 'method': 'GET', 'inputs': ['company_id', 'page', 'limit'], 'outputs': ['products_list'], 'description': 'Retrieves all products for specific agricultural company'}, {'name': '/products', 'method': 'POST', 'inputs': ['session_token', 'company_id', 'product_name', 'description', 'price', 'quantity', 'category'], 'outputs': ['product_id', 'creation_result'], 'description': 'Adds new product to inventory'}, {'name': '/products/{product_id}', 'method': 'PUT', 'inputs': ['product_id', 'session_token', 'updated_fields'], 'outputs': ['update_result'], 'description': 'Modifies existing product details'}, {'name': '/products/{product_id}', 'method': 'DELETE', 'inputs': ['product_id', 'session_token'], 'outputs': ['deletion_result'], 'description': 'Removes product from inventory'}, {'name': '/products/{product_id}', 'method': 'GET', 'inputs': ['product_id'], 'outputs': ['product_details'], 'description': 'Retrieves specific product details by ID'}, {'name': '/products/seller/{seller_id}', 'method': 'GET', 'inputs': ['seller_id', 'session_token'], 'outputs': ['products_list'], 'description': 'Retrieves all products by seller for admin maintenance'}, {'name': '/products/{product_id}/reserve', 'method': 'POST', 'inputs': ['product_id', 'quantity'], 'outputs': ['reservation_result'], 'description': 'Reserves product quantity for order processing'}, {'name': '/products/{product_id}/release', 'method': 'POST', 'inputs': ['product_id', 'quantity'], 'outputs': ['release_result'], 'description': 'Releases reserved product quantity if order fails'}], 'user_stories': ['6', '8', '14', '15', '16', '33', '34', '36', '37', '38'], 'parameters': ['product_id', 'product_name', 'description', 'price', 'quantity', 'category', 'company_id', 'season', 'availability_status'], 'description': 'Manages product inventory including adding, modifying, removing, and querying products. Handles hot products discovery and product browsing by agricultural company'}, {'name': 'Agricultural Company Service', 'endpoints': [{'name': '/companies/area/{area_id}', 'method': 'GET', 'inputs': ['area_id', 'page', 'limit'], 'outputs': ['companies_list'], 'description': 'Retrieves agricultural companies in specific area'}, {'name': '/companies/{company_id}', 'method': 'GET', 'inputs': ['company_id'], 'outputs': ['company_details', 'location', 'google_maps_link'], 'description': 'Retrieves detailed company information including location'}, {'name': '/companies/{company_id}/location', 'method': 'GET', 'inputs': ['company_id'], 'outputs': ['google_maps_url'], 'description': 'Retrieves Google Maps link for company location'}, {'name': '/areas', 'method': 'GET', 'inputs': ['session_token'], 'outputs': ['areas_list'], 'description': 'Retrieves all available areas for admin'}, {'name': '/areas', 'method': 'POST', 'inputs': ['session_token', 'area_name', 'region'], 'outputs': ['area_id', 'creation_result'], 'description': 'Adds new area to the system'}, {'name': '/areas/{area_id}', 'method': 'DELETE', 'inputs': ['area_id', 'session_token'], 'outputs': ['deletion_result'], 'description': 'Deletes area from the system'}, {'name': '/companies', 'method': 'GET', 'inputs': ['session_token', 'area_filter'], 'outputs': ['companies_list', 'area_distribution'], 'description': 'Retrieves all companies with optional area filtering for admin analytics'}], 'user_stories': ['7', '13', '30', '31', '32', '35', '39'], 'parameters': ['company_id', 'company_name', 'location', 'area_id', 'area_name', 'coordinates', 'google_maps_link'], 'description': 'Manages agricultural company profiles, locations, and area-based queries. Handles company discovery by geographical area'}, {'name': 'Shopping Cart Service', 'endpoints': [{'name': '/cart', 'method': 'GET', 'inputs': ['user_id', 'session_token'], 'outputs': ['cart_items', 'total_price'], 'description': "Retrieves all products in user's shopping cart"}, {'name': '/cart/items', 'method': 'POST', 'inputs': ['user_id', 'session_token', 'product_id', 'quantity'], 'outputs': ['add_result', 'cart_summary'], 'description': 'Adds product to shopping cart'}, {'name': '/cart/items/{product_id}', 'method': 'DELETE', 'inputs': ['user_id', 'session_token', 'product_id'], 'outputs': ['removal_result', 'cart_summary'], 'description': 'Removes product from shopping cart'}, {'name': '/cart/items/{product_id}', 'method': 'PUT', 'inputs': ['user_id', 'session_token', 'product_id', 'new_quantity'], 'outputs': ['update_result', 'cart_summary'], 'description': 'Updates product quantity in cart'}, {'name': '/cart/clear', 'method': 'DELETE', 'inputs': ['user_id', 'session_token'], 'outputs': ['clear_result'], 'description': 'Clears all items from shopping cart after order completion'}], 'user_stories': ['9', '10', '11'], 'parameters': ['user_id', 'cart_id', 'cart_items', 'product_id', 'quantity', 'total_price'], 'description': 'Manages shopping cart operations including adding, removing, and viewing products in the cart for clients'}, {'name': 'Order Management Service', 'endpoints': [{'name': '/orders', 'method': 'POST', 'inputs': ['user_id', 'session_token', 'cart_items', 'pickup_date', 'company_id'], 'outputs': ['order_id', 'order_status', 'confirmation'], 'description': 'Creates new order with pickup date selection'}, {'name': '/orders/client/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'session_token', 'status_filter', 'page', 'limit'], 'outputs': ['orders_list', 'total_count'], 'description': 'Retrieves all orders for specific client'}, {'name': '/orders/farmer/{company_id}', 'method': 'GET', 'inputs': ['company_id', 'session_token', 'status_filter', 'page', 'limit'], 'outputs': ['orders_list', 'total_count'], 'description': 'Retrieves all orders for specific farmer/company'}, {'name': '/orders', 'method': 'GET', 'inputs': ['session_token', 'date_from', 'date_to', 'status_filter'], 'outputs': ['all_orders', 'analytics', 'total_revenue'], 'description': 'Retrieves all orders with analytics for administrator'}, {'name': '/orders/{order_id}', 'method': 'GET', 'inputs': ['order_id', 'session_token'], 'outputs': ['order_details', 'items', 'pickup_date', 'status'], 'description': 'Retrieves detailed information for specific order'}, {'name': '/orders/{order_id}/status', 'method': 'PUT', 'inputs': ['order_id', 'session_token', 'new_status'], 'outputs': ['update_result'], 'description': 'Updates order status'}, {'name': '/orders/{order_id}/complete', 'method': 'POST', 'inputs': ['order_id', 'session_token'], 'outputs': ['completion_result'], 'description': 'Marks order as completed'}], 'user_stories': ['12', '26', '40', '41'], 'parameters': ['order_id', 'user_id', 'company_id', 'order_items', 'pickup_date', 'order_status', 'total_amount', 'creation_date'], 'description': 'Handles order creation, completion with pickup date selection, and order history viewing for both clients and farmers. Provides order analytics for administrators'}], 'patterns': [{'group_name': 'Service Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['Authentication Service', 'User Management Service', 'Product Catalog Service', 'Agricultural Company Service', 'Shopping Cart Service', 'Order Management Service'], 'explaination': 'I chose database per service pattern because the context explicitly recommends it for all 6 microservices to ensure loose coupling and allow each service to evolve independently. Each service manages distinct domain data: Authentication manages credentials and sessions, User Management handles profiles, Product Catalog manages inventory, Agricultural Company stores company information, Shopping Cart maintains cart state, and Order Management handles order data.'}, {'group_name': 'Order Completion Workflow', 'implementation_pattern': 'saga', 'involved_microservices': ['Order Management Service', 'Shopping Cart Service', 'Product Catalog Service'], 'explaination': 'I chose the saga pattern because the context identifies it as CRITICAL for the order completion flow (user stories 12, 40, 41). When an order is created, multiple services must coordinate: Order Management creates the order, Shopping Cart clears the cart, and Product Catalog updates inventory quantities. If any step fails, compensating transactions roll back changes to maintain data consistency across services.'}, {'group_name': 'Cross-Service Queries', 'implementation_pattern': 'api composition', 'involved_microservices': ['Product Catalog Service', 'Agricultural Company Service', 'User Management Service', 'Order Management Service'], 'explaination': 'I chose API composition pattern because the context recommends it for cross-service queries in user stories 8 (see products for each company), 26 (admin sees all orders with analytics), and 31 (get companies by area). This pattern allows composing responses from multiple services in memory without duplicating data, such as combining company details with product lists, or order data with user and company information.'}, {'group_name': 'Product Catalog Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Product Catalog Service'], 'explaination': 'I chose CQRS pattern because the context specifically recommends it for Product Catalog Service (user stories 6, 14, 15, 16, 33, 34). The command side handles add/modify/delete operations while the query side maintains optimized views for hot products discovery and browsing by company. This separation improves performance for read-heavy operations like product searches and filtering.'}, {'group_name': 'Order Analytics and History', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Order Management Service'], 'explaination': 'I chose CQRS pattern for Order Management because the context recommends it for user stories 12, 26, 40, 41. The command side handles create/complete order operations while the query side maintains separate read models optimized for client order history, farmer order views, and administrator analytics. This enables efficient querying without impacting write operations.'}, {'group_name': 'Event-Driven Communication', 'implementation_pattern': 'domain event', 'involved_microservices': ['Authentication Service', 'Product Catalog Service', 'Order Management Service', 'User Management Service'], 'explaination': 'I chose domain event pattern because the context recommends it for inter-service communication. Authentication publishes UserRegistered, UserLoggedIn events; Product Catalog publishes ProductAdded, ProductModified, ProductRemoved events; Order Management publishes OrderCreated, OrderCompleted events; and User Management publishes UserDeleted events. These events enable loosely-coupled, asynchronous communication between services for maintaining consistency.'}, {'group_name': 'Order Audit Trail', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Order Management Service'], 'explaination': 'I chose event sourcing pattern because the context recommends it for Order Management Service to store all order state changes as events. This provides a complete audit trail and enables sophisticated analytics required by user story 26 (administrator sees all orders with analytics). Event sourcing allows reconstructing order history and analyzing platform performance over time.'}], 'datastore': [{'datastore_name': 'Authentication Database', 'associated_microservices': ['Authentication Service'], 'description': 'Stores user credentials, session tokens, refresh tokens, and authentication history. Supports user stories 1, 2, 3, 4, 17, 18, 19, 20, 22, 23, 24 for registration, login, session persistence, and logout functionality across all user types.'}, {'datastore_name': 'User Profile Database', 'associated_microservices': ['User Management Service'], 'description': 'Stores user profiles and personal information for clients, agricultural companies, and administrators. Supports user stories 5, 21, 25, 27, 28, 29 for viewing profiles, user CRUD operations, and administrative user management.'}, {'datastore_name': 'Product Catalog Write Database', 'associated_microservices': ['Product Catalog Service'], 'description': 'Command-side database for CQRS pattern storing product inventory master data. Handles write operations for user stories 14, 15, 16, 36, 37, 38 (add, modify, remove products). Maintains product details including name, description, price, quantity, category, and company association.'}, {'datastore_name': 'Product Catalog Read Database', 'associated_microservices': ['Product Catalog Service'], 'description': 'Query-side database for CQRS pattern with materialized views optimized for fast product searches. Supports user stories 6, 8, 33, 34 for hot products discovery, browsing by company, and admin queries. Contains denormalized data for efficient read operations.'}, {'datastore_name': 'Agricultural Company Database', 'associated_microservices': ['Agricultural Company Service'], 'description': 'Stores agricultural company profiles, locations, geographical coordinates, and area associations. Supports user stories 7, 13, 30, 31, 32, 35, 39 for company discovery by area, location services, and area management. Enables Google Maps integration for directions.'}, {'datastore_name': 'Shopping Cart Database', 'associated_microservices': ['Shopping Cart Service'], 'description': 'Stores shopping cart state per client including cart items, product quantities, and total prices. Supports user stories 9, 10, 11 for adding, removing, and viewing cart contents. Cleared as part of the saga pattern during order completion.'}, {'datastore_name': 'Order Management Write Database', 'associated_microservices': ['Order Management Service'], 'description': 'Command-side database for CQRS pattern storing order events for event sourcing. Captures all order state changes including creation, modifications, and completion. Supports user stories 12, 40, 41 for order creation and completion with pickup date selection.'}, {'datastore_name': 'Order Management Read Database', 'associated_microservices': ['Order Management Service'], 'description': 'Query-side database for CQRS pattern with optimized read models for order history and analytics. Maintains separate views for client orders, farmer orders, and administrator analytics. Supports user story 26 for comprehensive order analytics and platform performance monitoring.'}]}</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -1409,10 +1399,10 @@
         <v>41</v>
       </c>
       <c r="H15" t="n">
-        <v>8.142857142857142</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1458,7 +1448,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "User Management Service", "endpoints": [{"name": "/signup", "method": "POST", "inputs": ["email", "password"], "outputs": ["signup result"], "description": "takes user email and password as inputs and outputs the signup result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}, {"name": "/logout", "method": "POST", "inputs": [], "outputs": ["logout result"], "description": "logs out the user"}, {"name": "/profile", "method": "GET", "inputs": [], "outputs": ["profile data"], "description": "retrieves user profile data"}, {"name": "/deleteAccount", "method": "DELETE", "inputs": [], "outputs": ["delete account result"], "description": "deletes the user account"}, {"name": "/modifyCredentials", "method": "PUT", "inputs": ["email", "password"], "outputs": ["modify credentials result"], "description": "modifies user email and password"}], "user_stories": ["1", "2", "3", "4", "5", "6"], "parameters": ["email", "password"], "description": "Handles user registration, authentication, profile management, and account deletion."}, {"name": "News Service", "endpoints": [{"name": "/allNews", "method": "GET", "inputs": [], "outputs": ["news data"], "description": "retrieves all recent news"}, {"name": "/filterNews", "method": "POST", "inputs": ["country"], "outputs": ["filtered news data"], "description": "filters news by country"}, {"name": "/addFavoriteNews", "method": "POST", "inputs": ["newsId"], "outputs": ["add favorite news result"], "description": "adds news to user's favorite list"}, {"name": "/deleteFavoriteNews", "method": "DELETE", "inputs": ["newsId"], "outputs": ["delete favorite news result"], "description": "deletes news from user's favorite list"}], "user_stories": ["7", "8", "9", "10", "15", "20"], "parameters": ["country", "newsId"], "description": "Manages retrieval, filtering, and user-specific favorite news collections."}, {"name": "Ticket Service", "endpoints": [{"name": "/availableTickets", "method": "GET", "inputs": [], "outputs": ["ticket data"], "description": "retrieves available tickets for upcoming events"}, {"name": "/filterTickets", "method": "POST", "inputs": ["country"], "outputs": ["filtered ticket data"], "description": "filters tickets by country"}, {"name": "/addTicketToCollection", "method": "POST", "inputs": ["ticketId"], "outputs": ["add ticket result"], "description": "adds ticket to user's collection"}, {"name": "/deleteTicketFromCollection", "method": "DELETE", "inputs": ["ticketId"], "outputs": ["delete ticket result"], "description": "deletes ticket from user's collection"}], "user_stories": ["11", "12", "13", "14", "15", "21"], "parameters": ["country", "ticketId"], "description": "Manages available tickets for sporting events, filtering, and user-specific ticket collections."}, {"name": "Friendship Service", "endpoints": [{"name": "/sendFriendRequest", "method": "POST", "inputs": ["friendId"], "outputs": ["send friend request result"], "description": "sends a friend request to another user"}, {"name": "/checkFriendRequest", "method": "GET", "inputs": [], "outputs": ["friend request data"], "description": "checks if there are pending friend requests"}, {"name": "/deleteFriend", "method": "DELETE", "inputs": ["friendId"], "outputs": ["delete friend result"], "description": "deletes a friend from the friend list"}, {"name": "/findUserByEmail", "method": "GET", "inputs": ["email"], "outputs": ["user data"], "description": "finds a user by email"}], "user_stories": ["16", "17", "18", "19", "22", "23", "24"], "parameters": ["friendId", "email"], "description": "Handles friend requests, friend list management, and user search by email."}], "patterns": [{"group_name": "User Management Patterns", "implementation_pattern": "Database per Service", "involved_microservices": ["User Management Service"], "explaination": "Maintain dedicated databases for user data to ensure loose coupling and independent scalability."}, {"group_name": "News Service Patterns", "implementation_pattern": "API Composition", "involved_microservices": ["News Service"], "explaination": "Aggregate data from multiple services for queries that span boundaries."}, {"group_name": "Ticket Service Patterns", "implementation_pattern": "Saga", "involved_microservices": ["Ticket Service"], "explaination": "Use Saga to manage distributed transactions reliably for ticket purchase workflows."}, {"group_name": "Friendship Service Patterns", "implementation_pattern": "Saga", "involved_microservices": ["Friendship Service"], "explaination": "Manage friend request workflows as distributed transactions to ensure consistency."}], "datastore": [{"datastore_name": "User Data", "associated_microservices": ["User Management Service"], "description": "Dedicated database for storing user-related information."}, {"datastore_name": "News Data", "associated_microservices": ["News Service"], "description": "Database for storing news data independently."}, {"datastore_name": "Ticket Data", "associated_microservices": ["Ticket Service"], "description": "Database for managing ticket inventory and user ticket collections."}, {"datastore_name": "Friendship Data", "associated_microservices": ["Friendship Service"], "description": "Database for storing friend requests, friend lists, and user search data."}]}</t>
+          <t>{'microservices': [{'name': 'User Management Service', 'endpoints': [{'name': '/signup', 'method': 'POST', 'inputs': ['email', 'password', 'username'], 'outputs': ['user_id', 'registration_status'], 'description': 'Creates a new user account and emits UserCreated event'}, {'name': '/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['auth_token', 'user_id', 'login_status'], 'description': 'Authenticates user and returns authentication token'}, {'name': '/logout', 'method': 'POST', 'inputs': ['auth_token'], 'outputs': ['logout_status'], 'description': 'Logs out user and invalidates authentication token'}, {'name': '/profile', 'method': 'GET', 'inputs': ['auth_token', 'user_id'], 'outputs': ['user_profile'], 'description': 'Retrieves user profile settings'}, {'name': '/profile', 'method': 'PUT', 'inputs': ['auth_token', 'user_id', 'email', 'password'], 'outputs': ['update_status'], 'description': 'Updates user credentials and emits CredentialsUpdated event'}, {'name': '/profile', 'method': 'DELETE', 'inputs': ['auth_token', 'user_id'], 'outputs': ['deletion_status'], 'description': 'Deletes user account and emits UserDeleted event'}], 'user_stories': ['1', '2', '3', '4', '5', '6'], 'parameters': ['user_id', 'email', 'password', 'username', 'auth_token', 'account_status'], 'description': 'Handles user authentication, authorization, account management, and profile operations including signup, login, logout, profile settings, credential updates, and account deletion'}, {'name': 'News Service', 'endpoints': [{'name': '/news', 'method': 'GET', 'inputs': ['limit', 'offset'], 'outputs': ['news_list'], 'description': 'Retrieves all recent sports news'}, {'name': '/news/filter', 'method': 'GET', 'inputs': ['country', 'limit', 'offset'], 'outputs': ['filtered_news_list'], 'description': 'Retrieves news filtered by country'}, {'name': '/news/{news_id}', 'method': 'GET', 'inputs': ['news_id'], 'outputs': ['news_details'], 'description': 'Retrieves specific news article details'}], 'user_stories': ['7', '8'], 'parameters': ['news_id', 'title', 'content', 'country', 'publication_date', 'source'], 'description': 'Manages sports news content, including retrieval of recent news, filtering by country, and provides news data for display'}, {'name': 'Ticket Service', 'endpoints': [{'name': '/tickets', 'method': 'GET', 'inputs': ['limit', 'offset'], 'outputs': ['ticket_list'], 'description': 'Retrieves all available tickets for upcoming sporting events'}, {'name': '/tickets/filter', 'method': 'GET', 'inputs': ['country', 'limit', 'offset'], 'outputs': ['filtered_ticket_list'], 'description': 'Retrieves tickets filtered by country'}, {'name': '/tickets/{ticket_id}', 'method': 'GET', 'inputs': ['ticket_id'], 'outputs': ['ticket_details'], 'description': 'Retrieves specific ticket details'}], 'user_stories': ['11', '12'], 'parameters': ['ticket_id', 'event_name', 'country', 'event_date', 'venue', 'price', 'availability'], 'description': 'Manages sporting event tickets, including retrieval of available tickets for upcoming events and filtering by country'}, {'name': 'User Favorites Service', 'endpoints': [{'name': '/favorites/news', 'method': 'POST', 'inputs': ['auth_token', 'user_id', 'news_id'], 'outputs': ['add_status'], 'description': "Adds a news article to user's favorites"}, {'name': '/favorites/news/{news_id}', 'method': 'DELETE', 'inputs': ['auth_token', 'user_id', 'news_id'], 'outputs': ['delete_status'], 'description': "Removes a news article from user's favorites"}, {'name': '/favorites/news', 'method': 'GET', 'inputs': ['auth_token', 'user_id'], 'outputs': ['favorite_news_list'], 'description': "Retrieves user's collection of saved news with full details"}, {'name': '/favorites/tickets', 'method': 'POST', 'inputs': ['auth_token', 'user_id', 'ticket_id'], 'outputs': ['add_status'], 'description': "Adds a ticket to user's collection"}, {'name': '/favorites/tickets/{ticket_id}', 'method': 'DELETE', 'inputs': ['auth_token', 'user_id', 'ticket_id'], 'outputs': ['delete_status'], 'description': "Removes a ticket from user's collection"}, {'name': '/favorites/tickets', 'method': 'GET', 'inputs': ['auth_token', 'user_id'], 'outputs': ['favorite_tickets_list'], 'description': "Retrieves user's collection of saved tickets with full details"}, {'name': '/favorites/all', 'method': 'DELETE', 'inputs': ['auth_token', 'user_id'], 'outputs': ['deletion_status'], 'description': "Deletes all news and tickets from user's favorites"}], 'user_stories': ['9', '10', '13', '14', '15', '20', '21'], 'parameters': ['user_id', 'news_id', 'ticket_id', 'favorite_type', 'added_date'], 'description': "Manages user's personal collections of saved news and tickets, including adding, removing, viewing collections, and bulk deletion operations"}, {'name': 'Social Service', 'endpoints': [{'name': '/friends/search', 'method': 'GET', 'inputs': ['auth_token', 'email'], 'outputs': ['user_details'], 'description': 'Searches for a user by email and returns their details'}, {'name': '/friends/requests', 'method': 'POST', 'inputs': ['auth_token', 'sender_id', 'receiver_id'], 'outputs': ['request_status'], 'description': 'Sends a friend request to another user'}, {'name': '/friends/requests', 'method': 'GET', 'inputs': ['auth_token', 'user_id'], 'outputs': ['pending_requests_list'], 'description': 'Retrieves all pending friend requests for a user'}, {'name': '/friends/requests/{request_id}/accept', 'method': 'PUT', 'inputs': ['auth_token', 'request_id', 'user_id'], 'outputs': ['acceptance_status'], 'description': 'Accepts a friend request and adds sender to friend list'}, {'name': '/friends/requests/{request_id}', 'method': 'DELETE', 'inputs': ['auth_token', 'request_id', 'user_id'], 'outputs': ['deletion_status'], 'description': 'Deletes or refuses a friend request'}, {'name': '/friends', 'method': 'GET', 'inputs': ['auth_token', 'user_id'], 'outputs': ['friends_list'], 'description': "Retrieves user's friend list with their details"}, {'name': '/friends/{friend_id}', 'method': 'DELETE', 'inputs': ['auth_token', 'user_id', 'friend_id'], 'outputs': ['deletion_status'], 'description': "Removes a friend from user's friend list"}], 'user_stories': ['16', '17', '18', '19', '22', '23', '24'], 'parameters': ['user_id', 'friend_id', 'request_id', 'request_status', 'friendship_date'], 'description': 'Handles social interactions between users including friend requests (sending, accepting, deleting), friend list management, and user search/discovery by email'}], 'patterns': [{'group_name': 'Service Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['User Management Service', 'News Service', 'Ticket Service', 'User Favorites Service', 'Social Service'], 'explaination': 'I chose database per service pattern because the context explicitly recommends this pattern for all five microservices to ensure loose coupling and service independence, which is essential for a microservices architecture'}, {'group_name': 'User Management Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['User Management Service'], 'explaination': 'I chose the aggregate pattern because the context recommends modeling user account information as an aggregate to maintain consistency across authentication, profile, and credential operations'}, {'group_name': 'News Content Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['News Service'], 'explaination': 'I chose the aggregate pattern because the context recommends modeling news articles as aggregates to maintain consistency and encapsulate business logic'}, {'group_name': 'Ticket Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Ticket Service'], 'explaination': 'I chose the aggregate pattern because the context recommends modeling tickets for sporting events as aggregates to ensure consistency in ticket management'}, {'group_name': 'Social Relationships Aggregate', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Social Service'], 'explaination': 'I chose the aggregate pattern because the context recommends modeling friend relationships and friend requests as aggregates to maintain consistency in social interactions'}, {'group_name': 'User Account Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['User Management Service'], 'explaination': 'I chose domain event pattern because the context specifies emitting events like UserCreated, UserDeleted, and CredentialsUpdated for other services to react to account changes, enabling loose coupling'}, {'group_name': 'News Publication Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['News Service'], 'explaination': 'I chose domain event pattern because the context recommends publishing NewsCreated events that other services can consume for eventual consistency'}, {'group_name': 'Ticket Availability Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['Ticket Service'], 'explaination': 'I chose domain event pattern because the context recommends publishing TicketCreated and TicketAvailabilityChanged events for cross-service coordination'}, {'group_name': 'Favorites Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['User Favorites Service'], 'explaination': 'I chose CQRS pattern because the context explicitly recommends implementing separate command and query models since users frequently read their collections (user stories 20, 21) but less frequently modify them'}, {'group_name': 'Favorites Display Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['User Favorites Service', 'News Service', 'Ticket Service'], 'explaination': 'I chose API composition pattern because the context recommends combining data from News Service and Ticket Service when displaying favorite collections with full details (user stories 20, 21)'}, {'group_name': 'Account Deletion Coordination', 'implementation_pattern': 'saga', 'involved_microservices': ['User Management Service', 'User Favorites Service', 'Social Service'], 'explaination': 'I chose saga pattern because the context recommends using it for coordinating the deletion of favorites and friend relationships when a user deletes their account (user story 5), ensuring consistency across services through the UserDeleted event'}, {'group_name': 'Friend Request Workflow', 'implementation_pattern': 'saga', 'involved_microservices': ['Social Service'], 'explaination': 'I chose saga pattern because the context recommends implementing it for friend request workflows (user stories 16, 17, 23, 24) to maintain consistency between sender and receiver states during the multi-step friend request process'}, {'group_name': 'Friend List Display Composition', 'implementation_pattern': 'api composition', 'involved_microservices': ['Social Service', 'User Management Service'], 'explaination': 'I chose API composition pattern because the context recommends using it when retrieving friend lists with user details (user story 22) by combining data from User Management Service'}], 'datastore': [{'datastore_name': 'User Account Database', 'associated_microservices': ['User Management Service'], 'description': 'Stores user account information including credentials, profile settings, and authentication tokens. Influenced by user stories 1-6 for signup, login, logout, profile management, credential updates, and account deletion. Implements aggregate pattern to maintain consistency.'}, {'datastore_name': 'News Content Database', 'associated_microservices': ['News Service'], 'description': 'Stores sports news articles including title, content, country, publication date, and source. Influenced by user stories 7-8 for displaying recent news and filtering by country. Implements aggregate pattern for news articles.'}, {'datastore_name': 'Ticket Inventory Database', 'associated_microservices': ['Ticket Service'], 'description': 'Stores sporting event ticket information including event details, venue, pricing, availability, and country. Influenced by user stories 11-12 for displaying available tickets and filtering by country. Implements aggregate pattern for tickets.'}, {'datastore_name': 'User Favorites Write Database', 'associated_microservices': ['User Favorites Service'], 'description': "Command-side database for CQRS pattern storing user's saved news and ticket collections. Influenced by user stories 9, 10, 13, 14, 15 for adding, removing, and bulk deleting favorites. Optimized for write operations."}, {'datastore_name': 'User Favorites Read Database', 'associated_microservices': ['User Favorites Service'], 'description': "Query-side database for CQRS pattern providing optimized read views of user's favorite collections. Influenced by user stories 20-21 for frequently viewing saved news and tickets. Contains denormalized data for fast retrieval."}, {'datastore_name': 'Social Relationships Database', 'associated_microservices': ['Social Service'], 'description': 'Stores friend relationships, friend requests, and their states (pending, accepted, rejected). Influenced by user stories 16-19, 22-24 for sending/accepting/deleting friend requests, managing friend lists, and user search. Implements aggregate pattern for social relationships.'}]}</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -1471,10 +1461,10 @@
         <v>24</v>
       </c>
       <c r="H16" t="n">
-        <v>6.25</v>
+        <v>4.8</v>
       </c>
       <c r="I16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17">
@@ -1536,7 +1526,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{"microservices": [{"name": "User Management", "endpoints": [{"name": "/create_account", "method": "POST", "inputs": ["email", "password"], "outputs": ["account creation result"], "description": "takes user email and password as inputs and outputs the account creation result"}, {"name": "/login", "method": "POST", "inputs": ["email", "password"], "outputs": ["login result"], "description": "takes user email and password as inputs and outputs the login result"}, {"name": "/logout", "method": "POST", "inputs": [], "outputs": ["logout result"], "description": "logs out the user from the system"}, {"name": "/view_personal_info", "method": "GET", "inputs": ["user_id"], "outputs": ["personal info"], "description": "fetches and displays the personal information of the user"}, {"name": "/modify_personal_info", "method": "PUT", "inputs": ["user_id", "new_info"], "outputs": ["modification result"], "description": "modifies the personal information of the user"}, {"name": "/reset_password", "method": "POST", "inputs": ["email"], "outputs": ["password reset result"], "description": "resets the password for the user"}, {"name": "/delete_account", "method": "DELETE", "inputs": ["user_id"], "outputs": ["account deletion result"], "description": "deletes the user account from the system"}], "user_stories": ["1", "2", "3", "4", "5", "6", "7"], "parameters": ["email", "password", "user_id", "new_info"], "description": "Handles user account creation, authentication, profile management, password reset, and account deletion."}, {"name": "Notification Service", "endpoints": [{"name": "/notifications", "method": "GET", "inputs": ["user_id"], "outputs": ["notifications"], "description": "fetches and displays notifications for the user"}], "user_stories": ["8", "16", "18"], "parameters": ["user_id"], "description": "Manages real-time notifications and provides access to the notification section for users."}, {"name": "Personal Task Management", "endpoints": [{"name": "/personal_tasks", "method": "GET", "inputs": ["user_id"], "outputs": ["personal tasks"], "description": "fetches and displays personal tasks for the user"}, {"name": "/create_personal_task", "method": "POST", "inputs": ["user_id", "task_details"], "outputs": ["task creation result"], "description": "creates a new personal task for the user"}, {"name": "/modify_personal_task", "method": "PUT", "inputs": ["user_id", "task_id", "new_details"], "outputs": ["modification result"], "description": "modifies an existing personal task for the user"}, {"name": "/delete_personal_task", "method": "DELETE", "inputs": ["user_id", "task_id"], "outputs": ["deletion result"], "description": "deletes a personal task for the user"}, {"name": "/check_personal_task", "method": "PUT", "inputs": ["user_id", "task_id"], "outputs": ["task status"], "description": "checks the completion status of a personal task for the user"}], "user_stories": ["9", "11", "12", "13", "14"], "parameters": ["user_id", "task_details", "task_id", "new_details"], "description": "Allows users to create, modify, delete, and check completion status of their personal tasks and agendas."}, {"name": "Team Management", "endpoints": [{"name": "/create_team", "method": "POST", "inputs": ["admin_id", "team_details"], "outputs": ["team creation result"], "description": "creates a new team with the specified details"}, {"name": "/join_team", "method": "POST", "inputs": ["user_id", "team_id"], "outputs": ["join result"], "description": "allows a user to join an existing team"}, {"name": "/view_teams", "method": "GET", "inputs": ["user_id"], "outputs": ["user_teams"], "description": "fetches and displays the list of teams the user has joined"}, {"name": "/leave_team", "method": "DELETE", "inputs": ["user_id", "team_id"], "outputs": ["leave result"], "description": "allows a user to leave a team"}, {"name": "/edit_team", "method": "PUT", "inputs": ["admin_id", "team_id", "new_details"], "outputs": ["edit result"], "description": "edits the details of a team"}, {"name": "/delete_team", "method": "DELETE", "inputs": ["admin_id", "team_id"], "outputs": ["delete result"], "description": "deletes a team from the system"}, {"name": "/add_admin", "method": "PUT", "inputs": ["admin_id", "team_id", "new_admin_id"], "outputs": ["add admin result"], "description": "adds a new admin to the team"}, {"name": "/remove_admin", "method": "DELETE", "inputs": ["admin_id", "team_id", "admin_id"], "outputs": ["remove admin result"], "description": "removes admin privileges from a user"}], "user_stories": ["15", "16", "17", "18", "19", "20", "25", "26"], "parameters": ["admin_id", "team_details", "team_id", "user_id", "new_details", "new_admin_id"], "description": "Enables creation, joining, leaving, editing, and deletion of teams, as well as managing team members and administrators."}, {"name": "Shared Event Management", "endpoints": [{"name": "/create_event", "method": "POST", "inputs": ["admin_id", "event_details"], "outputs": ["event creation result"], "description": "creates a new shared event for the team"}, {"name": "/accept_refuse_event", "method": "PUT", "inputs": ["user_id", "event_id", "response"], "outputs": ["response result"], "description": "accepts or refuses an invitation to participate in an event"}, {"name": "/modify_event", "method": "PUT", "inputs": ["admin_id", "event_id", "new_details"], "outputs": ["modification result"], "description": "modifies the details of a shared event"}, {"name": "/delete_event", "method": "DELETE", "inputs": ["admin_id", "event_id"], "outputs": ["deletion result"], "description": "deletes a shared event from the team's agenda"}, {"name": "/check_event", "method": "PUT", "inputs": ["admin_id", "event_id"], "outputs": ["event status"], "description": "checks the completion status of a shared event"}], "user_stories": ["10", "27", "28", "29", "30", "31"], "parameters": ["admin_id", "event_details", "event_id", "user_id", "response", "new_details"], "description": "Supports creation, modification, deletion, acceptance/refusal, and completion checking of shared team events."}, {"name": "Real-time Chat", "endpoints": [{"name": "/send_message", "method": "POST", "inputs": ["user_id", "message"], "outputs": ["send result"], "description": "sends a message in the group chat"}], "user_stories": ["21"], "parameters": ["user_id", "message"], "description": "Provides real-time group chat functionality for team members to communicate."}, {"name": "Poll Management", "endpoints": [{"name": "/create_poll", "method": "POST", "inputs": ["admin_id", "poll_details"], "outputs": ["poll creation result"], "description": "creates a new poll for the team"}, {"name": "/view_poll_results", "method": "GET", "inputs": ["user_id", "poll_id"], "outputs": ["poll results"], "description": "fetches and displays the results of a poll"}, {"name": "/vote_poll", "method": "PUT", "inputs": ["user_id", "poll_id", "vote_option"], "outputs": ["vote result"], "description": "allows a user to vote for a poll option"}], "user_stories": ["22", "23", "24"], "parameters": ["admin_id", "poll_details", "poll_id", "user_id", "vote_option"], "description": "Allows team administrators to create polls and team members to vote and view poll results."}], "patterns": [{"group_name": "Data Consistency and Transaction Management", "implementation_pattern": "Saga", "involved_microservices": ["Team Management", "Shared Event Management"], "explaination": "I chose this pattern to manage distributed transactions when creating teams, managing shared events, or updating user and team data."}, {"group_name": "Communication Patterns", "implementation_pattern": "Asynchronous Messaging", "involved_microservices": ["Notification Service", "Shared Event Management", "Poll Management"], "explaination": "I chose this pattern for inter-service communication where eventual consistency is acceptable, such as notifications, event updates, and poll results."}, {"group_name": "Query Patterns", "implementation_pattern": "API Composition", "involved_microservices": ["Personal Task Management", "Team Management"], "explaination": "I chose this pattern for queries that require data from multiple services to optimize query performance."}], "datastore": [{"datastore_name": "User Management Database", "associated_microservices": ["User Management"], "description": "Database to store user account information, profiles, and authentication data."}, {"datastore_name": "Notification Database", "associated_microservices": ["Notification Service"], "description": "Database to store real-time notifications for users."}, {"datastore_name": "Personal Task Database", "associated_microservices": ["Personal Task Management"], "description": "Database to store personal tasks and agendas for users."}, {"datastore_name": "Team Database", "associated_microservices": ["Team Management"], "description": "Database to store team information, memberships, and team events."}, {"datastore_name": "Shared Event Database", "associated_microservices": ["Shared Event Management"], "description": "Database to store shared team events and event details."}, {"datastore_name": "Chat Database", "associated_microservices": ["Real-time Chat"], "description": "Database to store chat messages and communication history for teams."}, {"datastore_name": "Poll Database", "associated_microservices": ["Poll Management"], "description": "Database to store polls, voting results, and poll details for teams."}]}</t>
+          <t>{'microservices': [{'name': 'User Management Service', 'endpoints': [{'name': '/users/register', 'method': 'POST', 'inputs': ['email', 'password', 'name', 'personal_info'], 'outputs': ['user_id', 'registration_status'], 'description': 'Creates a new user account with provided credentials and personal information'}, {'name': '/users/login', 'method': 'POST', 'inputs': ['email', 'password'], 'outputs': ['auth_token', 'user_id', 'login_status'], 'description': 'Authenticates user and returns authentication token'}, {'name': '/users/logout', 'method': 'POST', 'inputs': ['auth_token'], 'outputs': ['logout_status'], 'description': 'Logs out user and invalidates authentication token'}, {'name': '/users/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'auth_token'], 'outputs': ['user_profile', 'personal_information'], 'description': "Retrieves user's personal information and profile details"}, {'name': '/users/{user_id}', 'method': 'PUT', 'inputs': ['user_id', 'auth_token', 'updated_information'], 'outputs': ['update_status'], 'description': "Updates user's personal information including password and profile data"}, {'name': '/users/password/reset', 'method': 'POST', 'inputs': ['email'], 'outputs': ['reset_token', 'reset_status'], 'description': 'Initiates password reset process and sends reset token'}, {'name': '/users/{user_id}', 'method': 'DELETE', 'inputs': ['user_id', 'auth_token'], 'outputs': ['deletion_status'], 'description': 'Deletes user account and all associated personal data'}], 'user_stories': ['1', '2', '3', '4', '5', '6', '7'], 'parameters': ['user_id', 'email', 'password', 'name', 'personal_info', 'auth_token', 'account_status'], 'description': 'Handles user account lifecycle including registration, authentication, profile management, and password operations'}, {'name': 'Notification Service', 'endpoints': [{'name': '/notifications/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'auth_token'], 'outputs': ['notification_list'], 'description': 'Retrieves all notifications for a specific user'}, {'name': '/notifications/{notification_id}/read', 'method': 'PUT', 'inputs': ['notification_id', 'user_id', 'auth_token'], 'outputs': ['update_status'], 'description': 'Marks a notification as read'}, {'name': '/notifications/send', 'method': 'POST', 'inputs': ['user_id', 'notification_type', 'content', 'source_service'], 'outputs': ['notification_id', 'delivery_status'], 'description': 'Internal endpoint to send notifications to users'}], 'user_stories': ['8'], 'parameters': ['notification_id', 'user_id', 'notification_type', 'content', 'timestamp', 'read_status', 'source_service'], 'description': 'Manages real-time notifications delivery and notification history for users'}, {'name': 'Personal Task Service', 'endpoints': [{'name': '/tasks/personal', 'method': 'GET', 'inputs': ['user_id', 'auth_token', 'filters'], 'outputs': ['personal_task_list', 'personal_agenda'], 'description': 'Retrieves personal agenda with all personal tasks for a user'}, {'name': '/tasks/personal', 'method': 'POST', 'inputs': ['user_id', 'auth_token', 'task_title', 'task_description', 'due_date', 'priority'], 'outputs': ['task_id', 'creation_status'], 'description': 'Creates a new personal task for the user'}, {'name': '/tasks/personal/{task_id}', 'method': 'PUT', 'inputs': ['task_id', 'user_id', 'auth_token', 'updated_task_data'], 'outputs': ['update_status'], 'description': 'Updates an existing personal task with new information'}, {'name': '/tasks/personal/{task_id}', 'method': 'DELETE', 'inputs': ['task_id', 'user_id', 'auth_token'], 'outputs': ['deletion_status'], 'description': "Deletes a personal task from the user's agenda"}, {'name': '/tasks/personal/{task_id}/complete', 'method': 'PUT', 'inputs': ['task_id', 'user_id', 'auth_token', 'completion_status'], 'outputs': ['update_status'], 'description': 'Marks a personal task as completed or incomplete'}], 'user_stories': ['9', '11', '12', '13', '14'], 'parameters': ['task_id', 'user_id', 'task_title', 'task_description', 'due_date', 'priority', 'completion_status', 'created_at'], 'description': 'Manages personal tasks and personal agenda for individual users including CRUD operations and task completion tracking'}, {'name': 'Team Management Service', 'endpoints': [{'name': '/teams', 'method': 'POST', 'inputs': ['user_id', 'auth_token', 'team_name', 'team_description'], 'outputs': ['team_id', 'creation_status'], 'description': 'Creates a new team with the creator as administrator'}, {'name': '/teams/{team_id}/join', 'method': 'POST', 'inputs': ['team_id', 'user_id', 'auth_token', 'invitation_code'], 'outputs': ['join_status'], 'description': 'Allows a user to join an existing team'}, {'name': '/teams/user/{user_id}', 'method': 'GET', 'inputs': ['user_id', 'auth_token'], 'outputs': ['team_list', 'team_details'], 'description': 'Retrieves list of all teams a user has joined'}, {'name': '/teams/{team_id}/leave', 'method': 'POST', 'inputs': ['team_id', 'user_id', 'auth_token'], 'outputs': ['leave_status'], 'description': 'Removes user from team membership'}, {'name': '/teams/{team_id}/admins', 'method': 'POST', 'inputs': ['team_id', 'admin_user_id', 'target_user_id', 'auth_token'], 'outputs': ['assignment_status'], 'description': 'Assigns administrator role to a team member'}, {'name': '/teams/{team_id}/admins/{user_id}', 'method': 'DELETE', 'inputs': ['team_id', 'admin_user_id', 'target_user_id', 'auth_token'], 'outputs': ['removal_status'], 'description': 'Removes administrator role from a team member'}, {'name': '/teams/{team_id}', 'method': 'PUT', 'inputs': ['team_id', 'admin_user_id', 'auth_token', 'updated_team_info'], 'outputs': ['update_status'], 'description': 'Updates team information like name and description'}, {'name': '/teams/{team_id}', 'method': 'DELETE', 'inputs': ['team_id', 'admin_user_id', 'auth_token'], 'outputs': ['deletion_status'], 'description': 'Deletes a team and all associated data'}, {'name': '/teams/{team_id}/members', 'method': 'GET', 'inputs': ['team_id', 'user_id', 'auth_token'], 'outputs': ['member_list'], 'description': 'Retrieves list of all team members'}], 'user_stories': ['15', '16', '17', '18', '19', '20', '25', '26'], 'parameters': ['team_id', 'user_id', 'team_name', 'team_description', 'admin_list', 'member_list', 'created_at', 'invitation_code'], 'description': 'Handles team lifecycle, membership management, team information, and administrator role assignment'}, {'name': 'Team Event Service', 'endpoints': [{'name': '/events/team/{team_id}', 'method': 'GET', 'inputs': ['team_id', 'user_id', 'auth_token'], 'outputs': ['team_event_list', 'team_agenda'], 'description': 'Retrieves shared agenda with all events for a specific team'}, {'name': '/events/team', 'method': 'POST', 'inputs': ['team_id', 'admin_user_id', 'auth_token', 'event_title', 'event_description', 'event_date', 'invited_members'], 'outputs': ['event_id', 'creation_status'], 'description': 'Creates a new team event and sends invitations to members'}, {'name': '/events/{event_id}/invitation', 'method': 'PUT', 'inputs': ['event_id', 'user_id', 'auth_token', 'invitation_response'], 'outputs': ['response_status'], 'description': 'Allows user to accept or refuse event invitation'}, {'name': '/events/{event_id}', 'method': 'PUT', 'inputs': ['event_id', 'admin_user_id', 'auth_token', 'updated_event_data'], 'outputs': ['update_status'], 'description': 'Updates an existing team event with new information'}, {'name': '/events/{event_id}', 'method': 'DELETE', 'inputs': ['event_id', 'admin_user_id', 'auth_token'], 'outputs': ['deletion_status'], 'description': 'Deletes a team event from the shared agenda'}, {'name': '/events/{event_id}/complete', 'method': 'PUT', 'inputs': ['event_id', 'admin_user_id', 'auth_token', 'completion_status'], 'outputs': ['update_status'], 'description': 'Marks a team event as completed or incomplete'}], 'user_stories': ['10', '27', '28', '29', '30', '31'], 'parameters': ['event_id', 'team_id', 'admin_user_id', 'event_title', 'event_description', 'event_date', 'invited_members', 'acceptance_list', 'completion_status', 'created_at'], 'description': 'Manages shared team events, team agenda, event invitations, and event completion tracking'}, {'name': 'Chat Service', 'endpoints': [{'name': '/chat/{team_id}/messages', 'method': 'GET', 'inputs': ['team_id', 'user_id', 'auth_token', 'pagination'], 'outputs': ['message_list', 'chat_history'], 'description': 'Retrieves chat message history for a team'}, {'name': '/chat/{team_id}/messages', 'method': 'POST', 'inputs': ['team_id', 'user_id', 'auth_token', 'message_content'], 'outputs': ['message_id', 'send_status'], 'description': 'Sends a new message to the team group chat'}, {'name': '/chat/{team_id}/messages/stream', 'method': 'GET', 'inputs': ['team_id', 'user_id', 'auth_token'], 'outputs': ['real_time_messages'], 'description': 'WebSocket endpoint for real-time message streaming'}], 'user_stories': ['21'], 'parameters': ['message_id', 'team_id', 'user_id', 'message_content', 'timestamp', 'sender_name'], 'description': 'Provides real-time group chat functionality for team members'}, {'name': 'Poll Service', 'endpoints': [{'name': '/polls', 'method': 'POST', 'inputs': ['team_id', 'admin_user_id', 'auth_token', 'poll_question', 'poll_options', 'deadline'], 'outputs': ['poll_id', 'creation_status'], 'description': 'Creates a new poll for a team'}, {'name': '/polls/{poll_id}', 'method': 'GET', 'inputs': ['poll_id', 'user_id', 'auth_token'], 'outputs': ['poll_details', 'poll_results', 'vote_counts'], 'description': 'Retrieves poll details and results'}, {'name': '/polls/{poll_id}/vote', 'method': 'POST', 'inputs': ['poll_id', 'user_id', 'auth_token', 'selected_option'], 'outputs': ['vote_status'], 'description': 'Allows team member to cast a vote on a poll'}, {'name': '/polls/team/{team_id}', 'method': 'GET', 'inputs': ['team_id', 'user_id', 'auth_token'], 'outputs': ['poll_list'], 'description': 'Retrieves all polls for a specific team'}], 'user_stories': ['22', '23', '24'], 'parameters': ['poll_id', 'team_id', 'admin_user_id', 'poll_question', 'poll_options', 'deadline', 'vote_history', 'results', 'created_at'], 'description': 'Handles poll creation, voting, and results visualization for team surveys'}], 'patterns': [{'group_name': 'Service Data Isolation', 'implementation_pattern': 'database per service', 'involved_microservices': ['User Management Service', 'Notification Service', 'Personal Task Service', 'Team Management Service', 'Team Event Service', 'Chat Service', 'Poll Service'], 'explaination': 'I chose database per service pattern because it ensures loose coupling between microservices, allows independent scaling and deployment, and prevents direct database access between services. Each service owns its data and maintains autonomy, which is essential for a microservices architecture. The specifications and user stories require independent management of users, tasks, teams, events, chats, and polls.'}, {'group_name': 'User Registration and Notification Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['User Management Service', 'Notification Service'], 'explaination': 'I chose the saga pattern for user registration because it requires a distributed transaction across User Management Service (create account) and Notification Service (send welcome notification). This ensures data consistency and handles failures gracefully. User stories 1 and 8 influenced this choice.'}, {'group_name': 'Team Creation Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Team Management Service', 'Notification Service'], 'explaination': 'I chose the saga pattern for team creation because when a team is created (user story 15), notifications need to be sent to members. This distributed transaction ensures both team creation and notification delivery are coordinated, with compensation logic if either step fails.'}, {'group_name': 'Event Invitation Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Team Event Service', 'Notification Service', 'User Management Service'], 'explaination': 'I chose the saga pattern for event invitations because creating an event (user story 27) requires coordinating between Team Event Service, sending notifications to invited members via Notification Service, and validating users via User Management Service. User story 28 (accept/refuse invitation) also requires coordinated updates across services.'}, {'group_name': 'Team Deletion Flow', 'implementation_pattern': 'saga', 'involved_microservices': ['Team Management Service', 'Team Event Service', 'Chat Service', 'Poll Service'], 'explaination': 'I chose the saga pattern for team deletion (user story 26) because deleting a team requires cascading deletion of related data: team events, chat messages, and polls. This ensures data consistency across multiple services with proper rollback capabilities if any step fails.'}, {'group_name': 'Inter-Service Communication Events', 'implementation_pattern': 'domain event', 'involved_microservices': ['User Management Service', 'Team Management Service', 'Team Event Service', 'Poll Service'], 'explaination': 'I chose the domain event pattern because services need to communicate state changes asynchronously. User Management publishes UserRegistered, UserDeleted events; Team Management publishes TeamCreated, MemberAdded, TeamDeleted events; Team Event Service publishes EventCreated, InvitationAccepted events; Poll Service publishes PollCreated, VoteCast events. This maintains loose coupling while ensuring eventual consistency across services as required by the specifications.'}, {'group_name': 'Chat Message History and Audit Trail', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Chat Service'], 'explaination': 'I chose event sourcing for Chat Service (user story 21) because chat requires complete conversation history, message ordering, and the ability to replay messages. Every message is stored as an immutable event, enabling audit trails and ensuring no data loss in real-time communication.'}, {'group_name': 'Notification Delivery Tracking', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Notification Service'], 'explaination': 'I chose event sourcing for Notification Service (user story 8) because notifications require tracking delivery status, read/unread states, and complete history. Event sourcing enables notification audit trails and allows rebuilding notification states from events.'}, {'group_name': 'Poll Voting Integrity', 'implementation_pattern': 'event sourcing', 'involved_microservices': ['Poll Service'], 'explaination': 'I chose event sourcing for Poll Service (user stories 22-24) because voting requires immutable audit trails to ensure vote integrity, prevent double voting, and track voting history. Each vote is stored as an event, enabling transparent vote counting and preventing vote manipulation.'}, {'group_name': 'Personal Task Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Personal Task Service'], 'explaination': 'I chose CQRS for Personal Task Service because user stories 9, 11-14 require separating task management commands (create, update, delete, complete) from complex query operations (view personal agenda with filters). This optimizes read and write operations independently and improves performance for agenda visualization.'}, {'group_name': 'Team Event Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Team Event Service'], 'explaination': 'I chose CQRS for Team Event Service because user stories 10, 27-31 require separating event management commands from team agenda queries. The shared agenda view (user story 10) has different performance requirements than event creation/modification, making CQRS beneficial for optimization.'}, {'group_name': 'Notification History Management', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Notification Service'], 'explaination': 'I chose CQRS for Notification Service (user story 8) because sending notifications (write) has different requirements than viewing notification history (read). This separation allows optimized notification queries while handling high-volume notification writes efficiently.'}, {'group_name': 'Team Management Query Optimization', 'implementation_pattern': 'cqrs', 'involved_microservices': ['Team Management Service'], 'explaination': 'I chose CQRS for Team Management Service because user stories 15-20, 25-26 require separating team management commands (create, modify, delete, member management) from team list and member queries (user story 17). This optimizes read-heavy operations like viewing team lists.'}, {'group_name': 'Combined Personal and Team Agenda View', 'implementation_pattern': 'api composition', 'involved_microservices': ['Personal Task Service', 'Team Event Service'], 'explaination': 'I chose API composition pattern because user stories 9 and 10 require viewing both personal tasks and team events. A gateway or client needs to compose data from Personal Task Service and Team Event Service to provide a unified agenda view combining personal and shared tasks.'}, {'group_name': 'Team Aggregate Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Team Management Service'], 'explaination': "I chose the aggregate pattern for Team Management Service because Team is a natural aggregate root that maintains consistency boundaries for members and administrators. User stories 15-20, 25-26 require managing team entities with their members and roles as a cohesive unit, ensuring invariants like 'a team must have at least one administrator'."}, {'group_name': 'Event Aggregate Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Team Event Service'], 'explaination': "I chose the aggregate pattern for Team Event Service because Event is an aggregate root that includes invitations and responses. User stories 27-31 require managing events with their invitation lists and acceptance statuses as a consistent unit, ensuring business rules like 'only invited members can respond'."}, {'group_name': 'Poll Aggregate Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Poll Service'], 'explaination': "I chose the aggregate pattern for Poll Service because Poll is an aggregate root that includes options and votes. User stories 22-24 require managing polls with their voting options and cast votes as a transactional unit, ensuring consistency rules like 'one vote per member' and 'votes must be for valid options'."}, {'group_name': 'Personal Task Aggregate Management', 'implementation_pattern': 'aggregate', 'involved_microservices': ['Personal Task Service'], 'explaination': "I chose the aggregate pattern for Personal Task Service because a user's task list serves as an aggregate root. User stories 9, 11-14 require managing personal tasks as a cohesive collection where operations maintain consistency boundaries and business rules within a user's personal agenda."}], 'datastore': [{'datastore_name': 'User Database', 'associated_microservices': ['User Management Service'], 'description': 'Stores user accounts, credentials, profile information, and authentication tokens. Supports user stories 1-7 for account lifecycle management including registration, login, profile management, password reset, and account deletion. Uses database per service pattern.'}, {'datastore_name': 'Notification Event Store', 'associated_microservices': ['Notification Service'], 'description': 'Event-sourced datastore that stores notification events, delivery status, and read/unread states. Supports user story 8 for notification history and tracking. Uses event sourcing with CQRS pattern for optimized read and write operations. Stores events like NotificationSent, NotificationRead for audit trail.'}, {'datastore_name': 'Personal Task Database', 'associated_microservices': ['Personal Task Service'], 'description': 'Stores personal tasks with command and query models separated per CQRS pattern. Supports user stories 9, 11-14 for personal task management and agenda visualization. Command model handles task mutations while query model provides optimized views for personal agenda. Uses aggregate pattern for task list consistency.'}, {'datastore_name': 'Team Database', 'associated_microservices': ['Team Management Service'], 'description': 'Stores team information, membership lists, and administrator roles with CQRS separation. Supports user stories 15-20, 25-26 for team lifecycle, membership management, and role assignment. Uses aggregate pattern to maintain team consistency boundaries including member and admin relationships.'}, {'datastore_name': 'Team Event Database', 'associated_microservices': ['Team Event Service'], 'description': 'Stores team events, invitations, and acceptance responses with CQRS optimization. Supports user stories 10, 27-31 for shared event management, invitation handling, and team agenda. Uses aggregate pattern to ensure event-invitation consistency. Separates command and query models for efficient agenda queries.'}, {'datastore_name': 'Chat Event Store', 'associated_microservices': ['Chat Service'], 'description': 'Event-sourced datastore that stores all chat messages as immutable events. Supports user story 21 for real-time group chat with complete conversation history. Every message is an event enabling replay, audit trails, and ensuring message ordering integrity for team communications.'}, {'datastore_name': 'Poll Event Store', 'associated_microservices': ['Poll Service'], 'description': 'Event-sourced datastore that stores poll creation and voting events with CQRS for result queries. Supports user stories 22-24 for poll creation, voting, and results visualization. Uses aggregate pattern for poll consistency and event sourcing to ensure vote integrity and prevent manipulation. Stores PollCreated, VoteCast events.'}]}</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1549,7 +1539,7 @@
         <v>31</v>
       </c>
       <c r="H17" t="n">
-        <v>4.714285714285714</v>
+        <v>4.428571428571429</v>
       </c>
       <c r="I17" t="n">
         <v>7</v>
